--- a/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
+++ b/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
@@ -37,7 +37,7 @@
     <t>z_disparity_nursing_18_64_pct</t>
   </si>
   <si>
-    <t>index_disparity_nursing_18_64_pct</t>
+    <t>EQ_index_disparity_nursing_18_64_pct</t>
   </si>
   <si>
     <t>pwd_grpquarters_institution_pct</t>
@@ -52,7 +52,7 @@
     <t>z_disparity_grpquarters_institution_pct</t>
   </si>
   <si>
-    <t>index_disparity_grpquarters_institution_pct</t>
+    <t>EQ_index_disparity_grpquarters_institution_pct</t>
   </si>
   <si>
     <t>pwd_grpquarters_noninstitution_pct</t>
@@ -67,7 +67,7 @@
     <t>z_disparity_grpquarters_noninstitution_pct</t>
   </si>
   <si>
-    <t>index_disparity_grpquarters_noninstitution_pct</t>
+    <t>EQ_index_disparity_grpquarters_noninstitution_pct</t>
   </si>
   <si>
     <t>pwd_home_pct</t>
@@ -82,7 +82,7 @@
     <t>z_disparity_home_pct</t>
   </si>
   <si>
-    <t>index_disparity_home_pct</t>
+    <t>EQ_index_disparity_home_pct</t>
   </si>
   <si>
     <t>pwd_corrections_pct</t>
@@ -97,7 +97,7 @@
     <t>z_disparity_corrections_pct</t>
   </si>
   <si>
-    <t>index_disparity_corrections_pct</t>
+    <t>EQ_index_disparity_corrections_pct</t>
   </si>
   <si>
     <t>Community Living Equity Index</t>

--- a/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
+++ b/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>GEOID</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
   </si>
   <si>
     <t>Florida</t>
@@ -1753,7 +1747,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="15">
         <v>48</v>
@@ -2726,87 +2720,87 @@
         <v>2022</v>
       </c>
       <c r="E11" s="18">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="F11" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G11" s="18">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="H11" s="18">
-        <v>-0.479384807152673</v>
+        <v>0.10094981653268</v>
       </c>
       <c r="I11" s="18">
-        <v>42.01</v>
+        <v>51.68</v>
       </c>
       <c r="J11" s="18">
-        <v>4.89</v>
+        <v>5.08</v>
       </c>
       <c r="K11" s="18">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="L11" s="18">
-        <v>4.57</v>
+        <v>4.47</v>
       </c>
       <c r="M11" s="18">
-        <v>0.0503973325087714</v>
+        <v>0.117940149273104</v>
       </c>
       <c r="N11" s="18">
-        <v>50.84</v>
+        <v>51.97</v>
       </c>
       <c r="O11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>-0.57</v>
+      </c>
+      <c r="R11" s="18">
+        <v>-0.8253473560835251</v>
+      </c>
+      <c r="S11" s="18">
+        <v>36.24</v>
+      </c>
+      <c r="T11" s="18">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="U11" s="18">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="V11" s="18">
+        <v>-4.75</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0.193694777612694</v>
+      </c>
+      <c r="X11" s="18">
+        <v>53.23</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1.26</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA11" s="18">
         <v>0.7</v>
       </c>
-      <c r="P11" s="18">
-        <v>2.78</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>-2.08</v>
-      </c>
-      <c r="R11" s="18">
-        <v>2.55349906725737</v>
-      </c>
-      <c r="S11" s="18">
-        <v>92.56</v>
-      </c>
-      <c r="T11" s="18">
-        <v>89.2</v>
-      </c>
-      <c r="U11" s="18">
-        <v>96.55</v>
-      </c>
-      <c r="V11" s="18">
-        <v>-7.34999999999999</v>
-      </c>
-      <c r="W11" s="18">
-        <v>-1.3458427845999</v>
-      </c>
-      <c r="X11" s="18">
-        <v>27.57</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>0.72</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>0.46</v>
-      </c>
       <c r="AB11" s="18">
-        <v>0.141785499361278</v>
+        <v>-0.692876308199454</v>
       </c>
       <c r="AC11" s="18">
-        <v>52.36</v>
+        <v>38.45</v>
       </c>
       <c r="AD11" s="18">
-        <v>53.07</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="15">
         <v>50</v>
@@ -2818,87 +2812,87 @@
         <v>2022</v>
       </c>
       <c r="E12" s="18">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="F12" s="18">
         <v>0.01</v>
       </c>
       <c r="G12" s="18">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="H12" s="18">
-        <v>0.10094981653268</v>
+        <v>0.813178672873794</v>
       </c>
       <c r="I12" s="18">
-        <v>51.68</v>
+        <v>63.55</v>
       </c>
       <c r="J12" s="18">
-        <v>5.08</v>
+        <v>4.34</v>
       </c>
       <c r="K12" s="18">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="L12" s="18">
-        <v>4.47</v>
+        <v>3.52</v>
       </c>
       <c r="M12" s="18">
-        <v>0.117940149273104</v>
+        <v>0.759596908534267</v>
       </c>
       <c r="N12" s="18">
-        <v>51.97</v>
+        <v>62.66</v>
       </c>
       <c r="O12" s="18">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="P12" s="18">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q12" s="18">
-        <v>-0.57</v>
+        <v>-0.8</v>
       </c>
       <c r="R12" s="18">
-        <v>-0.8253473560835251</v>
+        <v>-0.310688629349481</v>
       </c>
       <c r="S12" s="18">
-        <v>36.24</v>
+        <v>44.82</v>
       </c>
       <c r="T12" s="18">
-        <v>93.73999999999999</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="U12" s="18">
-        <v>98.48999999999999</v>
+        <v>98.12</v>
       </c>
       <c r="V12" s="18">
-        <v>-4.75</v>
+        <v>-3.38000000000001</v>
       </c>
       <c r="W12" s="18">
-        <v>0.193694777612694</v>
+        <v>1.0049126469324</v>
       </c>
       <c r="X12" s="18">
-        <v>53.23</v>
+        <v>66.75</v>
       </c>
       <c r="Y12" s="18">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="Z12" s="18">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA12" s="18">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="AB12" s="18">
-        <v>-0.692876308199454</v>
+        <v>-0.553766006939332</v>
       </c>
       <c r="AC12" s="18">
-        <v>38.45</v>
+        <v>40.77</v>
       </c>
       <c r="AD12" s="18">
-        <v>46.31</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="15">
         <v>52</v>
@@ -2910,87 +2904,87 @@
         <v>2022</v>
       </c>
       <c r="E13" s="18">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="F13" s="18">
         <v>0.01</v>
       </c>
       <c r="G13" s="18">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="H13" s="18">
-        <v>0.813178672873794</v>
+        <v>0.364738281844204</v>
       </c>
       <c r="I13" s="18">
-        <v>63.55</v>
+        <v>56.08</v>
       </c>
       <c r="J13" s="18">
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="K13" s="18">
-        <v>0.82</v>
+        <v>0.26</v>
       </c>
       <c r="L13" s="18">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="M13" s="18">
-        <v>0.759596908534267</v>
+        <v>0.6785455284170679</v>
       </c>
       <c r="N13" s="18">
-        <v>62.66</v>
+        <v>61.31</v>
       </c>
       <c r="O13" s="18">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="P13" s="18">
-        <v>0.9399999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" s="18">
-        <v>-0.8</v>
+        <v>-1.29</v>
       </c>
       <c r="R13" s="18">
-        <v>-0.310688629349481</v>
+        <v>0.78575822325783</v>
       </c>
       <c r="S13" s="18">
-        <v>44.82</v>
+        <v>63.1</v>
       </c>
       <c r="T13" s="18">
-        <v>94.73999999999999</v>
+        <v>93.11</v>
       </c>
       <c r="U13" s="18">
-        <v>98.12</v>
+        <v>97.84</v>
       </c>
       <c r="V13" s="18">
-        <v>-3.38000000000001</v>
+        <v>-4.73</v>
       </c>
       <c r="W13" s="18">
-        <v>1.0049126469324</v>
+        <v>0.205537374245096</v>
       </c>
       <c r="X13" s="18">
-        <v>66.75</v>
+        <v>53.43</v>
       </c>
       <c r="Y13" s="18">
-        <v>1.41</v>
+        <v>0.54</v>
       </c>
       <c r="Z13" s="18">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="AA13" s="18">
-        <v>0.66</v>
+        <v>0.31</v>
       </c>
       <c r="AB13" s="18">
-        <v>-0.553766006939332</v>
+        <v>0.663449129086735</v>
       </c>
       <c r="AC13" s="18">
-        <v>40.77</v>
+        <v>61.06</v>
       </c>
       <c r="AD13" s="18">
-        <v>55.71</v>
+        <v>58.99</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="15">
         <v>54</v>
@@ -3002,87 +2996,87 @@
         <v>2022</v>
       </c>
       <c r="E14" s="18">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="F14" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G14" s="18">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H14" s="18">
-        <v>0.364738281844204</v>
+        <v>0.470253667968813</v>
       </c>
       <c r="I14" s="18">
-        <v>56.08</v>
+        <v>57.84</v>
       </c>
       <c r="J14" s="18">
-        <v>3.9</v>
+        <v>4.92</v>
       </c>
       <c r="K14" s="18">
-        <v>0.26</v>
+        <v>0.55</v>
       </c>
       <c r="L14" s="18">
-        <v>3.64</v>
+        <v>4.37</v>
       </c>
       <c r="M14" s="18">
-        <v>0.6785455284170679</v>
+        <v>0.185482966037437</v>
       </c>
       <c r="N14" s="18">
-        <v>61.31</v>
+        <v>53.09</v>
       </c>
       <c r="O14" s="18">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="P14" s="18">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="Q14" s="18">
-        <v>-1.29</v>
+        <v>-1.13</v>
       </c>
       <c r="R14" s="18">
-        <v>0.78575822325783</v>
+        <v>0.427734761181974</v>
       </c>
       <c r="S14" s="18">
-        <v>63.1</v>
+        <v>57.13</v>
       </c>
       <c r="T14" s="18">
-        <v>93.11</v>
+        <v>94.06</v>
       </c>
       <c r="U14" s="18">
-        <v>97.84</v>
+        <v>97.94</v>
       </c>
       <c r="V14" s="18">
-        <v>-4.73</v>
+        <v>-3.88</v>
       </c>
       <c r="W14" s="18">
-        <v>0.205537374245096</v>
+        <v>0.708847731122296</v>
       </c>
       <c r="X14" s="18">
-        <v>53.43</v>
+        <v>61.81</v>
       </c>
       <c r="Y14" s="18">
-        <v>0.54</v>
+        <v>1.2</v>
       </c>
       <c r="Z14" s="18">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="AA14" s="18">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="AB14" s="18">
-        <v>0.663449129086735</v>
+        <v>-0.727653883514484</v>
       </c>
       <c r="AC14" s="18">
-        <v>61.06</v>
+        <v>37.87</v>
       </c>
       <c r="AD14" s="18">
-        <v>58.99</v>
+        <v>53.55</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="15">
         <v>56</v>
@@ -3094,87 +3088,87 @@
         <v>2022</v>
       </c>
       <c r="E15" s="18">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.47</v>
+      </c>
+      <c r="H15" s="18">
+        <v>-3</v>
+      </c>
+      <c r="I15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <v>1.04</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.470253667968813</v>
-      </c>
-      <c r="I15" s="18">
-        <v>57.84</v>
-      </c>
       <c r="J15" s="18">
-        <v>4.92</v>
+        <v>6.33</v>
       </c>
       <c r="K15" s="18">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="L15" s="18">
-        <v>4.37</v>
+        <v>5.84</v>
       </c>
       <c r="M15" s="18">
-        <v>0.185482966037437</v>
+        <v>-0.807396440398257</v>
       </c>
       <c r="N15" s="18">
-        <v>53.09</v>
+        <v>36.54</v>
       </c>
       <c r="O15" s="18">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="P15" s="18">
-        <v>1.31</v>
+        <v>0.82</v>
       </c>
       <c r="Q15" s="18">
-        <v>-1.13</v>
+        <v>-0.62</v>
       </c>
       <c r="R15" s="18">
-        <v>0.427734761181974</v>
+        <v>-0.7134650241848201</v>
       </c>
       <c r="S15" s="18">
-        <v>57.13</v>
+        <v>38.11</v>
       </c>
       <c r="T15" s="18">
-        <v>94.06</v>
+        <v>92.42</v>
       </c>
       <c r="U15" s="18">
-        <v>97.94</v>
+        <v>98.58</v>
       </c>
       <c r="V15" s="18">
-        <v>-3.88</v>
+        <v>-6.16</v>
       </c>
       <c r="W15" s="18">
-        <v>0.708847731122296</v>
+        <v>-0.641208284971827</v>
       </c>
       <c r="X15" s="18">
-        <v>61.81</v>
+        <v>39.31</v>
       </c>
       <c r="Y15" s="18">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="Z15" s="18">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="AA15" s="18">
-        <v>0.71</v>
+        <v>0.32</v>
       </c>
       <c r="AB15" s="18">
-        <v>-0.727653883514484</v>
+        <v>0.628671553771704</v>
       </c>
       <c r="AC15" s="18">
-        <v>37.87</v>
+        <v>60.48</v>
       </c>
       <c r="AD15" s="18">
-        <v>53.55</v>
+        <v>34.89</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s" s="15">
         <v>58</v>
@@ -3186,87 +3180,87 @@
         <v>2022</v>
       </c>
       <c r="E16" s="18">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="F16" s="18">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="18">
-        <v>2.47</v>
+        <v>1.41</v>
       </c>
       <c r="H16" s="18">
-        <v>-3</v>
+        <v>-0.505763653683825</v>
       </c>
       <c r="I16" s="18">
-        <v>0</v>
+        <v>41.57</v>
       </c>
       <c r="J16" s="18">
-        <v>6.33</v>
+        <v>6.14</v>
       </c>
       <c r="K16" s="18">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="L16" s="18">
-        <v>5.84</v>
+        <v>5.53</v>
       </c>
       <c r="M16" s="18">
-        <v>-0.807396440398257</v>
+        <v>-0.598013708428825</v>
       </c>
       <c r="N16" s="18">
-        <v>36.54</v>
+        <v>40.03</v>
       </c>
       <c r="O16" s="18">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="P16" s="18">
-        <v>0.82</v>
+        <v>1.1</v>
       </c>
       <c r="Q16" s="18">
-        <v>-0.62</v>
+        <v>-0.91</v>
       </c>
       <c r="R16" s="18">
-        <v>-0.7134650241848201</v>
+        <v>-0.0645474991723292</v>
       </c>
       <c r="S16" s="18">
-        <v>38.11</v>
+        <v>48.92</v>
       </c>
       <c r="T16" s="18">
-        <v>92.42</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="U16" s="18">
-        <v>98.58</v>
+        <v>98.11</v>
       </c>
       <c r="V16" s="18">
-        <v>-6.16</v>
+        <v>-5.20999999999999</v>
       </c>
       <c r="W16" s="18">
-        <v>-0.641208284971827</v>
+        <v>-0.0786849449326079</v>
       </c>
       <c r="X16" s="18">
-        <v>39.31</v>
+        <v>48.69</v>
       </c>
       <c r="Y16" s="18">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z16" s="18">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AA16" s="18">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="AB16" s="18">
-        <v>0.628671553771704</v>
+        <v>0.454783677196552</v>
       </c>
       <c r="AC16" s="18">
-        <v>60.48</v>
+        <v>57.58</v>
       </c>
       <c r="AD16" s="18">
-        <v>34.89</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="15">
         <v>60</v>
@@ -3278,87 +3272,87 @@
         <v>2022</v>
       </c>
       <c r="E17" s="18">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="F17" s="18">
         <v>0.01</v>
       </c>
       <c r="G17" s="18">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="H17" s="18">
-        <v>-0.505763653683825</v>
+        <v>-1.08609827736918</v>
       </c>
       <c r="I17" s="18">
-        <v>41.57</v>
+        <v>31.9</v>
       </c>
       <c r="J17" s="18">
-        <v>6.14</v>
+        <v>8.15</v>
       </c>
       <c r="K17" s="18">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="L17" s="18">
-        <v>5.53</v>
+        <v>7.72</v>
       </c>
       <c r="M17" s="18">
-        <v>-0.598013708428825</v>
+        <v>-2.07720139556772</v>
       </c>
       <c r="N17" s="18">
-        <v>40.03</v>
+        <v>15.38</v>
       </c>
       <c r="O17" s="18">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="P17" s="18">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" s="18">
-        <v>-0.91</v>
+        <v>-1.21</v>
       </c>
       <c r="R17" s="18">
-        <v>-0.0645474991723292</v>
+        <v>0.606746492219901</v>
       </c>
       <c r="S17" s="18">
-        <v>48.92</v>
+        <v>60.11</v>
       </c>
       <c r="T17" s="18">
-        <v>92.90000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="U17" s="18">
-        <v>98.11</v>
+        <v>97.88</v>
       </c>
       <c r="V17" s="18">
-        <v>-5.20999999999999</v>
+        <v>-7.44999999999999</v>
       </c>
       <c r="W17" s="18">
-        <v>-0.0786849449326079</v>
+        <v>-1.40505576776192</v>
       </c>
       <c r="X17" s="18">
-        <v>48.69</v>
+        <v>26.58</v>
       </c>
       <c r="Y17" s="18">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="Z17" s="18">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AA17" s="18">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="AB17" s="18">
-        <v>0.454783677196552</v>
+        <v>0.802559430346857</v>
       </c>
       <c r="AC17" s="18">
-        <v>57.58</v>
+        <v>63.38</v>
       </c>
       <c r="AD17" s="18">
-        <v>47.36</v>
+        <v>39.47</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="15">
         <v>62</v>
@@ -3370,87 +3364,87 @@
         <v>2022</v>
       </c>
       <c r="E18" s="18">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="F18" s="18">
         <v>0.01</v>
       </c>
       <c r="G18" s="18">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="H18" s="18">
-        <v>-1.08609827736918</v>
+        <v>-0.189217495309997</v>
       </c>
       <c r="I18" s="18">
-        <v>31.9</v>
+        <v>46.85</v>
       </c>
       <c r="J18" s="18">
-        <v>8.15</v>
+        <v>6.96</v>
       </c>
       <c r="K18" s="18">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L18" s="18">
-        <v>7.72</v>
+        <v>6.4</v>
       </c>
       <c r="M18" s="18">
-        <v>-2.07720139556772</v>
+        <v>-1.18563621427852</v>
       </c>
       <c r="N18" s="18">
-        <v>15.38</v>
+        <v>30.24</v>
       </c>
       <c r="O18" s="18">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="P18" s="18">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" s="18">
-        <v>-1.21</v>
+        <v>-0.95</v>
       </c>
       <c r="R18" s="18">
-        <v>0.606746492219901</v>
+        <v>0.0249583663466345</v>
       </c>
       <c r="S18" s="18">
-        <v>60.11</v>
+        <v>50.42</v>
       </c>
       <c r="T18" s="18">
-        <v>90.43000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="U18" s="18">
-        <v>97.88</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="V18" s="18">
-        <v>-7.44999999999999</v>
+        <v>-6.64</v>
       </c>
       <c r="W18" s="18">
-        <v>-1.40505576776192</v>
+        <v>-0.92543060414954</v>
       </c>
       <c r="X18" s="18">
-        <v>26.58</v>
+        <v>34.58</v>
       </c>
       <c r="Y18" s="18">
-        <v>0.65</v>
+        <v>1.35</v>
       </c>
       <c r="Z18" s="18">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AA18" s="18">
-        <v>0.27</v>
+        <v>0.85</v>
       </c>
       <c r="AB18" s="18">
-        <v>0.802559430346857</v>
+        <v>-1.21453993792491</v>
       </c>
       <c r="AC18" s="18">
-        <v>63.38</v>
+        <v>29.76</v>
       </c>
       <c r="AD18" s="18">
-        <v>39.47</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="15">
         <v>64</v>
@@ -3462,87 +3456,87 @@
         <v>2022</v>
       </c>
       <c r="E19" s="18">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="F19" s="18">
         <v>0.01</v>
       </c>
       <c r="G19" s="18">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="H19" s="18">
-        <v>-0.189217495309997</v>
+        <v>0.285601742250746</v>
       </c>
       <c r="I19" s="18">
-        <v>46.85</v>
+        <v>54.76</v>
       </c>
       <c r="J19" s="18">
-        <v>6.96</v>
+        <v>4.81</v>
       </c>
       <c r="K19" s="18">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L19" s="18">
-        <v>6.4</v>
+        <v>4.01</v>
       </c>
       <c r="M19" s="18">
-        <v>-1.18563621427852</v>
+        <v>0.428637106389036</v>
       </c>
       <c r="N19" s="18">
-        <v>30.24</v>
+        <v>57.14</v>
       </c>
       <c r="O19" s="18">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="P19" s="18">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="Q19" s="18">
-        <v>-0.95</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="R19" s="18">
-        <v>0.0249583663466345</v>
+        <v>-0.28831216296974</v>
       </c>
       <c r="S19" s="18">
-        <v>50.42</v>
+        <v>45.19</v>
       </c>
       <c r="T19" s="18">
-        <v>91.34999999999999</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="U19" s="18">
-        <v>97.98999999999999</v>
+        <v>97.95</v>
       </c>
       <c r="V19" s="18">
-        <v>-6.64</v>
+        <v>-3.74000000000001</v>
       </c>
       <c r="W19" s="18">
-        <v>-0.92543060414954</v>
+        <v>0.79174590754912</v>
       </c>
       <c r="X19" s="18">
-        <v>34.58</v>
+        <v>63.2</v>
       </c>
       <c r="Y19" s="18">
         <v>1.35</v>
       </c>
       <c r="Z19" s="18">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA19" s="18">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="AB19" s="18">
-        <v>-1.21453993792491</v>
+        <v>-0.345100555049149</v>
       </c>
       <c r="AC19" s="18">
-        <v>29.76</v>
+        <v>44.25</v>
       </c>
       <c r="AD19" s="18">
-        <v>38.37</v>
+        <v>52.91</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s" s="15">
         <v>66</v>
@@ -3554,87 +3548,87 @@
         <v>2022</v>
       </c>
       <c r="E20" s="18">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="F20" s="18">
         <v>0.01</v>
       </c>
       <c r="G20" s="18">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="H20" s="18">
-        <v>0.285601742250746</v>
+        <v>-0.08370210918538711</v>
       </c>
       <c r="I20" s="18">
-        <v>54.76</v>
+        <v>48.6</v>
       </c>
       <c r="J20" s="18">
-        <v>4.81</v>
+        <v>4.75</v>
       </c>
       <c r="K20" s="18">
+        <v>1.15</v>
+      </c>
+      <c r="L20" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.705562655122801</v>
+      </c>
+      <c r="N20" s="18">
+        <v>61.76</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="P20" s="18">
         <v>0.8</v>
       </c>
-      <c r="L20" s="18">
-        <v>4.01</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0.428637106389036</v>
-      </c>
-      <c r="N20" s="18">
-        <v>57.14</v>
-      </c>
-      <c r="O20" s="18">
-        <v>0.22</v>
-      </c>
-      <c r="P20" s="18">
-        <v>1.03</v>
-      </c>
       <c r="Q20" s="18">
-        <v>-0.8100000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="R20" s="18">
-        <v>-0.28831216296974</v>
+        <v>-0.7358414905645601</v>
       </c>
       <c r="S20" s="18">
-        <v>45.19</v>
+        <v>37.74</v>
       </c>
       <c r="T20" s="18">
-        <v>94.20999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="U20" s="18">
-        <v>97.95</v>
+        <v>97.91</v>
       </c>
       <c r="V20" s="18">
-        <v>-3.74000000000001</v>
+        <v>-3.61999999999999</v>
       </c>
       <c r="W20" s="18">
-        <v>0.79174590754912</v>
+        <v>0.862801487343559</v>
       </c>
       <c r="X20" s="18">
-        <v>63.2</v>
+        <v>64.38</v>
       </c>
       <c r="Y20" s="18">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="Z20" s="18">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AA20" s="18">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AB20" s="18">
-        <v>-0.345100555049149</v>
+        <v>1.04600245755207</v>
       </c>
       <c r="AC20" s="18">
-        <v>44.25</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="AD20" s="18">
-        <v>52.91</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s" s="15">
         <v>68</v>
@@ -3646,87 +3640,87 @@
         <v>2022</v>
       </c>
       <c r="E21" s="18">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="F21" s="18">
         <v>0.01</v>
       </c>
       <c r="G21" s="18">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="H21" s="18">
-        <v>-0.08370210918538711</v>
+        <v>0.417495974906508</v>
       </c>
       <c r="I21" s="18">
-        <v>48.6</v>
+        <v>56.96</v>
       </c>
       <c r="J21" s="18">
-        <v>4.75</v>
+        <v>5.78</v>
       </c>
       <c r="K21" s="18">
-        <v>1.15</v>
+        <v>0.25</v>
       </c>
       <c r="L21" s="18">
-        <v>3.6</v>
+        <v>5.53</v>
       </c>
       <c r="M21" s="18">
-        <v>0.705562655122801</v>
+        <v>-0.598013708428825</v>
       </c>
       <c r="N21" s="18">
-        <v>61.76</v>
+        <v>40.03</v>
       </c>
       <c r="O21" s="18">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="P21" s="18">
-        <v>0.8</v>
+        <v>1.26</v>
       </c>
       <c r="Q21" s="18">
-        <v>-0.61</v>
+        <v>-0.92</v>
       </c>
       <c r="R21" s="18">
-        <v>-0.7358414905645601</v>
+        <v>-0.0421710327925886</v>
       </c>
       <c r="S21" s="18">
-        <v>37.74</v>
+        <v>49.3</v>
       </c>
       <c r="T21" s="18">
-        <v>94.29000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="U21" s="18">
-        <v>97.91</v>
+        <v>98.25</v>
       </c>
       <c r="V21" s="18">
-        <v>-3.61999999999999</v>
+        <v>-5.75</v>
       </c>
       <c r="W21" s="18">
-        <v>0.862801487343559</v>
+        <v>-0.398435054007535</v>
       </c>
       <c r="X21" s="18">
-        <v>64.38</v>
+        <v>43.36</v>
       </c>
       <c r="Y21" s="18">
-        <v>1.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z21" s="18">
-        <v>1.08</v>
+        <v>0.18</v>
       </c>
       <c r="AA21" s="18">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AB21" s="18">
-        <v>1.04600245755207</v>
+        <v>0.420006101881521</v>
       </c>
       <c r="AC21" s="18">
-        <v>67.43000000000001</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="18">
-        <v>55.98</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s" s="15">
         <v>70</v>
@@ -3738,87 +3732,87 @@
         <v>2022</v>
       </c>
       <c r="E22" s="18">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="F22" s="18">
         <v>0.01</v>
       </c>
       <c r="G22" s="18">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="H22" s="18">
-        <v>0.417495974906508</v>
+        <v>-1.00696173777572</v>
       </c>
       <c r="I22" s="18">
-        <v>56.96</v>
+        <v>33.22</v>
       </c>
       <c r="J22" s="18">
-        <v>5.78</v>
+        <v>5.1</v>
       </c>
       <c r="K22" s="18">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="L22" s="18">
-        <v>5.53</v>
+        <v>4.66</v>
       </c>
       <c r="M22" s="18">
-        <v>-0.598013708428825</v>
+        <v>-0.0103912025791281</v>
       </c>
       <c r="N22" s="18">
-        <v>40.03</v>
+        <v>49.83</v>
       </c>
       <c r="O22" s="18">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="P22" s="18">
-        <v>1.26</v>
+        <v>0.85</v>
       </c>
       <c r="Q22" s="18">
-        <v>-0.92</v>
+        <v>-0.61</v>
       </c>
       <c r="R22" s="18">
-        <v>-0.0421710327925886</v>
+        <v>-0.7358414905645611</v>
       </c>
       <c r="S22" s="18">
-        <v>49.3</v>
+        <v>37.74</v>
       </c>
       <c r="T22" s="18">
-        <v>92.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="U22" s="18">
-        <v>98.25</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="V22" s="18">
-        <v>-5.75</v>
+        <v>-5.5</v>
       </c>
       <c r="W22" s="18">
-        <v>-0.398435054007535</v>
+        <v>-0.250402596102478</v>
       </c>
       <c r="X22" s="18">
-        <v>43.36</v>
+        <v>45.83</v>
       </c>
       <c r="Y22" s="18">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Z22" s="18">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="AA22" s="18">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="AB22" s="18">
-        <v>0.420006101881521</v>
+        <v>0.141785499361278</v>
       </c>
       <c r="AC22" s="18">
-        <v>57</v>
+        <v>52.36</v>
       </c>
       <c r="AD22" s="18">
-        <v>49.33</v>
+        <v>43.79</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="15">
         <v>72</v>
@@ -3830,87 +3824,87 @@
         <v>2022</v>
       </c>
       <c r="E23" s="18">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="F23" s="18">
         <v>0.01</v>
       </c>
       <c r="G23" s="18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="H23" s="18">
-        <v>-1.00696173777572</v>
+        <v>-0.294732881434607</v>
       </c>
       <c r="I23" s="18">
-        <v>33.22</v>
+        <v>45.09</v>
       </c>
       <c r="J23" s="18">
-        <v>5.1</v>
+        <v>5.64</v>
       </c>
       <c r="K23" s="18">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="L23" s="18">
-        <v>4.66</v>
+        <v>5.41</v>
       </c>
       <c r="M23" s="18">
-        <v>-0.0103912025791281</v>
+        <v>-0.516962328311625</v>
       </c>
       <c r="N23" s="18">
-        <v>49.83</v>
+        <v>41.38</v>
       </c>
       <c r="O23" s="18">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="P23" s="18">
-        <v>0.85</v>
+        <v>2.03</v>
       </c>
       <c r="Q23" s="18">
-        <v>-0.61</v>
+        <v>-1.64</v>
       </c>
       <c r="R23" s="18">
-        <v>-0.7358414905645611</v>
+        <v>1.56893454654877</v>
       </c>
       <c r="S23" s="18">
-        <v>37.74</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="T23" s="18">
-        <v>93.09999999999999</v>
+        <v>91.53</v>
       </c>
       <c r="U23" s="18">
-        <v>98.59999999999999</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="V23" s="18">
-        <v>-5.5</v>
+        <v>-5.92999999999999</v>
       </c>
       <c r="W23" s="18">
-        <v>-0.250402596102478</v>
+        <v>-0.505018423699172</v>
       </c>
       <c r="X23" s="18">
-        <v>45.83</v>
+        <v>41.58</v>
       </c>
       <c r="Y23" s="18">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="Z23" s="18">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="AA23" s="18">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="AB23" s="18">
-        <v>0.141785499361278</v>
+        <v>0.7677818550318261</v>
       </c>
       <c r="AC23" s="18">
-        <v>52.36</v>
+        <v>62.8</v>
       </c>
       <c r="AD23" s="18">
-        <v>43.79</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="15">
         <v>74</v>
@@ -3922,87 +3916,87 @@
         <v>2022</v>
       </c>
       <c r="E24" s="18">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F24" s="18">
         <v>0.01</v>
       </c>
       <c r="G24" s="18">
-        <v>1.33</v>
+        <v>0.93</v>
       </c>
       <c r="H24" s="18">
-        <v>-0.294732881434607</v>
+        <v>0.76042097981149</v>
       </c>
       <c r="I24" s="18">
-        <v>45.09</v>
+        <v>62.67</v>
       </c>
       <c r="J24" s="18">
-        <v>5.64</v>
+        <v>4.42</v>
       </c>
       <c r="K24" s="18">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="L24" s="18">
-        <v>5.41</v>
+        <v>3.94</v>
       </c>
       <c r="M24" s="18">
-        <v>-0.516962328311625</v>
+        <v>0.475917078124069</v>
       </c>
       <c r="N24" s="18">
-        <v>41.38</v>
+        <v>57.93</v>
       </c>
       <c r="O24" s="18">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="P24" s="18">
-        <v>2.03</v>
+        <v>0.87</v>
       </c>
       <c r="Q24" s="18">
-        <v>-1.64</v>
+        <v>-0.6</v>
       </c>
       <c r="R24" s="18">
-        <v>1.56893454654877</v>
+        <v>-0.7582179569443021</v>
       </c>
       <c r="S24" s="18">
-        <v>76.15000000000001</v>
+        <v>37.36</v>
       </c>
       <c r="T24" s="18">
-        <v>91.53</v>
+        <v>93.94</v>
       </c>
       <c r="U24" s="18">
-        <v>97.45999999999999</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="V24" s="18">
-        <v>-5.92999999999999</v>
+        <v>-4.57000000000001</v>
       </c>
       <c r="W24" s="18">
-        <v>-0.505018423699172</v>
+        <v>0.300278147304331</v>
       </c>
       <c r="X24" s="18">
-        <v>41.58</v>
+        <v>55</v>
       </c>
       <c r="Y24" s="18">
-        <v>0.46</v>
+        <v>1.14</v>
       </c>
       <c r="Z24" s="18">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="AA24" s="18">
-        <v>0.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB24" s="18">
-        <v>0.7677818550318261</v>
+        <v>-0.658098732884423</v>
       </c>
       <c r="AC24" s="18">
-        <v>62.8</v>
+        <v>39.03</v>
       </c>
       <c r="AD24" s="18">
-        <v>53.4</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="15">
         <v>76</v>
@@ -4014,87 +4008,87 @@
         <v>2022</v>
       </c>
       <c r="E25" s="18">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="F25" s="18">
         <v>0.01</v>
       </c>
       <c r="G25" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="H25" s="18">
+        <v>-0.215596341841149</v>
+      </c>
+      <c r="I25" s="18">
+        <v>46.41</v>
+      </c>
+      <c r="J25" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0.31</v>
+      </c>
+      <c r="L25" s="18">
+        <v>6.19</v>
+      </c>
+      <c r="M25" s="18">
+        <v>-1.04379629907342</v>
+      </c>
+      <c r="N25" s="18">
+        <v>32.6</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="P25" s="18">
         <v>0.93</v>
       </c>
-      <c r="H25" s="18">
-        <v>0.76042097981149</v>
-      </c>
-      <c r="I25" s="18">
-        <v>62.67</v>
-      </c>
-      <c r="J25" s="18">
-        <v>4.42</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0.48</v>
-      </c>
-      <c r="L25" s="18">
-        <v>3.94</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0.475917078124069</v>
-      </c>
-      <c r="N25" s="18">
-        <v>57.93</v>
-      </c>
-      <c r="O25" s="18">
-        <v>0.27</v>
-      </c>
-      <c r="P25" s="18">
-        <v>0.87</v>
-      </c>
       <c r="Q25" s="18">
-        <v>-0.6</v>
+        <v>-0.46</v>
       </c>
       <c r="R25" s="18">
-        <v>-0.7582179569443021</v>
+        <v>-1.07148848626068</v>
       </c>
       <c r="S25" s="18">
-        <v>37.36</v>
+        <v>32.14</v>
       </c>
       <c r="T25" s="18">
-        <v>93.94</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="U25" s="18">
-        <v>98.51000000000001</v>
+        <v>98.64</v>
       </c>
       <c r="V25" s="18">
-        <v>-4.57000000000001</v>
+        <v>-8.74</v>
       </c>
       <c r="W25" s="18">
-        <v>0.300278147304331</v>
+        <v>-2.16890325055202</v>
       </c>
       <c r="X25" s="18">
-        <v>55</v>
+        <v>13.85</v>
       </c>
       <c r="Y25" s="18">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="Z25" s="18">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="AA25" s="18">
-        <v>0.6899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="AB25" s="18">
-        <v>-0.658098732884423</v>
+        <v>0.906892156291948</v>
       </c>
       <c r="AC25" s="18">
-        <v>39.03</v>
+        <v>65.11</v>
       </c>
       <c r="AD25" s="18">
-        <v>50.4</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="15">
         <v>78</v>
@@ -4106,87 +4100,87 @@
         <v>2022</v>
       </c>
       <c r="E26" s="18">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="F26" s="18">
         <v>0.01</v>
       </c>
       <c r="G26" s="18">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H26" s="18">
-        <v>-0.215596341841149</v>
+        <v>-1.27075020308724</v>
       </c>
       <c r="I26" s="18">
-        <v>46.41</v>
+        <v>28.82</v>
       </c>
       <c r="J26" s="18">
-        <v>6.5</v>
+        <v>5.32</v>
       </c>
       <c r="K26" s="18">
-        <v>0.31</v>
+        <v>1.15</v>
       </c>
       <c r="L26" s="18">
-        <v>6.19</v>
+        <v>4.17</v>
       </c>
       <c r="M26" s="18">
-        <v>-1.04379629907342</v>
+        <v>0.320568599566103</v>
       </c>
       <c r="N26" s="18">
-        <v>32.6</v>
+        <v>55.34</v>
       </c>
       <c r="O26" s="18">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="P26" s="18">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="Q26" s="18">
-        <v>-0.46</v>
+        <v>-0.97</v>
       </c>
       <c r="R26" s="18">
-        <v>-1.07148848626068</v>
+        <v>0.0697112991061167</v>
       </c>
       <c r="S26" s="18">
-        <v>32.14</v>
+        <v>51.16</v>
       </c>
       <c r="T26" s="18">
-        <v>89.90000000000001</v>
+        <v>93.83</v>
       </c>
       <c r="U26" s="18">
-        <v>98.64</v>
+        <v>97.45</v>
       </c>
       <c r="V26" s="18">
-        <v>-8.74</v>
+        <v>-3.62</v>
       </c>
       <c r="W26" s="18">
-        <v>-2.16890325055202</v>
+        <v>0.86280148734355</v>
       </c>
       <c r="X26" s="18">
-        <v>13.85</v>
+        <v>64.38</v>
       </c>
       <c r="Y26" s="18">
-        <v>0.5</v>
+        <v>1.08</v>
       </c>
       <c r="Z26" s="18">
-        <v>0.26</v>
+        <v>1.07</v>
       </c>
       <c r="AA26" s="18">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="AB26" s="18">
-        <v>0.906892156291948</v>
+        <v>1.70677638853765</v>
       </c>
       <c r="AC26" s="18">
-        <v>65.11</v>
+        <v>78.45</v>
       </c>
       <c r="AD26" s="18">
-        <v>38.02</v>
+        <v>55.63</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s" s="15">
         <v>80</v>
@@ -4198,87 +4192,87 @@
         <v>2022</v>
       </c>
       <c r="E27" s="18">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="F27" s="18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G27" s="18">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="H27" s="18">
-        <v>-1.27075020308724</v>
+        <v>-1.82470598024145</v>
       </c>
       <c r="I27" s="18">
-        <v>28.82</v>
+        <v>19.59</v>
       </c>
       <c r="J27" s="18">
-        <v>5.32</v>
+        <v>6.23</v>
       </c>
       <c r="K27" s="18">
-        <v>1.15</v>
+        <v>0.57</v>
       </c>
       <c r="L27" s="18">
-        <v>4.17</v>
+        <v>5.66</v>
       </c>
       <c r="M27" s="18">
-        <v>0.320568599566103</v>
+        <v>-0.685819370222458</v>
       </c>
       <c r="N27" s="18">
-        <v>55.34</v>
+        <v>38.57</v>
       </c>
       <c r="O27" s="18">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="P27" s="18">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Q27" s="18">
-        <v>-0.97</v>
+        <v>-0.91</v>
       </c>
       <c r="R27" s="18">
-        <v>0.0697112991061167</v>
+        <v>-0.0645474991723297</v>
       </c>
       <c r="S27" s="18">
-        <v>51.16</v>
+        <v>48.92</v>
       </c>
       <c r="T27" s="18">
-        <v>93.83</v>
+        <v>92.7</v>
       </c>
       <c r="U27" s="18">
-        <v>97.45</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="V27" s="18">
-        <v>-3.62</v>
+        <v>-5.39999999999999</v>
       </c>
       <c r="W27" s="18">
-        <v>0.86280148734355</v>
+        <v>-0.19118961294045</v>
       </c>
       <c r="X27" s="18">
-        <v>64.38</v>
+        <v>46.81</v>
       </c>
       <c r="Y27" s="18">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="Z27" s="18">
-        <v>1.07</v>
+        <v>0.51</v>
       </c>
       <c r="AA27" s="18">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="AB27" s="18">
-        <v>1.70677638853765</v>
+        <v>0.280895800621399</v>
       </c>
       <c r="AC27" s="18">
-        <v>78.45</v>
+        <v>54.68</v>
       </c>
       <c r="AD27" s="18">
-        <v>55.63</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="15">
         <v>82</v>
@@ -4290,87 +4284,87 @@
         <v>2022</v>
       </c>
       <c r="E28" s="18">
-        <v>1.93</v>
+        <v>1.21</v>
       </c>
       <c r="F28" s="18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G28" s="18">
-        <v>1.91</v>
+        <v>1.21</v>
       </c>
       <c r="H28" s="18">
-        <v>-1.82470598024145</v>
+        <v>0.0218132769392226</v>
       </c>
       <c r="I28" s="18">
-        <v>19.59</v>
+        <v>50.36</v>
       </c>
       <c r="J28" s="18">
-        <v>6.23</v>
+        <v>5.22</v>
       </c>
       <c r="K28" s="18">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="L28" s="18">
-        <v>5.66</v>
+        <v>4.67</v>
       </c>
       <c r="M28" s="18">
-        <v>-0.685819370222458</v>
+        <v>-0.0171454842555619</v>
       </c>
       <c r="N28" s="18">
-        <v>38.57</v>
+        <v>49.71</v>
       </c>
       <c r="O28" s="18">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="P28" s="18">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="Q28" s="18">
-        <v>-0.91</v>
+        <v>-0.8</v>
       </c>
       <c r="R28" s="18">
-        <v>-0.0645474991723297</v>
+        <v>-0.310688629349481</v>
       </c>
       <c r="S28" s="18">
-        <v>48.92</v>
+        <v>44.82</v>
       </c>
       <c r="T28" s="18">
-        <v>92.7</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="U28" s="18">
-        <v>98.09999999999999</v>
+        <v>98.11</v>
       </c>
       <c r="V28" s="18">
-        <v>-5.39999999999999</v>
+        <v>-5.42999999999999</v>
       </c>
       <c r="W28" s="18">
-        <v>-0.19118961294045</v>
+        <v>-0.208953507889058</v>
       </c>
       <c r="X28" s="18">
-        <v>46.81</v>
+        <v>46.52</v>
       </c>
       <c r="Y28" s="18">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="Z28" s="18">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="AA28" s="18">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="AB28" s="18">
-        <v>0.280895800621399</v>
+        <v>0.176563074676308</v>
       </c>
       <c r="AC28" s="18">
-        <v>54.68</v>
+        <v>52.94</v>
       </c>
       <c r="AD28" s="18">
-        <v>41.72</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="15">
         <v>84</v>
@@ -4382,87 +4376,87 @@
         <v>2022</v>
       </c>
       <c r="E29" s="18">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="F29" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G29" s="18">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="H29" s="18">
-        <v>0.0218132769392226</v>
+        <v>-1.05971943083803</v>
       </c>
       <c r="I29" s="18">
-        <v>50.36</v>
+        <v>32.34</v>
       </c>
       <c r="J29" s="18">
-        <v>5.22</v>
+        <v>6.14</v>
       </c>
       <c r="K29" s="18">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="L29" s="18">
-        <v>4.67</v>
+        <v>5.66</v>
       </c>
       <c r="M29" s="18">
-        <v>-0.0171454842555619</v>
+        <v>-0.685819370222458</v>
       </c>
       <c r="N29" s="18">
-        <v>49.71</v>
+        <v>38.57</v>
       </c>
       <c r="O29" s="18">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="P29" s="18">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="Q29" s="18">
-        <v>-0.8</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="R29" s="18">
-        <v>-0.310688629349481</v>
+        <v>0.0025818999668934</v>
       </c>
       <c r="S29" s="18">
-        <v>44.82</v>
+        <v>50.04</v>
       </c>
       <c r="T29" s="18">
-        <v>92.68000000000001</v>
+        <v>92.62</v>
       </c>
       <c r="U29" s="18">
-        <v>98.11</v>
+        <v>98.22</v>
       </c>
       <c r="V29" s="18">
-        <v>-5.42999999999999</v>
+        <v>-5.59999999999999</v>
       </c>
       <c r="W29" s="18">
-        <v>-0.208953507889058</v>
+        <v>-0.309615579264498</v>
       </c>
       <c r="X29" s="18">
-        <v>46.52</v>
+        <v>44.84</v>
       </c>
       <c r="Y29" s="18">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="Z29" s="18">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="AA29" s="18">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="AB29" s="18">
-        <v>0.176563074676308</v>
+        <v>0.837337005661887</v>
       </c>
       <c r="AC29" s="18">
-        <v>52.94</v>
+        <v>63.96</v>
       </c>
       <c r="AD29" s="18">
-        <v>48.87</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s" s="15">
         <v>86</v>
@@ -4474,87 +4468,87 @@
         <v>2022</v>
       </c>
       <c r="E30" s="18">
-        <v>1.63</v>
+        <v>0.77</v>
       </c>
       <c r="F30" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G30" s="18">
-        <v>1.62</v>
+        <v>0.77</v>
       </c>
       <c r="H30" s="18">
-        <v>-1.05971943083803</v>
+        <v>1.18248252430993</v>
       </c>
       <c r="I30" s="18">
-        <v>32.34</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="J30" s="18">
-        <v>6.14</v>
+        <v>2.88</v>
       </c>
       <c r="K30" s="18">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="L30" s="18">
-        <v>5.66</v>
+        <v>2.35</v>
       </c>
       <c r="M30" s="18">
-        <v>-0.685819370222458</v>
+        <v>1.54984786467696</v>
       </c>
       <c r="N30" s="18">
-        <v>38.57</v>
+        <v>75.83</v>
       </c>
       <c r="O30" s="18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P30" s="18">
-        <v>1.14</v>
+        <v>0.25</v>
       </c>
       <c r="Q30" s="18">
-        <v>-0.9399999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="R30" s="18">
-        <v>0.0025818999668934</v>
+        <v>-1.76515894403265</v>
       </c>
       <c r="S30" s="18">
-        <v>50.04</v>
+        <v>20.58</v>
       </c>
       <c r="T30" s="18">
-        <v>92.62</v>
+        <v>96.47</v>
       </c>
       <c r="U30" s="18">
-        <v>98.22</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="V30" s="18">
-        <v>-5.59999999999999</v>
+        <v>-2.71000000000001</v>
       </c>
       <c r="W30" s="18">
-        <v>-0.309615579264498</v>
+        <v>1.40163963411796</v>
       </c>
       <c r="X30" s="18">
-        <v>44.84</v>
+        <v>73.36</v>
       </c>
       <c r="Y30" s="18">
-        <v>0.67</v>
+        <v>1.44</v>
       </c>
       <c r="Z30" s="18">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AA30" s="18">
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
       <c r="AB30" s="18">
-        <v>0.837337005661887</v>
+        <v>-1.56231569107522</v>
       </c>
       <c r="AC30" s="18">
-        <v>63.96</v>
+        <v>23.96</v>
       </c>
       <c r="AD30" s="18">
-        <v>45.95</v>
+        <v>52.69</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="15">
         <v>88</v>
@@ -4566,87 +4560,87 @@
         <v>2022</v>
       </c>
       <c r="E31" s="18">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F31" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G31" s="18">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="H31" s="18">
-        <v>1.18248252430993</v>
+        <v>0.6549055936868799</v>
       </c>
       <c r="I31" s="18">
-        <v>69.70999999999999</v>
+        <v>60.92</v>
       </c>
       <c r="J31" s="18">
-        <v>2.88</v>
+        <v>5.96</v>
       </c>
       <c r="K31" s="18">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="L31" s="18">
-        <v>2.35</v>
+        <v>5.63</v>
       </c>
       <c r="M31" s="18">
-        <v>1.54984786467696</v>
+        <v>-0.665556525193158</v>
       </c>
       <c r="N31" s="18">
-        <v>75.83</v>
+        <v>38.91</v>
       </c>
       <c r="O31" s="18">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="P31" s="18">
-        <v>0.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q31" s="18">
-        <v>-0.15</v>
+        <v>-1.22</v>
       </c>
       <c r="R31" s="18">
-        <v>-1.76515894403265</v>
+        <v>0.629122958599643</v>
       </c>
       <c r="S31" s="18">
-        <v>20.58</v>
+        <v>60.49</v>
       </c>
       <c r="T31" s="18">
-        <v>96.47</v>
+        <v>91.88</v>
       </c>
       <c r="U31" s="18">
-        <v>99.18000000000001</v>
+        <v>97.87</v>
       </c>
       <c r="V31" s="18">
-        <v>-2.71000000000001</v>
+        <v>-5.99000000000001</v>
       </c>
       <c r="W31" s="18">
-        <v>1.40163963411796</v>
+        <v>-0.540546213596396</v>
       </c>
       <c r="X31" s="18">
-        <v>73.36</v>
+        <v>40.99</v>
       </c>
       <c r="Y31" s="18">
-        <v>1.44</v>
+        <v>0.65</v>
       </c>
       <c r="Z31" s="18">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="AA31" s="18">
-        <v>0.95</v>
+        <v>0.37</v>
       </c>
       <c r="AB31" s="18">
-        <v>-1.56231569107522</v>
+        <v>0.454783677196552</v>
       </c>
       <c r="AC31" s="18">
-        <v>23.96</v>
+        <v>57.58</v>
       </c>
       <c r="AD31" s="18">
-        <v>52.69</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="15">
         <v>90</v>
@@ -4658,87 +4652,87 @@
         <v>2022</v>
       </c>
       <c r="E32" s="18">
-        <v>0.98</v>
+        <v>1.57</v>
       </c>
       <c r="F32" s="18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G32" s="18">
-        <v>0.97</v>
+        <v>1.55</v>
       </c>
       <c r="H32" s="18">
-        <v>0.6549055936868799</v>
+        <v>-0.875067505119959</v>
       </c>
       <c r="I32" s="18">
-        <v>60.92</v>
+        <v>35.42</v>
       </c>
       <c r="J32" s="18">
-        <v>5.96</v>
+        <v>4.94</v>
       </c>
       <c r="K32" s="18">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="L32" s="18">
-        <v>5.63</v>
+        <v>4.5</v>
       </c>
       <c r="M32" s="18">
-        <v>-0.665556525193158</v>
+        <v>0.09767730424380409</v>
       </c>
       <c r="N32" s="18">
-        <v>38.91</v>
+        <v>51.63</v>
       </c>
       <c r="O32" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>-0.61</v>
+      </c>
+      <c r="R32" s="18">
+        <v>-0.7358414905645601</v>
+      </c>
+      <c r="S32" s="18">
+        <v>37.74</v>
+      </c>
+      <c r="T32" s="18">
+        <v>93.47</v>
+      </c>
+      <c r="U32" s="18">
+        <v>98.66</v>
+      </c>
+      <c r="V32" s="18">
+        <v>-5.19</v>
+      </c>
+      <c r="W32" s="18">
+        <v>-0.0668423483002057</v>
+      </c>
+      <c r="X32" s="18">
+        <v>48.89</v>
+      </c>
+      <c r="Y32" s="18">
         <v>0.34</v>
       </c>
-      <c r="P32" s="18">
-        <v>1.56</v>
-      </c>
-      <c r="Q32" s="18">
-        <v>-1.22</v>
-      </c>
-      <c r="R32" s="18">
-        <v>0.629122958599643</v>
-      </c>
-      <c r="S32" s="18">
-        <v>60.49</v>
-      </c>
-      <c r="T32" s="18">
-        <v>91.88</v>
-      </c>
-      <c r="U32" s="18">
-        <v>97.87</v>
-      </c>
-      <c r="V32" s="18">
-        <v>-5.99000000000001</v>
-      </c>
-      <c r="W32" s="18">
-        <v>-0.540546213596396</v>
-      </c>
-      <c r="X32" s="18">
-        <v>40.99</v>
-      </c>
-      <c r="Y32" s="18">
-        <v>0.65</v>
-      </c>
       <c r="Z32" s="18">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="AA32" s="18">
-        <v>0.37</v>
+        <v>-0.05</v>
       </c>
       <c r="AB32" s="18">
-        <v>0.454783677196552</v>
+        <v>1.91544184042783</v>
       </c>
       <c r="AC32" s="18">
-        <v>57.58</v>
+        <v>81.92</v>
       </c>
       <c r="AD32" s="18">
-        <v>51.78</v>
+        <v>51.12</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="15">
         <v>92</v>
@@ -4750,87 +4744,87 @@
         <v>2022</v>
       </c>
       <c r="E33" s="18">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="F33" s="18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G33" s="18">
-        <v>1.55</v>
+        <v>0.78</v>
       </c>
       <c r="H33" s="18">
-        <v>-0.875067505119959</v>
+        <v>1.15610367777878</v>
       </c>
       <c r="I33" s="18">
-        <v>35.42</v>
+        <v>69.27</v>
       </c>
       <c r="J33" s="18">
-        <v>4.94</v>
+        <v>3.38</v>
       </c>
       <c r="K33" s="18">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="L33" s="18">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="M33" s="18">
-        <v>0.09767730424380409</v>
+        <v>1.2729223159432</v>
       </c>
       <c r="N33" s="18">
-        <v>51.63</v>
+        <v>71.22</v>
       </c>
       <c r="O33" s="18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P33" s="18">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="Q33" s="18">
-        <v>-0.61</v>
+        <v>-0.48</v>
       </c>
       <c r="R33" s="18">
-        <v>-0.7358414905645601</v>
+        <v>-1.02673555350119</v>
       </c>
       <c r="S33" s="18">
-        <v>37.74</v>
+        <v>32.89</v>
       </c>
       <c r="T33" s="18">
-        <v>93.47</v>
+        <v>95.23</v>
       </c>
       <c r="U33" s="18">
-        <v>98.66</v>
+        <v>98.52</v>
       </c>
       <c r="V33" s="18">
-        <v>-5.19</v>
+        <v>-3.28999999999999</v>
       </c>
       <c r="W33" s="18">
-        <v>-0.0668423483002057</v>
+        <v>1.05820433177823</v>
       </c>
       <c r="X33" s="18">
-        <v>48.89</v>
+        <v>67.64</v>
       </c>
       <c r="Y33" s="18">
-        <v>0.34</v>
+        <v>1.49</v>
       </c>
       <c r="Z33" s="18">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="AA33" s="18">
-        <v>-0.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB33" s="18">
-        <v>1.91544184042783</v>
+        <v>-1.52753811576019</v>
       </c>
       <c r="AC33" s="18">
-        <v>81.92</v>
+        <v>24.54</v>
       </c>
       <c r="AD33" s="18">
-        <v>51.12</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="15">
         <v>94</v>
@@ -4842,87 +4836,87 @@
         <v>2022</v>
       </c>
       <c r="E34" s="18">
-        <v>0.79</v>
+        <v>1.39</v>
       </c>
       <c r="F34" s="18">
         <v>0.01</v>
       </c>
       <c r="G34" s="18">
-        <v>0.78</v>
+        <v>1.38</v>
       </c>
       <c r="H34" s="18">
-        <v>1.15610367777878</v>
+        <v>-0.426627114090368</v>
       </c>
       <c r="I34" s="18">
-        <v>69.27</v>
+        <v>42.89</v>
       </c>
       <c r="J34" s="18">
-        <v>3.38</v>
+        <v>5.03</v>
       </c>
       <c r="K34" s="18">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="L34" s="18">
-        <v>2.76</v>
+        <v>4.69</v>
       </c>
       <c r="M34" s="18">
-        <v>1.2729223159432</v>
+        <v>-0.0306540476084288</v>
       </c>
       <c r="N34" s="18">
-        <v>71.22</v>
+        <v>49.49</v>
       </c>
       <c r="O34" s="18">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="P34" s="18">
-        <v>0.73</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" s="18">
-        <v>-0.48</v>
+        <v>-1.17</v>
       </c>
       <c r="R34" s="18">
-        <v>-1.02673555350119</v>
+        <v>0.517240626700937</v>
       </c>
       <c r="S34" s="18">
-        <v>32.89</v>
+        <v>58.62</v>
       </c>
       <c r="T34" s="18">
-        <v>95.23</v>
+        <v>91.53</v>
       </c>
       <c r="U34" s="18">
-        <v>98.52</v>
+        <v>97.81</v>
       </c>
       <c r="V34" s="18">
-        <v>-3.28999999999999</v>
+        <v>-6.28</v>
       </c>
       <c r="W34" s="18">
-        <v>1.05820433177823</v>
+        <v>-0.712263864766258</v>
       </c>
       <c r="X34" s="18">
-        <v>67.64</v>
+        <v>38.13</v>
       </c>
       <c r="Y34" s="18">
-        <v>1.49</v>
+        <v>0.37</v>
       </c>
       <c r="Z34" s="18">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="AA34" s="18">
-        <v>0.9399999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB34" s="18">
-        <v>-1.52753811576019</v>
+        <v>1.49811093664747</v>
       </c>
       <c r="AC34" s="18">
-        <v>24.54</v>
+        <v>74.97</v>
       </c>
       <c r="AD34" s="18">
-        <v>53.11</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="15">
         <v>96</v>
@@ -4934,87 +4928,87 @@
         <v>2022</v>
       </c>
       <c r="E35" s="18">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="F35" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G35" s="18">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="H35" s="18">
-        <v>-0.426627114090368</v>
+        <v>0.311980588781899</v>
       </c>
       <c r="I35" s="18">
-        <v>42.89</v>
+        <v>55.2</v>
       </c>
       <c r="J35" s="18">
-        <v>5.03</v>
+        <v>4.61</v>
       </c>
       <c r="K35" s="18">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="L35" s="18">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="M35" s="18">
-        <v>-0.0306540476084288</v>
+        <v>0.388111416330436</v>
       </c>
       <c r="N35" s="18">
-        <v>49.49</v>
+        <v>56.47</v>
       </c>
       <c r="O35" s="18">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="P35" s="18">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="Q35" s="18">
-        <v>-1.17</v>
+        <v>-1.1</v>
       </c>
       <c r="R35" s="18">
-        <v>0.517240626700937</v>
+        <v>0.36060536204275</v>
       </c>
       <c r="S35" s="18">
-        <v>58.62</v>
+        <v>56.01</v>
       </c>
       <c r="T35" s="18">
-        <v>91.53</v>
+        <v>93.88</v>
       </c>
       <c r="U35" s="18">
-        <v>97.81</v>
+        <v>97.91</v>
       </c>
       <c r="V35" s="18">
-        <v>-6.28</v>
+        <v>-4.03</v>
       </c>
       <c r="W35" s="18">
-        <v>-0.712263864766258</v>
+        <v>0.620028256379258</v>
       </c>
       <c r="X35" s="18">
-        <v>38.13</v>
+        <v>60.33</v>
       </c>
       <c r="Y35" s="18">
-        <v>0.37</v>
+        <v>1.04</v>
       </c>
       <c r="Z35" s="18">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="AA35" s="18">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AB35" s="18">
-        <v>1.49811093664747</v>
+        <v>-0.171212678473997</v>
       </c>
       <c r="AC35" s="18">
-        <v>74.97</v>
+        <v>47.15</v>
       </c>
       <c r="AD35" s="18">
-        <v>52.82</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="15">
         <v>98</v>
@@ -5026,87 +5020,87 @@
         <v>2022</v>
       </c>
       <c r="E36" s="18">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="F36" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="H36" s="18">
+        <v>-1.77194828717914</v>
+      </c>
+      <c r="I36" s="18">
+        <v>20.47</v>
+      </c>
+      <c r="J36" s="18">
+        <v>10.08</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="L36" s="18">
+        <v>9.81</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-3</v>
+      </c>
+      <c r="N36" s="18">
         <v>0</v>
       </c>
-      <c r="G36" s="18">
-        <v>1.1</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0.311980588781899</v>
-      </c>
-      <c r="I36" s="18">
-        <v>55.2</v>
-      </c>
-      <c r="J36" s="18">
-        <v>4.61</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0.54</v>
-      </c>
-      <c r="L36" s="18">
-        <v>4.07</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0.388111416330436</v>
-      </c>
-      <c r="N36" s="18">
-        <v>56.47</v>
-      </c>
       <c r="O36" s="18">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="P36" s="18">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="Q36" s="18">
-        <v>-1.1</v>
+        <v>-1.49</v>
       </c>
       <c r="R36" s="18">
-        <v>0.36060536204275</v>
+        <v>1.23328755085265</v>
       </c>
       <c r="S36" s="18">
-        <v>56.01</v>
+        <v>70.55</v>
       </c>
       <c r="T36" s="18">
-        <v>93.88</v>
+        <v>88.2</v>
       </c>
       <c r="U36" s="18">
-        <v>97.91</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="V36" s="18">
-        <v>-4.03</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="W36" s="18">
-        <v>0.620028256379258</v>
+        <v>-2.58931543100239</v>
       </c>
       <c r="X36" s="18">
-        <v>60.33</v>
+        <v>6.84</v>
       </c>
       <c r="Y36" s="18">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="18">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="AA36" s="18">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AB36" s="18">
-        <v>-0.171212678473997</v>
+        <v>-0.866764184774606</v>
       </c>
       <c r="AC36" s="18">
-        <v>47.15</v>
+        <v>35.55</v>
       </c>
       <c r="AD36" s="18">
-        <v>55.03</v>
+        <v>26.68</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s" s="15">
         <v>100</v>
@@ -5118,87 +5112,87 @@
         <v>2022</v>
       </c>
       <c r="E37" s="18">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="F37" s="18">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G37" s="18">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="H37" s="18">
-        <v>-1.77194828717914</v>
+        <v>-1.42902328227416</v>
       </c>
       <c r="I37" s="18">
-        <v>20.47</v>
+        <v>26.18</v>
       </c>
       <c r="J37" s="18">
-        <v>10.08</v>
+        <v>6.13</v>
       </c>
       <c r="K37" s="18">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L37" s="18">
-        <v>9.81</v>
+        <v>5.57</v>
       </c>
       <c r="M37" s="18">
-        <v>-3</v>
+        <v>-0.625030835134559</v>
       </c>
       <c r="N37" s="18">
-        <v>0</v>
+        <v>39.58</v>
       </c>
       <c r="O37" s="18">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="P37" s="18">
-        <v>1.82</v>
+        <v>0.93</v>
       </c>
       <c r="Q37" s="18">
-        <v>-1.49</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="R37" s="18">
-        <v>1.23328755085265</v>
+        <v>-0.5568297595266321</v>
       </c>
       <c r="S37" s="18">
-        <v>70.55</v>
+        <v>40.72</v>
       </c>
       <c r="T37" s="18">
-        <v>88.2</v>
+        <v>92.61</v>
       </c>
       <c r="U37" s="18">
-        <v>97.65000000000001</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="V37" s="18">
-        <v>-9.449999999999999</v>
+        <v>-5.74</v>
       </c>
       <c r="W37" s="18">
-        <v>-2.58931543100239</v>
+        <v>-0.39251375569133</v>
       </c>
       <c r="X37" s="18">
-        <v>6.84</v>
+        <v>43.46</v>
       </c>
       <c r="Y37" s="18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="Z37" s="18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA37" s="18">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="AB37" s="18">
-        <v>-0.866764184774606</v>
+        <v>0.0722303487312167</v>
       </c>
       <c r="AC37" s="18">
-        <v>35.55</v>
+        <v>51.2</v>
       </c>
       <c r="AD37" s="18">
-        <v>26.68</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="15">
         <v>102</v>
@@ -5210,87 +5204,87 @@
         <v>2022</v>
       </c>
       <c r="E38" s="18">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="F38" s="18">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G38" s="18">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="H38" s="18">
-        <v>-1.42902328227416</v>
+        <v>-0.373869421028064</v>
       </c>
       <c r="I38" s="18">
-        <v>26.18</v>
+        <v>43.77</v>
       </c>
       <c r="J38" s="18">
-        <v>6.13</v>
+        <v>5.36</v>
       </c>
       <c r="K38" s="18">
-        <v>0.5600000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L38" s="18">
-        <v>5.57</v>
+        <v>4.44</v>
       </c>
       <c r="M38" s="18">
-        <v>-0.625030835134559</v>
+        <v>0.138202994302404</v>
       </c>
       <c r="N38" s="18">
-        <v>39.58</v>
+        <v>52.3</v>
       </c>
       <c r="O38" s="18">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="P38" s="18">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="Q38" s="18">
-        <v>-0.6899999999999999</v>
+        <v>-0.9</v>
       </c>
       <c r="R38" s="18">
-        <v>-0.5568297595266321</v>
+        <v>-0.0869239655520702</v>
       </c>
       <c r="S38" s="18">
-        <v>40.72</v>
+        <v>48.55</v>
       </c>
       <c r="T38" s="18">
-        <v>92.61</v>
+        <v>93.67</v>
       </c>
       <c r="U38" s="18">
-        <v>98.34999999999999</v>
+        <v>97.75</v>
       </c>
       <c r="V38" s="18">
-        <v>-5.74</v>
+        <v>-4.08</v>
       </c>
       <c r="W38" s="18">
-        <v>-0.39251375569133</v>
+        <v>0.590421764798249</v>
       </c>
       <c r="X38" s="18">
-        <v>43.46</v>
+        <v>59.84</v>
       </c>
       <c r="Y38" s="18">
-        <v>0.98</v>
+        <v>1.58</v>
       </c>
       <c r="Z38" s="18">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="AA38" s="18">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="AB38" s="18">
-        <v>0.0722303487312167</v>
+        <v>-0.831986609459576</v>
       </c>
       <c r="AC38" s="18">
-        <v>51.2</v>
+        <v>36.13</v>
       </c>
       <c r="AD38" s="18">
-        <v>40.23</v>
+        <v>48.12</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s" s="15">
         <v>104</v>
@@ -5302,87 +5296,87 @@
         <v>2022</v>
       </c>
       <c r="E39" s="18">
-        <v>1.37</v>
+        <v>0.79</v>
       </c>
       <c r="F39" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G39" s="18">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="H39" s="18">
-        <v>-0.373869421028064</v>
+        <v>1.12972483124762</v>
       </c>
       <c r="I39" s="18">
-        <v>43.77</v>
+        <v>68.83</v>
       </c>
       <c r="J39" s="18">
-        <v>5.36</v>
+        <v>3.48</v>
       </c>
       <c r="K39" s="18">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="L39" s="18">
-        <v>4.44</v>
+        <v>3.04</v>
       </c>
       <c r="M39" s="18">
-        <v>0.138202994302404</v>
+        <v>1.08380242900307</v>
       </c>
       <c r="N39" s="18">
-        <v>52.3</v>
+        <v>68.06</v>
       </c>
       <c r="O39" s="18">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="P39" s="18">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="Q39" s="18">
-        <v>-0.9</v>
+        <v>-0.26</v>
       </c>
       <c r="R39" s="18">
-        <v>-0.0869239655520702</v>
+        <v>-1.5190178138555</v>
       </c>
       <c r="S39" s="18">
-        <v>48.55</v>
+        <v>24.68</v>
       </c>
       <c r="T39" s="18">
-        <v>93.67</v>
+        <v>92.91</v>
       </c>
       <c r="U39" s="18">
-        <v>97.75</v>
+        <v>98.58</v>
       </c>
       <c r="V39" s="18">
-        <v>-4.08</v>
+        <v>-5.67</v>
       </c>
       <c r="W39" s="18">
-        <v>0.590421764798249</v>
+        <v>-0.351064667477918</v>
       </c>
       <c r="X39" s="18">
-        <v>59.84</v>
+        <v>44.15</v>
       </c>
       <c r="Y39" s="18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="Z39" s="18">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
       <c r="AA39" s="18">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="AB39" s="18">
-        <v>-0.831986609459576</v>
+        <v>-0.623321157569393</v>
       </c>
       <c r="AC39" s="18">
-        <v>36.13</v>
+        <v>39.61</v>
       </c>
       <c r="AD39" s="18">
-        <v>48.12</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="15">
         <v>106</v>
@@ -5394,55 +5388,55 @@
         <v>2022</v>
       </c>
       <c r="E40" s="18">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="F40" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G40" s="18">
-        <v>0.79</v>
+        <v>1.31</v>
       </c>
       <c r="H40" s="18">
-        <v>1.12972483124762</v>
+        <v>-0.241975188372302</v>
       </c>
       <c r="I40" s="18">
-        <v>68.83</v>
+        <v>45.97</v>
       </c>
       <c r="J40" s="18">
-        <v>3.48</v>
+        <v>6.38</v>
       </c>
       <c r="K40" s="18">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="L40" s="18">
-        <v>3.04</v>
+        <v>5.8</v>
       </c>
       <c r="M40" s="18">
-        <v>1.08380242900307</v>
+        <v>-0.780379313692524</v>
       </c>
       <c r="N40" s="18">
-        <v>68.06</v>
+        <v>36.99</v>
       </c>
       <c r="O40" s="18">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="P40" s="18">
-        <v>0.83</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" s="18">
-        <v>-0.26</v>
+        <v>-1.23</v>
       </c>
       <c r="R40" s="18">
-        <v>-1.5190178138555</v>
+        <v>0.651499424979384</v>
       </c>
       <c r="S40" s="18">
-        <v>24.68</v>
+        <v>60.86</v>
       </c>
       <c r="T40" s="18">
-        <v>92.91</v>
+        <v>91.95</v>
       </c>
       <c r="U40" s="18">
-        <v>98.58</v>
+        <v>97.62</v>
       </c>
       <c r="V40" s="18">
         <v>-5.67</v>
@@ -5454,27 +5448,27 @@
         <v>44.15</v>
       </c>
       <c r="Y40" s="18">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="Z40" s="18">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="AA40" s="18">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB40" s="18">
-        <v>-0.623321157569393</v>
+        <v>-0.588543582254362</v>
       </c>
       <c r="AC40" s="18">
-        <v>39.61</v>
+        <v>40.19</v>
       </c>
       <c r="AD40" s="18">
-        <v>49.07</v>
+        <v>45.63</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="15">
         <v>108</v>
@@ -5486,87 +5480,87 @@
         <v>2022</v>
       </c>
       <c r="E41" s="18">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="F41" s="18">
         <v>0.01</v>
       </c>
       <c r="G41" s="18">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="H41" s="18">
-        <v>-0.241975188372302</v>
+        <v>-1.45540212880531</v>
       </c>
       <c r="I41" s="18">
-        <v>45.97</v>
+        <v>25.74</v>
       </c>
       <c r="J41" s="18">
-        <v>6.38</v>
+        <v>6.9</v>
       </c>
       <c r="K41" s="18">
-        <v>0.58</v>
+        <v>0.27</v>
       </c>
       <c r="L41" s="18">
-        <v>5.8</v>
+        <v>6.63</v>
       </c>
       <c r="M41" s="18">
-        <v>-0.780379313692524</v>
+        <v>-1.34098469283649</v>
       </c>
       <c r="N41" s="18">
-        <v>36.99</v>
+        <v>27.65</v>
       </c>
       <c r="O41" s="18">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="P41" s="18">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" s="18">
-        <v>-1.23</v>
+        <v>-2</v>
       </c>
       <c r="R41" s="18">
-        <v>0.651499424979384</v>
+        <v>2.37448733621944</v>
       </c>
       <c r="S41" s="18">
-        <v>60.86</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="T41" s="18">
-        <v>91.95</v>
+        <v>90.16</v>
       </c>
       <c r="U41" s="18">
-        <v>97.62</v>
+        <v>96.83</v>
       </c>
       <c r="V41" s="18">
-        <v>-5.67</v>
+        <v>-6.67</v>
       </c>
       <c r="W41" s="18">
-        <v>-0.351064667477918</v>
+        <v>-0.943194499098147</v>
       </c>
       <c r="X41" s="18">
-        <v>44.15</v>
+        <v>34.28</v>
       </c>
       <c r="Y41" s="18">
-        <v>1.19</v>
+        <v>0.74</v>
       </c>
       <c r="Z41" s="18">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="AA41" s="18">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="AB41" s="18">
-        <v>-0.588543582254362</v>
+        <v>-0.136435103158966</v>
       </c>
       <c r="AC41" s="18">
-        <v>40.19</v>
+        <v>47.73</v>
       </c>
       <c r="AD41" s="18">
-        <v>45.63</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="15">
         <v>110</v>
@@ -5578,87 +5572,87 @@
         <v>2022</v>
       </c>
       <c r="E42" s="18">
-        <v>1.78</v>
+        <v>0.91</v>
       </c>
       <c r="F42" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G42" s="18">
-        <v>1.77</v>
+        <v>0.91</v>
       </c>
       <c r="H42" s="18">
-        <v>-1.45540212880531</v>
+        <v>0.813178672873794</v>
       </c>
       <c r="I42" s="18">
-        <v>25.74</v>
+        <v>63.55</v>
       </c>
       <c r="J42" s="18">
-        <v>6.9</v>
+        <v>4.02</v>
       </c>
       <c r="K42" s="18">
-        <v>0.27</v>
+        <v>0.63</v>
       </c>
       <c r="L42" s="18">
-        <v>6.63</v>
+        <v>3.39</v>
       </c>
       <c r="M42" s="18">
-        <v>-1.34098469283649</v>
+        <v>0.8474025703279</v>
       </c>
       <c r="N42" s="18">
-        <v>27.65</v>
+        <v>64.12</v>
       </c>
       <c r="O42" s="18">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="P42" s="18">
-        <v>2.48</v>
+        <v>1.38</v>
       </c>
       <c r="Q42" s="18">
-        <v>-2</v>
+        <v>-1.16</v>
       </c>
       <c r="R42" s="18">
-        <v>2.37448733621944</v>
+        <v>0.494864160321196</v>
       </c>
       <c r="S42" s="18">
-        <v>89.56999999999999</v>
+        <v>58.25</v>
       </c>
       <c r="T42" s="18">
-        <v>90.16</v>
+        <v>94.67</v>
       </c>
       <c r="U42" s="18">
-        <v>96.83</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="V42" s="18">
-        <v>-6.67</v>
+        <v>-3.09</v>
       </c>
       <c r="W42" s="18">
-        <v>-0.943194499098147</v>
+        <v>1.17663029810227</v>
       </c>
       <c r="X42" s="18">
-        <v>34.28</v>
+        <v>69.61</v>
       </c>
       <c r="Y42" s="18">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z42" s="18">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="AA42" s="18">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="AB42" s="18">
-        <v>-0.136435103158966</v>
+        <v>0.941669731606978</v>
       </c>
       <c r="AC42" s="18">
-        <v>47.73</v>
+        <v>65.69</v>
       </c>
       <c r="AD42" s="18">
-        <v>44.99</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="15">
         <v>112</v>
@@ -5670,87 +5664,87 @@
         <v>2022</v>
       </c>
       <c r="E43" s="18">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="F43" s="18">
         <v>0</v>
       </c>
       <c r="G43" s="18">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="H43" s="18">
-        <v>0.813178672873794</v>
+        <v>-0.611279039808435</v>
       </c>
       <c r="I43" s="18">
-        <v>63.55</v>
+        <v>39.81</v>
       </c>
       <c r="J43" s="18">
-        <v>4.02</v>
+        <v>9.84</v>
       </c>
       <c r="K43" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="L43" s="18">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="M43" s="18">
+        <v>-3</v>
+      </c>
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="P43" s="18">
+        <v>1.37</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>-0.88</v>
+      </c>
+      <c r="R43" s="18">
+        <v>-0.131676898311552</v>
+      </c>
+      <c r="S43" s="18">
+        <v>47.81</v>
+      </c>
+      <c r="T43" s="18">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="U43" s="18">
+        <v>97.73</v>
+      </c>
+      <c r="V43" s="18">
+        <v>-10.47</v>
+      </c>
+      <c r="W43" s="18">
+        <v>-3</v>
+      </c>
+      <c r="X43" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="18">
+        <v>1.51</v>
+      </c>
+      <c r="Z43" s="18">
         <v>0.63</v>
       </c>
-      <c r="L43" s="18">
-        <v>3.39</v>
-      </c>
-      <c r="M43" s="18">
-        <v>0.8474025703279</v>
-      </c>
-      <c r="N43" s="18">
-        <v>64.12</v>
-      </c>
-      <c r="O43" s="18">
-        <v>0.22</v>
-      </c>
-      <c r="P43" s="18">
-        <v>1.38</v>
-      </c>
-      <c r="Q43" s="18">
-        <v>-1.16</v>
-      </c>
-      <c r="R43" s="18">
-        <v>0.494864160321196</v>
-      </c>
-      <c r="S43" s="18">
-        <v>58.25</v>
-      </c>
-      <c r="T43" s="18">
-        <v>94.67</v>
-      </c>
-      <c r="U43" s="18">
-        <v>97.76000000000001</v>
-      </c>
-      <c r="V43" s="18">
-        <v>-3.09</v>
-      </c>
-      <c r="W43" s="18">
-        <v>1.17663029810227</v>
-      </c>
-      <c r="X43" s="18">
-        <v>69.61</v>
-      </c>
-      <c r="Y43" s="18">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z43" s="18">
-        <v>0.58</v>
-      </c>
       <c r="AA43" s="18">
-        <v>0.23</v>
+        <v>0.88</v>
       </c>
       <c r="AB43" s="18">
-        <v>0.941669731606978</v>
+        <v>-1.318872663870</v>
       </c>
       <c r="AC43" s="18">
-        <v>65.69</v>
+        <v>28.02</v>
       </c>
       <c r="AD43" s="18">
-        <v>64.25</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="15">
         <v>114</v>
@@ -5762,87 +5756,87 @@
         <v>2022</v>
       </c>
       <c r="E44" s="18">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="F44" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G44" s="18">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="H44" s="18">
-        <v>-0.611279039808435</v>
+        <v>0.470253667968813</v>
       </c>
       <c r="I44" s="18">
-        <v>39.81</v>
+        <v>57.84</v>
       </c>
       <c r="J44" s="18">
-        <v>9.84</v>
+        <v>4.35</v>
       </c>
       <c r="K44" s="18">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="L44" s="18">
-        <v>9.140000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="M44" s="18">
-        <v>-3</v>
+        <v>0.624511275005601</v>
       </c>
       <c r="N44" s="18">
-        <v>0</v>
+        <v>60.41</v>
       </c>
       <c r="O44" s="18">
-        <v>0.49</v>
+        <v>0.21</v>
       </c>
       <c r="P44" s="18">
-        <v>1.37</v>
+        <v>0.82</v>
       </c>
       <c r="Q44" s="18">
-        <v>-0.88</v>
+        <v>-0.61</v>
       </c>
       <c r="R44" s="18">
-        <v>-0.131676898311552</v>
+        <v>-0.7358414905645611</v>
       </c>
       <c r="S44" s="18">
-        <v>47.81</v>
+        <v>37.74</v>
       </c>
       <c r="T44" s="18">
-        <v>87.26000000000001</v>
+        <v>94.52</v>
       </c>
       <c r="U44" s="18">
-        <v>97.73</v>
+        <v>98.41</v>
       </c>
       <c r="V44" s="18">
-        <v>-10.47</v>
+        <v>-3.89</v>
       </c>
       <c r="W44" s="18">
-        <v>-3</v>
+        <v>0.702926432806091</v>
       </c>
       <c r="X44" s="18">
-        <v>0</v>
+        <v>61.72</v>
       </c>
       <c r="Y44" s="18">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="Z44" s="18">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="AA44" s="18">
-        <v>0.88</v>
+        <v>0.55</v>
       </c>
       <c r="AB44" s="18">
-        <v>-1.318872663870</v>
+        <v>-0.171212678473997</v>
       </c>
       <c r="AC44" s="18">
-        <v>28.02</v>
+        <v>47.15</v>
       </c>
       <c r="AD44" s="18">
-        <v>23.13</v>
+        <v>52.97</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="15">
         <v>116</v>
@@ -5869,72 +5863,72 @@
         <v>57.84</v>
       </c>
       <c r="J45" s="18">
-        <v>4.35</v>
+        <v>5.19</v>
       </c>
       <c r="K45" s="18">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="L45" s="18">
-        <v>3.72</v>
+        <v>4.44</v>
       </c>
       <c r="M45" s="18">
-        <v>0.624511275005601</v>
+        <v>0.138202994302404</v>
       </c>
       <c r="N45" s="18">
-        <v>60.41</v>
+        <v>52.3</v>
       </c>
       <c r="O45" s="18">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="P45" s="18">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="Q45" s="18">
-        <v>-0.61</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="R45" s="18">
-        <v>-0.7358414905645611</v>
+        <v>-0.8477238224632661</v>
       </c>
       <c r="S45" s="18">
-        <v>37.74</v>
+        <v>35.87</v>
       </c>
       <c r="T45" s="18">
-        <v>94.52</v>
+        <v>93.92</v>
       </c>
       <c r="U45" s="18">
-        <v>98.41</v>
+        <v>98.47</v>
       </c>
       <c r="V45" s="18">
-        <v>-3.89</v>
+        <v>-4.55</v>
       </c>
       <c r="W45" s="18">
-        <v>0.702926432806091</v>
+        <v>0.312120743936741</v>
       </c>
       <c r="X45" s="18">
-        <v>61.72</v>
+        <v>55.2</v>
       </c>
       <c r="Y45" s="18">
-        <v>1.12</v>
+        <v>2.01</v>
       </c>
       <c r="Z45" s="18">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA45" s="18">
-        <v>0.55</v>
+        <v>1.32</v>
       </c>
       <c r="AB45" s="18">
-        <v>-0.171212678473997</v>
+        <v>-2.84908597773134</v>
       </c>
       <c r="AC45" s="18">
-        <v>47.15</v>
+        <v>2.52</v>
       </c>
       <c r="AD45" s="18">
-        <v>52.97</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="15">
         <v>118</v>
@@ -5946,87 +5940,87 @@
         <v>2022</v>
       </c>
       <c r="E46" s="18">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="F46" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G46" s="18">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="H46" s="18">
-        <v>0.470253667968813</v>
+        <v>-0.347490574496911</v>
       </c>
       <c r="I46" s="18">
-        <v>57.84</v>
+        <v>44.21</v>
       </c>
       <c r="J46" s="18">
-        <v>5.19</v>
+        <v>3.49</v>
       </c>
       <c r="K46" s="18">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="L46" s="18">
-        <v>4.44</v>
+        <v>3.2</v>
       </c>
       <c r="M46" s="18">
-        <v>0.138202994302404</v>
+        <v>0.975733922180132</v>
       </c>
       <c r="N46" s="18">
-        <v>52.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="O46" s="18">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="P46" s="18">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="Q46" s="18">
-        <v>-0.5600000000000001</v>
+        <v>-0.64</v>
       </c>
       <c r="R46" s="18">
-        <v>-0.8477238224632661</v>
+        <v>-0.6687120914253381</v>
       </c>
       <c r="S46" s="18">
-        <v>35.87</v>
+        <v>38.85</v>
       </c>
       <c r="T46" s="18">
-        <v>93.92</v>
+        <v>94.75</v>
       </c>
       <c r="U46" s="18">
-        <v>98.47</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="V46" s="18">
-        <v>-4.55</v>
+        <v>-4.04000000000001</v>
       </c>
       <c r="W46" s="18">
-        <v>0.312120743936741</v>
+        <v>0.614106958063053</v>
       </c>
       <c r="X46" s="18">
-        <v>55.2</v>
+        <v>60.24</v>
       </c>
       <c r="Y46" s="18">
-        <v>2.01</v>
+        <v>0.98</v>
       </c>
       <c r="Z46" s="18">
-        <v>0.6899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="AA46" s="18">
-        <v>1.32</v>
+        <v>0.76</v>
       </c>
       <c r="AB46" s="18">
-        <v>-2.84908597773134</v>
+        <v>-0.901541760089637</v>
       </c>
       <c r="AC46" s="18">
-        <v>2.52</v>
+        <v>34.97</v>
       </c>
       <c r="AD46" s="18">
-        <v>40.75</v>
+        <v>48.91</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s" s="15">
         <v>120</v>
@@ -6038,87 +6032,87 @@
         <v>2022</v>
       </c>
       <c r="E47" s="18">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="F47" s="18">
         <v>0</v>
       </c>
       <c r="G47" s="18">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="H47" s="18">
-        <v>-0.347490574496911</v>
+        <v>1.4726498361526</v>
       </c>
       <c r="I47" s="18">
-        <v>44.21</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="J47" s="18">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="K47" s="18">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="L47" s="18">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="M47" s="18">
-        <v>0.975733922180132</v>
+        <v>0.33407716291897</v>
       </c>
       <c r="N47" s="18">
-        <v>66.26000000000001</v>
+        <v>55.57</v>
       </c>
       <c r="O47" s="18">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="P47" s="18">
-        <v>0.83</v>
+        <v>2.47</v>
       </c>
       <c r="Q47" s="18">
-        <v>-0.64</v>
+        <v>-1.86</v>
       </c>
       <c r="R47" s="18">
-        <v>-0.6687120914253381</v>
+        <v>2.06121680690307</v>
       </c>
       <c r="S47" s="18">
-        <v>38.85</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="T47" s="18">
-        <v>94.75</v>
+        <v>91.77</v>
       </c>
       <c r="U47" s="18">
-        <v>98.79000000000001</v>
+        <v>96.89</v>
       </c>
       <c r="V47" s="18">
-        <v>-4.04000000000001</v>
+        <v>-5.12</v>
       </c>
       <c r="W47" s="18">
-        <v>0.614106958063053</v>
+        <v>-0.0253932600867936</v>
       </c>
       <c r="X47" s="18">
-        <v>60.24</v>
+        <v>49.58</v>
       </c>
       <c r="Y47" s="18">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="Z47" s="18">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="AA47" s="18">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="AB47" s="18">
-        <v>-0.901541760089637</v>
+        <v>0.872114580976918</v>
       </c>
       <c r="AC47" s="18">
-        <v>34.97</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="AD47" s="18">
-        <v>48.91</v>
+        <v>65.72</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s" s="15">
         <v>122</v>
@@ -6130,87 +6124,87 @@
         <v>2022</v>
       </c>
       <c r="E48" s="18">
-        <v>0.66</v>
+        <v>1.13</v>
       </c>
       <c r="F48" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G48" s="18">
-        <v>0.66</v>
+        <v>1.12</v>
       </c>
       <c r="H48" s="18">
-        <v>1.4726498361526</v>
+        <v>0.259222895719594</v>
       </c>
       <c r="I48" s="18">
-        <v>74.54000000000001</v>
+        <v>54.32</v>
       </c>
       <c r="J48" s="18">
-        <v>4.35</v>
+        <v>4.81</v>
       </c>
       <c r="K48" s="18">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="L48" s="18">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="M48" s="18">
-        <v>0.33407716291897</v>
+        <v>0.327322881242537</v>
       </c>
       <c r="N48" s="18">
-        <v>55.57</v>
+        <v>55.46</v>
       </c>
       <c r="O48" s="18">
-        <v>0.61</v>
+        <v>0.21</v>
       </c>
       <c r="P48" s="18">
-        <v>2.47</v>
+        <v>1.41</v>
       </c>
       <c r="Q48" s="18">
-        <v>-1.86</v>
+        <v>-1.2</v>
       </c>
       <c r="R48" s="18">
-        <v>2.06121680690307</v>
+        <v>0.58437002584016</v>
       </c>
       <c r="S48" s="18">
-        <v>84.34999999999999</v>
+        <v>59.74</v>
       </c>
       <c r="T48" s="18">
-        <v>91.77</v>
+        <v>93.73</v>
       </c>
       <c r="U48" s="18">
-        <v>96.89</v>
+        <v>97.75</v>
       </c>
       <c r="V48" s="18">
-        <v>-5.12</v>
+        <v>-4.02</v>
       </c>
       <c r="W48" s="18">
-        <v>-0.0253932600867936</v>
+        <v>0.625949554695464</v>
       </c>
       <c r="X48" s="18">
-        <v>49.58</v>
+        <v>60.43</v>
       </c>
       <c r="Y48" s="18">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="Z48" s="18">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="AA48" s="18">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AB48" s="18">
-        <v>0.872114580976918</v>
+        <v>-0.345100555049149</v>
       </c>
       <c r="AC48" s="18">
-        <v>64.54000000000001</v>
+        <v>44.25</v>
       </c>
       <c r="AD48" s="18">
-        <v>65.72</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="14">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s" s="15">
         <v>124</v>
@@ -6222,87 +6216,87 @@
         <v>2022</v>
       </c>
       <c r="E49" s="18">
-        <v>1.13</v>
+        <v>0.66</v>
       </c>
       <c r="F49" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G49" s="18">
-        <v>1.12</v>
+        <v>0.66</v>
       </c>
       <c r="H49" s="18">
-        <v>0.259222895719594</v>
+        <v>1.4726498361526</v>
       </c>
       <c r="I49" s="18">
-        <v>54.32</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="J49" s="18">
-        <v>4.81</v>
+        <v>3.3</v>
       </c>
       <c r="K49" s="18">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="L49" s="18">
-        <v>4.16</v>
+        <v>2.97</v>
       </c>
       <c r="M49" s="18">
-        <v>0.327322881242537</v>
+        <v>1.1310824007381</v>
       </c>
       <c r="N49" s="18">
-        <v>55.46</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="O49" s="18">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="P49" s="18">
-        <v>1.41</v>
+        <v>0.89</v>
       </c>
       <c r="Q49" s="18">
-        <v>-1.2</v>
+        <v>-0.49</v>
       </c>
       <c r="R49" s="18">
-        <v>0.58437002584016</v>
+        <v>-1.00435908712145</v>
       </c>
       <c r="S49" s="18">
-        <v>59.74</v>
+        <v>33.26</v>
       </c>
       <c r="T49" s="18">
-        <v>93.73</v>
+        <v>93.78</v>
       </c>
       <c r="U49" s="18">
-        <v>97.75</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="V49" s="18">
-        <v>-4.02</v>
+        <v>-4.87</v>
       </c>
       <c r="W49" s="18">
-        <v>0.625949554695464</v>
+        <v>0.122639197818264</v>
       </c>
       <c r="X49" s="18">
-        <v>60.43</v>
+        <v>52.04</v>
       </c>
       <c r="Y49" s="18">
-        <v>1.19</v>
+        <v>0.61</v>
       </c>
       <c r="Z49" s="18">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="AA49" s="18">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="AB49" s="18">
-        <v>-0.345100555049149</v>
+        <v>0.628671553771704</v>
       </c>
       <c r="AC49" s="18">
-        <v>44.25</v>
+        <v>60.48</v>
       </c>
       <c r="AD49" s="18">
-        <v>54.84</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="15">
         <v>126</v>
@@ -6314,87 +6308,87 @@
         <v>2022</v>
       </c>
       <c r="E50" s="18">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="F50" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G50" s="18">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="H50" s="18">
-        <v>1.4726498361526</v>
+        <v>1.05058829165417</v>
       </c>
       <c r="I50" s="18">
-        <v>74.54000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="J50" s="18">
-        <v>3.3</v>
+        <v>4.89</v>
       </c>
       <c r="K50" s="18">
-        <v>0.33</v>
+        <v>1.03</v>
       </c>
       <c r="L50" s="18">
-        <v>2.97</v>
+        <v>3.86</v>
       </c>
       <c r="M50" s="18">
-        <v>1.1310824007381</v>
+        <v>0.529951331535535</v>
       </c>
       <c r="N50" s="18">
-        <v>68.84999999999999</v>
+        <v>58.83</v>
       </c>
       <c r="O50" s="18">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="P50" s="18">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="Q50" s="18">
-        <v>-0.49</v>
+        <v>-0.79</v>
       </c>
       <c r="R50" s="18">
-        <v>-1.00435908712145</v>
+        <v>-0.333065095729222</v>
       </c>
       <c r="S50" s="18">
-        <v>33.26</v>
+        <v>44.45</v>
       </c>
       <c r="T50" s="18">
-        <v>93.78</v>
+        <v>94.41</v>
       </c>
       <c r="U50" s="18">
-        <v>98.65000000000001</v>
+        <v>97.78</v>
       </c>
       <c r="V50" s="18">
-        <v>-4.87</v>
+        <v>-3.37</v>
       </c>
       <c r="W50" s="18">
-        <v>0.122639197818264</v>
+        <v>1.01083394524861</v>
       </c>
       <c r="X50" s="18">
-        <v>52.04</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="Y50" s="18">
-        <v>0.61</v>
+        <v>1.59</v>
       </c>
       <c r="Z50" s="18">
-        <v>0.29</v>
+        <v>0.96</v>
       </c>
       <c r="AA50" s="18">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="AB50" s="18">
-        <v>0.628671553771704</v>
+        <v>-0.449433280994241</v>
       </c>
       <c r="AC50" s="18">
-        <v>60.48</v>
+        <v>42.51</v>
       </c>
       <c r="AD50" s="18">
-        <v>57.84</v>
+        <v>56.03</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s" s="15">
         <v>128</v>
@@ -6421,72 +6415,72 @@
         <v>67.51000000000001</v>
       </c>
       <c r="J51" s="18">
-        <v>4.89</v>
+        <v>5.2</v>
       </c>
       <c r="K51" s="18">
-        <v>1.03</v>
+        <v>0.53</v>
       </c>
       <c r="L51" s="18">
-        <v>3.86</v>
+        <v>4.67</v>
       </c>
       <c r="M51" s="18">
-        <v>0.529951331535535</v>
+        <v>-0.0171454842555619</v>
       </c>
       <c r="N51" s="18">
-        <v>58.83</v>
+        <v>49.71</v>
       </c>
       <c r="O51" s="18">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="P51" s="18">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="Q51" s="18">
-        <v>-0.79</v>
+        <v>-0.76</v>
       </c>
       <c r="R51" s="18">
-        <v>-0.333065095729222</v>
+        <v>-0.400194494868445</v>
       </c>
       <c r="S51" s="18">
-        <v>44.45</v>
+        <v>43.33</v>
       </c>
       <c r="T51" s="18">
-        <v>94.41</v>
+        <v>92.53</v>
       </c>
       <c r="U51" s="18">
-        <v>97.78</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="V51" s="18">
-        <v>-3.37</v>
+        <v>-5.73</v>
       </c>
       <c r="W51" s="18">
-        <v>1.01083394524861</v>
+        <v>-0.386592457375133</v>
       </c>
       <c r="X51" s="18">
-        <v>66.84999999999999</v>
+        <v>43.56</v>
       </c>
       <c r="Y51" s="18">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
       <c r="Z51" s="18">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="AA51" s="18">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="AB51" s="18">
-        <v>-0.449433280994241</v>
+        <v>0.35045095125146</v>
       </c>
       <c r="AC51" s="18">
-        <v>42.51</v>
+        <v>55.84</v>
       </c>
       <c r="AD51" s="18">
-        <v>56.03</v>
+        <v>51.99</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s" s="15">
         <v>130</v>
@@ -6498,173 +6492,81 @@
         <v>2022</v>
       </c>
       <c r="E52" s="18">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="F52" s="18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G52" s="18">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="H52" s="18">
-        <v>1.05058829165417</v>
+        <v>1.55178637574606</v>
       </c>
       <c r="I52" s="18">
-        <v>67.51000000000001</v>
+        <v>75.86</v>
       </c>
       <c r="J52" s="18">
-        <v>5.2</v>
+        <v>4.74</v>
       </c>
       <c r="K52" s="18">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="L52" s="18">
-        <v>4.67</v>
+        <v>4.14</v>
       </c>
       <c r="M52" s="18">
-        <v>-0.0171454842555619</v>
+        <v>0.340831444595402</v>
       </c>
       <c r="N52" s="18">
-        <v>49.71</v>
+        <v>55.68</v>
       </c>
       <c r="O52" s="18">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="P52" s="18">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Q52" s="18">
-        <v>-0.76</v>
+        <v>-0.9</v>
       </c>
       <c r="R52" s="18">
-        <v>-0.400194494868445</v>
+        <v>-0.08692396555207051</v>
       </c>
       <c r="S52" s="18">
-        <v>43.33</v>
+        <v>48.55</v>
       </c>
       <c r="T52" s="18">
-        <v>92.53</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="U52" s="18">
-        <v>98.26000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="V52" s="18">
-        <v>-5.73</v>
+        <v>-3.69</v>
       </c>
       <c r="W52" s="18">
-        <v>-0.386592457375133</v>
+        <v>0.821352399130138</v>
       </c>
       <c r="X52" s="18">
-        <v>43.56</v>
+        <v>63.69</v>
       </c>
       <c r="Y52" s="18">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="Z52" s="18">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="AA52" s="18">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="AB52" s="18">
-        <v>0.35045095125146</v>
+        <v>0.141785499361278</v>
       </c>
       <c r="AC52" s="18">
-        <v>55.84</v>
+        <v>52.36</v>
       </c>
       <c r="AD52" s="18">
-        <v>51.99</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="14">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s" s="15">
-        <v>132</v>
-      </c>
-      <c r="C53" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="D53" s="17">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="F53" s="18">
-        <v>0</v>
-      </c>
-      <c r="G53" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="H53" s="18">
-        <v>1.55178637574606</v>
-      </c>
-      <c r="I53" s="18">
-        <v>75.86</v>
-      </c>
-      <c r="J53" s="18">
-        <v>4.74</v>
-      </c>
-      <c r="K53" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="L53" s="18">
-        <v>4.14</v>
-      </c>
-      <c r="M53" s="18">
-        <v>0.340831444595402</v>
-      </c>
-      <c r="N53" s="18">
-        <v>55.68</v>
-      </c>
-      <c r="O53" s="18">
-        <v>0.14</v>
-      </c>
-      <c r="P53" s="18">
-        <v>1.04</v>
-      </c>
-      <c r="Q53" s="18">
-        <v>-0.9</v>
-      </c>
-      <c r="R53" s="18">
-        <v>-0.08692396555207051</v>
-      </c>
-      <c r="S53" s="18">
-        <v>48.55</v>
-      </c>
-      <c r="T53" s="18">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="U53" s="18">
-        <v>98.2</v>
-      </c>
-      <c r="V53" s="18">
-        <v>-3.69</v>
-      </c>
-      <c r="W53" s="18">
-        <v>0.821352399130138</v>
-      </c>
-      <c r="X53" s="18">
-        <v>63.69</v>
-      </c>
-      <c r="Y53" s="18">
-        <v>0.98</v>
-      </c>
-      <c r="Z53" s="18">
-        <v>0.52</v>
-      </c>
-      <c r="AA53" s="18">
-        <v>0.46</v>
-      </c>
-      <c r="AB53" s="18">
-        <v>0.141785499361278</v>
-      </c>
-      <c r="AC53" s="18">
-        <v>52.36</v>
-      </c>
-      <c r="AD53" s="18">
         <v>59.23</v>
       </c>
     </row>

--- a/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
+++ b/within_states/within_state_disparity_data/community_living_within_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>GEOID</t>
   </si>
@@ -25,6 +25,24 @@
     <t>year</t>
   </si>
   <si>
+    <t>Community Living Equity Score</t>
+  </si>
+  <si>
+    <t>Living at Home Equity Score</t>
+  </si>
+  <si>
+    <t>Living in Nursing Home Age 18-64 Equity Score</t>
+  </si>
+  <si>
+    <t>Living in Institutionalized Groupquarters Equity Score</t>
+  </si>
+  <si>
+    <t>Living in Non-Institutionalized Groupquarters Equity Score</t>
+  </si>
+  <si>
+    <t>Living in Correctional Facilities Equity Score</t>
+  </si>
+  <si>
     <t>pwd_nursing_18_64_pct</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>EQ_index_disparity_corrections_pct</t>
-  </si>
-  <si>
-    <t>Community Living Equity Index</t>
   </si>
   <si>
     <t>United States</t>
@@ -439,7 +454,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,12 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="19"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="20"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -657,31 +666,31 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -704,13 +713,12 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="fffefb00"/>
       <rgbColor rgb="ffffd479"/>
       <rgbColor rgb="ffd4fb78"/>
       <rgbColor rgb="ff72fa78"/>
       <rgbColor rgb="ff73fdff"/>
       <rgbColor rgb="ffafb4ff"/>
-      <rgbColor rgb="fffefb00"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
     </indexedColors>
@@ -1747,7 +1755,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1757,33 +1765,37 @@
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.1562" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.6484" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.5859" style="1" customWidth="1"/>
-    <col min="18" max="18" width="35" style="1" customWidth="1"/>
-    <col min="19" max="19" width="35.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1719" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6719" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6719" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.1719" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.1719" style="1" customWidth="1"/>
-    <col min="28" max="28" width="26.7266" style="1" customWidth="1"/>
-    <col min="29" max="29" width="27.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="28.6719" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="5" max="6" width="27.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7656" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.3516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="35.1719" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.3516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.1719" style="1" customWidth="1"/>
+    <col min="22" max="22" width="32.6719" style="1" customWidth="1"/>
+    <col min="23" max="23" width="35.6719" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35" style="1" customWidth="1"/>
+    <col min="25" max="25" width="35.3516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1719" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.6719" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.3516" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6719" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1719" style="1" customWidth="1"/>
+    <col min="32" max="32" width="18.8516" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.1719" style="1" customWidth="1"/>
+    <col min="34" max="34" width="26.6719" style="1" customWidth="1"/>
+    <col min="35" max="35" width="27.6719" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1814,7 +1826,7 @@
       <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
       <c r="K1" t="s" s="4">
@@ -1829,7 +1841,7 @@
       <c r="N1" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="5">
+      <c r="O1" t="s" s="4">
         <v>14</v>
       </c>
       <c r="P1" t="s" s="5">
@@ -1844,7 +1856,7 @@
       <c r="S1" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="6">
+      <c r="T1" t="s" s="5">
         <v>19</v>
       </c>
       <c r="U1" t="s" s="6">
@@ -1859,7 +1871,7 @@
       <c r="X1" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="7">
+      <c r="Y1" t="s" s="6">
         <v>24</v>
       </c>
       <c r="Z1" t="s" s="7">
@@ -1874,8 +1886,23 @@
       <c r="AC1" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="8">
+      <c r="AD1" t="s" s="7">
         <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s" s="8">
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -1883,91 +1910,106 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="12">
         <v>2022</v>
       </c>
       <c r="E2" s="13">
+        <v>48.19</v>
+      </c>
+      <c r="F2" s="13">
+        <v>50.07</v>
+      </c>
+      <c r="G2" s="13">
+        <v>48.6</v>
+      </c>
+      <c r="H2" s="13">
+        <v>52.19</v>
+      </c>
+      <c r="I2" s="13">
+        <v>44.08</v>
+      </c>
+      <c r="J2" s="13">
+        <v>45.99</v>
+      </c>
+      <c r="K2" s="13">
         <v>1.26</v>
       </c>
-      <c r="F2" s="13">
+      <c r="L2" s="13">
         <v>0.01</v>
       </c>
-      <c r="G2" s="13">
+      <c r="M2" s="13">
         <v>1.25</v>
       </c>
-      <c r="H2" s="13">
+      <c r="N2" s="13">
         <v>-0.08370210918538711</v>
       </c>
-      <c r="I2" s="13">
+      <c r="O2" s="13">
         <v>48.6</v>
       </c>
-      <c r="J2" s="13">
+      <c r="P2" s="13">
         <v>5.01</v>
       </c>
-      <c r="K2" s="13">
+      <c r="Q2" s="13">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L2" s="13">
+      <c r="R2" s="13">
         <v>4.45</v>
       </c>
-      <c r="M2" s="13">
+      <c r="S2" s="13">
         <v>0.131448712625971</v>
       </c>
-      <c r="N2" s="13">
+      <c r="T2" s="13">
         <v>52.19</v>
       </c>
-      <c r="O2" s="13">
+      <c r="U2" s="13">
         <v>0.28</v>
       </c>
-      <c r="P2" s="13">
+      <c r="V2" s="13">
         <v>1.06</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="W2" s="13">
         <v>-0.78</v>
       </c>
-      <c r="R2" s="13">
+      <c r="X2" s="13">
         <v>-0.355441562108963</v>
       </c>
-      <c r="S2" s="13">
+      <c r="Y2" s="13">
         <v>44.08</v>
       </c>
-      <c r="T2" s="13">
+      <c r="Z2" s="13">
         <v>93.16</v>
       </c>
-      <c r="U2" s="13">
+      <c r="AA2" s="13">
         <v>98.23</v>
       </c>
-      <c r="V2" s="13">
+      <c r="AB2" s="13">
         <v>-5.07000000000001</v>
       </c>
-      <c r="W2" s="13">
+      <c r="AC2" s="13">
         <v>0.0042132314942161</v>
       </c>
-      <c r="X2" s="13">
+      <c r="AD2" s="13">
         <v>50.07</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="AE2" s="13">
         <v>1.07</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="AF2" s="13">
         <v>0.5</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AG2" s="13">
         <v>0.57</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AH2" s="13">
         <v>-0.240767829104058</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AI2" s="13">
         <v>45.99</v>
-      </c>
-      <c r="AD2" s="13">
-        <v>48.19</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
@@ -1975,91 +2017,106 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s" s="16">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" s="17">
         <v>2022</v>
       </c>
       <c r="E3" s="18">
+        <v>52.11</v>
+      </c>
+      <c r="F3" s="18">
+        <v>64.58</v>
+      </c>
+      <c r="G3" s="18">
+        <v>45.09</v>
+      </c>
+      <c r="H3" s="18">
+        <v>56.02</v>
+      </c>
+      <c r="I3" s="18">
+        <v>50.04</v>
+      </c>
+      <c r="J3" s="18">
+        <v>44.83</v>
+      </c>
+      <c r="K3" s="18">
         <v>1.34</v>
       </c>
-      <c r="F3" s="18">
+      <c r="L3" s="18">
         <v>0.01</v>
       </c>
-      <c r="G3" s="18">
+      <c r="M3" s="18">
         <v>1.33</v>
       </c>
-      <c r="H3" s="18">
+      <c r="N3" s="18">
         <v>-0.294732881434607</v>
       </c>
-      <c r="I3" s="18">
+      <c r="O3" s="18">
         <v>45.09</v>
       </c>
-      <c r="J3" s="18">
+      <c r="P3" s="18">
         <v>4.81</v>
       </c>
-      <c r="K3" s="18">
+      <c r="Q3" s="18">
         <v>0.7</v>
       </c>
-      <c r="L3" s="18">
+      <c r="R3" s="18">
         <v>4.11</v>
       </c>
-      <c r="M3" s="18">
+      <c r="S3" s="18">
         <v>0.361094289624703</v>
       </c>
-      <c r="N3" s="18">
+      <c r="T3" s="18">
         <v>56.02</v>
       </c>
-      <c r="O3" s="18">
+      <c r="U3" s="18">
         <v>0.18</v>
       </c>
-      <c r="P3" s="18">
+      <c r="V3" s="18">
         <v>1.12</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="W3" s="18">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="R3" s="18">
+      <c r="X3" s="18">
         <v>0.0025818999668939</v>
       </c>
-      <c r="S3" s="18">
+      <c r="Y3" s="18">
         <v>50.04</v>
       </c>
-      <c r="T3" s="18">
+      <c r="Z3" s="18">
         <v>94.36</v>
       </c>
-      <c r="U3" s="18">
+      <c r="AA3" s="18">
         <v>97.95999999999999</v>
       </c>
-      <c r="V3" s="18">
+      <c r="AB3" s="18">
         <v>-3.59999999999999</v>
       </c>
-      <c r="W3" s="18">
+      <c r="AC3" s="18">
         <v>0.8746440839759611</v>
       </c>
-      <c r="X3" s="18">
+      <c r="AD3" s="18">
         <v>64.58</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="AE3" s="18">
         <v>1.23</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="AF3" s="18">
         <v>0.64</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AG3" s="18">
         <v>0.59</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AH3" s="18">
         <v>-0.310322979734119</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AI3" s="18">
         <v>44.83</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>52.11</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -2067,91 +2124,106 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="15">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17">
         <v>2022</v>
       </c>
       <c r="E4" s="18">
+        <v>79.41</v>
+      </c>
+      <c r="F4" s="18">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="G4" s="18">
+        <v>84.66</v>
+      </c>
+      <c r="H4" s="18">
+        <v>73.8</v>
+      </c>
+      <c r="I4" s="18">
+        <v>100</v>
+      </c>
+      <c r="J4" s="18">
+        <v>55.84</v>
+      </c>
+      <c r="K4" s="18">
         <v>0.44</v>
       </c>
-      <c r="F4" s="18">
+      <c r="L4" s="18">
         <v>0.01</v>
       </c>
-      <c r="G4" s="18">
+      <c r="M4" s="18">
         <v>0.43</v>
       </c>
-      <c r="H4" s="18">
+      <c r="N4" s="18">
         <v>2.07936330636911</v>
       </c>
-      <c r="I4" s="18">
+      <c r="O4" s="18">
         <v>84.66</v>
       </c>
-      <c r="J4" s="18">
+      <c r="P4" s="18">
         <v>3.24</v>
       </c>
-      <c r="K4" s="18">
+      <c r="Q4" s="18">
         <v>0.71</v>
       </c>
-      <c r="L4" s="18">
+      <c r="R4" s="18">
         <v>2.53</v>
       </c>
-      <c r="M4" s="18">
+      <c r="S4" s="18">
         <v>1.42827079450116</v>
       </c>
-      <c r="N4" s="18">
+      <c r="T4" s="18">
         <v>73.8</v>
       </c>
-      <c r="O4" s="18">
+      <c r="U4" s="18">
         <v>0.32</v>
       </c>
-      <c r="P4" s="18">
+      <c r="V4" s="18">
         <v>2.77</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="W4" s="18">
         <v>-2.45</v>
       </c>
-      <c r="R4" s="18">
+      <c r="X4" s="18">
         <v>3</v>
       </c>
-      <c r="S4" s="18">
+      <c r="Y4" s="18">
         <v>100</v>
       </c>
-      <c r="T4" s="18">
+      <c r="Z4" s="18">
         <v>94.39</v>
       </c>
-      <c r="U4" s="18">
+      <c r="AA4" s="18">
         <v>96.15000000000001</v>
       </c>
-      <c r="V4" s="18">
+      <c r="AB4" s="18">
         <v>-1.76000000000001</v>
       </c>
-      <c r="W4" s="18">
+      <c r="AC4" s="18">
         <v>1.96416297415718</v>
       </c>
-      <c r="X4" s="18">
+      <c r="AD4" s="18">
         <v>82.73999999999999</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="AE4" s="18">
         <v>1.02</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AF4" s="18">
         <v>0.62</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AG4" s="18">
         <v>0.4</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AH4" s="18">
         <v>0.35045095125146</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AI4" s="18">
         <v>55.84</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>79.41</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2159,91 +2231,106 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="15">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D5" s="17">
         <v>2022</v>
       </c>
       <c r="E5" s="18">
+        <v>60.85</v>
+      </c>
+      <c r="F5" s="18">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="G5" s="18">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="H5" s="18">
+        <v>74.37</v>
+      </c>
+      <c r="I5" s="18">
+        <v>33.26</v>
+      </c>
+      <c r="J5" s="18">
+        <v>61.64</v>
+      </c>
+      <c r="K5" s="18">
         <v>0.85</v>
       </c>
-      <c r="F5" s="18">
+      <c r="L5" s="18">
         <v>0.02</v>
       </c>
-      <c r="G5" s="18">
+      <c r="M5" s="18">
         <v>0.83</v>
       </c>
-      <c r="H5" s="18">
+      <c r="N5" s="18">
         <v>1.02420944512301</v>
       </c>
-      <c r="I5" s="18">
+      <c r="O5" s="18">
         <v>67.06999999999999</v>
       </c>
-      <c r="J5" s="18">
+      <c r="P5" s="18">
         <v>3.41</v>
       </c>
-      <c r="K5" s="18">
+      <c r="Q5" s="18">
         <v>0.93</v>
       </c>
-      <c r="L5" s="18">
+      <c r="R5" s="18">
         <v>2.48</v>
       </c>
-      <c r="M5" s="18">
+      <c r="S5" s="18">
         <v>1.46204220288333</v>
       </c>
-      <c r="N5" s="18">
+      <c r="T5" s="18">
         <v>74.37</v>
       </c>
-      <c r="O5" s="18">
+      <c r="U5" s="18">
         <v>0.23</v>
       </c>
-      <c r="P5" s="18">
+      <c r="V5" s="18">
         <v>0.72</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="W5" s="18">
         <v>-0.49</v>
       </c>
-      <c r="R5" s="18">
+      <c r="X5" s="18">
         <v>-1.00435908712145</v>
       </c>
-      <c r="S5" s="18">
+      <c r="Y5" s="18">
         <v>33.26</v>
       </c>
-      <c r="T5" s="18">
+      <c r="Z5" s="18">
         <v>94.98999999999999</v>
       </c>
-      <c r="U5" s="18">
+      <c r="AA5" s="18">
         <v>98.25</v>
       </c>
-      <c r="V5" s="18">
+      <c r="AB5" s="18">
         <v>-3.26000000000001</v>
       </c>
-      <c r="W5" s="18">
+      <c r="AC5" s="18">
         <v>1.07596822672683</v>
       </c>
-      <c r="X5" s="18">
+      <c r="AD5" s="18">
         <v>67.93000000000001</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="AE5" s="18">
         <v>1.15</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AF5" s="18">
         <v>0.85</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AG5" s="18">
         <v>0.3</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AH5" s="18">
         <v>0.698226704401766</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AI5" s="18">
         <v>61.64</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>60.85</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2251,91 +2338,106 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D6" s="17">
         <v>2022</v>
       </c>
       <c r="E6" s="18">
+        <v>61.1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>69.31</v>
+      </c>
+      <c r="G6" s="18">
+        <v>46.85</v>
+      </c>
+      <c r="H6" s="18">
+        <v>61.65</v>
+      </c>
+      <c r="I6" s="18">
+        <v>45.19</v>
+      </c>
+      <c r="J6" s="18">
+        <v>82.5</v>
+      </c>
+      <c r="K6" s="18">
         <v>1.3</v>
       </c>
-      <c r="F6" s="18">
+      <c r="L6" s="18">
         <v>0.01</v>
       </c>
-      <c r="G6" s="18">
+      <c r="M6" s="18">
         <v>1.29</v>
       </c>
-      <c r="H6" s="18">
+      <c r="N6" s="18">
         <v>-0.189217495309997</v>
       </c>
-      <c r="I6" s="18">
+      <c r="O6" s="18">
         <v>46.85</v>
       </c>
-      <c r="J6" s="18">
+      <c r="P6" s="18">
         <v>4.6</v>
       </c>
-      <c r="K6" s="18">
+      <c r="Q6" s="18">
         <v>0.99</v>
       </c>
-      <c r="L6" s="18">
+      <c r="R6" s="18">
         <v>3.61</v>
       </c>
-      <c r="M6" s="18">
+      <c r="S6" s="18">
         <v>0.698808373446368</v>
       </c>
-      <c r="N6" s="18">
+      <c r="T6" s="18">
         <v>61.65</v>
       </c>
-      <c r="O6" s="18">
+      <c r="U6" s="18">
         <v>0.17</v>
       </c>
-      <c r="P6" s="18">
+      <c r="V6" s="18">
         <v>0.98</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="W6" s="18">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="R6" s="18">
+      <c r="X6" s="18">
         <v>-0.28831216296974</v>
       </c>
-      <c r="S6" s="18">
+      <c r="Y6" s="18">
         <v>45.19</v>
       </c>
-      <c r="T6" s="18">
+      <c r="Z6" s="18">
         <v>94.69</v>
       </c>
-      <c r="U6" s="18">
+      <c r="AA6" s="18">
         <v>97.81</v>
       </c>
-      <c r="V6" s="18">
+      <c r="AB6" s="18">
         <v>-3.12</v>
       </c>
-      <c r="W6" s="18">
+      <c r="AC6" s="18">
         <v>1.15886640315367</v>
       </c>
-      <c r="X6" s="18">
+      <c r="AD6" s="18">
         <v>69.31</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="AE6" s="18">
         <v>0.86</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AF6" s="18">
         <v>0.92</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AG6" s="18">
         <v>-0.0600000000000001</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AH6" s="18">
         <v>1.95021941574286</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AI6" s="18">
         <v>82.5</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>61.1</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2343,91 +2445,106 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="16">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="17">
         <v>2022</v>
       </c>
       <c r="E7" s="18">
+        <v>46.04</v>
+      </c>
+      <c r="F7" s="18">
+        <v>39.12</v>
+      </c>
+      <c r="G7" s="18">
+        <v>49.48</v>
+      </c>
+      <c r="H7" s="18">
+        <v>62.21</v>
+      </c>
+      <c r="I7" s="18">
+        <v>34.01</v>
+      </c>
+      <c r="J7" s="18">
+        <v>45.41</v>
+      </c>
+      <c r="K7" s="18">
         <v>1.24</v>
       </c>
-      <c r="F7" s="18">
+      <c r="L7" s="18">
         <v>0.01</v>
       </c>
-      <c r="G7" s="18">
+      <c r="M7" s="18">
         <v>1.23</v>
       </c>
-      <c r="H7" s="18">
+      <c r="N7" s="18">
         <v>-0.0309444161230823</v>
       </c>
-      <c r="I7" s="18">
+      <c r="O7" s="18">
         <v>49.48</v>
       </c>
-      <c r="J7" s="18">
+      <c r="P7" s="18">
         <v>4</v>
       </c>
-      <c r="K7" s="18">
+      <c r="Q7" s="18">
         <v>0.44</v>
       </c>
-      <c r="L7" s="18">
+      <c r="R7" s="18">
         <v>3.56</v>
       </c>
-      <c r="M7" s="18">
+      <c r="S7" s="18">
         <v>0.732579781828534</v>
       </c>
-      <c r="N7" s="18">
+      <c r="T7" s="18">
         <v>62.21</v>
       </c>
-      <c r="O7" s="18">
+      <c r="U7" s="18">
         <v>0.43</v>
       </c>
-      <c r="P7" s="18">
+      <c r="V7" s="18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="W7" s="18">
         <v>-0.51</v>
       </c>
-      <c r="R7" s="18">
+      <c r="X7" s="18">
         <v>-0.9596061543619711</v>
       </c>
-      <c r="S7" s="18">
+      <c r="Y7" s="18">
         <v>34.01</v>
       </c>
-      <c r="T7" s="18">
+      <c r="Z7" s="18">
         <v>92.33</v>
       </c>
-      <c r="U7" s="18">
+      <c r="AA7" s="18">
         <v>98.51000000000001</v>
       </c>
-      <c r="V7" s="18">
+      <c r="AB7" s="18">
         <v>-6.18000000000001</v>
       </c>
-      <c r="W7" s="18">
+      <c r="AC7" s="18">
         <v>-0.653050881604238</v>
       </c>
-      <c r="X7" s="18">
+      <c r="AD7" s="18">
         <v>39.12</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="AE7" s="18">
         <v>0.97</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AF7" s="18">
         <v>0.39</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AG7" s="18">
         <v>0.58</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AH7" s="18">
         <v>-0.275545404419088</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AI7" s="18">
         <v>45.41</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>46.04</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2435,91 +2552,106 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="15">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="16">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" s="17">
         <v>2022</v>
       </c>
       <c r="E8" s="18">
+        <v>40.5</v>
+      </c>
+      <c r="F8" s="18">
+        <v>49.48</v>
+      </c>
+      <c r="G8" s="18">
+        <v>58.28</v>
+      </c>
+      <c r="H8" s="18">
+        <v>50.05</v>
+      </c>
+      <c r="I8" s="18">
+        <v>43.33</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1.36</v>
+      </c>
+      <c r="K8" s="18">
         <v>1.04</v>
       </c>
-      <c r="F8" s="18">
+      <c r="L8" s="18">
         <v>0.01</v>
       </c>
-      <c r="G8" s="18">
+      <c r="M8" s="18">
         <v>1.03</v>
       </c>
-      <c r="H8" s="18">
+      <c r="N8" s="18">
         <v>0.496632514499966</v>
       </c>
-      <c r="I8" s="18">
+      <c r="O8" s="18">
         <v>58.28</v>
       </c>
-      <c r="J8" s="18">
+      <c r="P8" s="18">
         <v>5.09</v>
       </c>
-      <c r="K8" s="18">
+      <c r="Q8" s="18">
         <v>0.45</v>
       </c>
-      <c r="L8" s="18">
+      <c r="R8" s="18">
         <v>4.64</v>
       </c>
-      <c r="M8" s="18">
+      <c r="S8" s="18">
         <v>0.0031173607737381</v>
       </c>
-      <c r="N8" s="18">
+      <c r="T8" s="18">
         <v>50.05</v>
       </c>
-      <c r="O8" s="18">
+      <c r="U8" s="18">
         <v>0.21</v>
       </c>
-      <c r="P8" s="18">
+      <c r="V8" s="18">
         <v>0.97</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="W8" s="18">
         <v>-0.76</v>
       </c>
-      <c r="R8" s="18">
+      <c r="X8" s="18">
         <v>-0.400194494868445</v>
       </c>
-      <c r="S8" s="18">
+      <c r="Y8" s="18">
         <v>43.33</v>
       </c>
-      <c r="T8" s="18">
+      <c r="Z8" s="18">
         <v>93.34</v>
       </c>
-      <c r="U8" s="18">
+      <c r="AA8" s="18">
         <v>98.47</v>
       </c>
-      <c r="V8" s="18">
+      <c r="AB8" s="18">
         <v>-5.13</v>
       </c>
-      <c r="W8" s="18">
+      <c r="AC8" s="18">
         <v>-0.0313145584029906</v>
       </c>
-      <c r="X8" s="18">
+      <c r="AD8" s="18">
         <v>49.48</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="AE8" s="18">
         <v>1.73</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AF8" s="18">
         <v>0.39</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AG8" s="18">
         <v>1.34</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AH8" s="18">
         <v>-2.9186411283614</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AI8" s="18">
         <v>1.36</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>40.5</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2527,91 +2659,106 @@
         <v>9</v>
       </c>
       <c r="B9" t="s" s="15">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s" s="16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="17">
         <v>2022</v>
       </c>
       <c r="E9" s="18">
+        <v>43.72</v>
+      </c>
+      <c r="F9" s="18">
+        <v>27.17</v>
+      </c>
+      <c r="G9" s="18">
+        <v>35.42</v>
+      </c>
+      <c r="H9" s="18">
+        <v>36.32</v>
+      </c>
+      <c r="I9" s="18">
+        <v>58.62</v>
+      </c>
+      <c r="J9" s="18">
+        <v>61.06</v>
+      </c>
+      <c r="K9" s="18">
         <v>1.56</v>
       </c>
-      <c r="F9" s="18">
+      <c r="L9" s="18">
         <v>0.01</v>
       </c>
-      <c r="G9" s="18">
+      <c r="M9" s="18">
         <v>1.55</v>
       </c>
-      <c r="H9" s="18">
+      <c r="N9" s="18">
         <v>-0.875067505119959</v>
       </c>
-      <c r="I9" s="18">
+      <c r="O9" s="18">
         <v>35.42</v>
       </c>
-      <c r="J9" s="18">
+      <c r="P9" s="18">
         <v>6.2</v>
       </c>
-      <c r="K9" s="18">
+      <c r="Q9" s="18">
         <v>0.34</v>
       </c>
-      <c r="L9" s="18">
+      <c r="R9" s="18">
         <v>5.86</v>
       </c>
-      <c r="M9" s="18">
+      <c r="S9" s="18">
         <v>-0.820905003751124</v>
       </c>
-      <c r="N9" s="18">
+      <c r="T9" s="18">
         <v>36.32</v>
       </c>
-      <c r="O9" s="18">
+      <c r="U9" s="18">
         <v>0.46</v>
       </c>
-      <c r="P9" s="18">
+      <c r="V9" s="18">
         <v>1.63</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="W9" s="18">
         <v>-1.17</v>
       </c>
-      <c r="R9" s="18">
+      <c r="X9" s="18">
         <v>0.517240626700937</v>
       </c>
-      <c r="S9" s="18">
+      <c r="Y9" s="18">
         <v>58.62</v>
       </c>
-      <c r="T9" s="18">
+      <c r="Z9" s="18">
         <v>90.42</v>
       </c>
-      <c r="U9" s="18">
+      <c r="AA9" s="18">
         <v>97.81</v>
       </c>
-      <c r="V9" s="18">
+      <c r="AB9" s="18">
         <v>-7.39</v>
       </c>
-      <c r="W9" s="18">
+      <c r="AC9" s="18">
         <v>-1.36952797786471</v>
       </c>
-      <c r="X9" s="18">
+      <c r="AD9" s="18">
         <v>27.17</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="AE9" s="18">
         <v>0.6</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AF9" s="18">
         <v>0.29</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AG9" s="18">
         <v>0.31</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AH9" s="18">
         <v>0.663449129086735</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AI9" s="18">
         <v>61.06</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>43.72</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2619,91 +2766,106 @@
         <v>10</v>
       </c>
       <c r="B10" t="s" s="15">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="16">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="17">
         <v>2022</v>
       </c>
       <c r="E10" s="18">
+        <v>59.58</v>
+      </c>
+      <c r="F10" s="18">
+        <v>66.16</v>
+      </c>
+      <c r="G10" s="18">
+        <v>57.4</v>
+      </c>
+      <c r="H10" s="18">
+        <v>61.87</v>
+      </c>
+      <c r="I10" s="18">
+        <v>49.67</v>
+      </c>
+      <c r="J10" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="K10" s="18">
         <v>1.06</v>
       </c>
-      <c r="F10" s="18">
+      <c r="L10" s="18">
         <v>0.01</v>
       </c>
-      <c r="G10" s="18">
+      <c r="M10" s="18">
         <v>1.05</v>
       </c>
-      <c r="H10" s="18">
+      <c r="N10" s="18">
         <v>0.443874821437661</v>
       </c>
-      <c r="I10" s="18">
+      <c r="O10" s="18">
         <v>57.4</v>
       </c>
-      <c r="J10" s="18">
+      <c r="P10" s="18">
         <v>4.1</v>
       </c>
-      <c r="K10" s="18">
+      <c r="Q10" s="18">
         <v>0.51</v>
       </c>
-      <c r="L10" s="18">
+      <c r="R10" s="18">
         <v>3.59</v>
       </c>
-      <c r="M10" s="18">
+      <c r="S10" s="18">
         <v>0.712316936799234</v>
       </c>
-      <c r="N10" s="18">
+      <c r="T10" s="18">
         <v>61.87</v>
       </c>
-      <c r="O10" s="18">
+      <c r="U10" s="18">
         <v>0.19</v>
       </c>
-      <c r="P10" s="18">
+      <c r="V10" s="18">
         <v>1.12</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="W10" s="18">
         <v>-0.93</v>
       </c>
-      <c r="R10" s="18">
+      <c r="X10" s="18">
         <v>-0.0197945664128471</v>
       </c>
-      <c r="S10" s="18">
+      <c r="Y10" s="18">
         <v>49.67</v>
       </c>
-      <c r="T10" s="18">
+      <c r="Z10" s="18">
         <v>94.75</v>
       </c>
-      <c r="U10" s="18">
+      <c r="AA10" s="18">
         <v>98.19</v>
       </c>
-      <c r="V10" s="18">
+      <c r="AB10" s="18">
         <v>-3.44</v>
       </c>
-      <c r="W10" s="18">
+      <c r="AC10" s="18">
         <v>0.9693848570351959</v>
       </c>
-      <c r="X10" s="18">
+      <c r="AD10" s="18">
         <v>66.16</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="AE10" s="18">
         <v>0.73</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AF10" s="18">
         <v>0.45</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AG10" s="18">
         <v>0.28</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AH10" s="18">
         <v>0.7677818550318261</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AI10" s="18">
         <v>62.8</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>59.58</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2711,91 +2873,106 @@
         <v>12</v>
       </c>
       <c r="B11" t="s" s="15">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s" s="16">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" s="17">
         <v>2022</v>
       </c>
       <c r="E11" s="18">
+        <v>46.31</v>
+      </c>
+      <c r="F11" s="18">
+        <v>53.23</v>
+      </c>
+      <c r="G11" s="18">
+        <v>51.68</v>
+      </c>
+      <c r="H11" s="18">
+        <v>51.97</v>
+      </c>
+      <c r="I11" s="18">
+        <v>36.24</v>
+      </c>
+      <c r="J11" s="18">
+        <v>38.45</v>
+      </c>
+      <c r="K11" s="18">
         <v>1.19</v>
       </c>
-      <c r="F11" s="18">
+      <c r="L11" s="18">
         <v>0.01</v>
       </c>
-      <c r="G11" s="18">
+      <c r="M11" s="18">
         <v>1.18</v>
       </c>
-      <c r="H11" s="18">
+      <c r="N11" s="18">
         <v>0.10094981653268</v>
       </c>
-      <c r="I11" s="18">
+      <c r="O11" s="18">
         <v>51.68</v>
       </c>
-      <c r="J11" s="18">
+      <c r="P11" s="18">
         <v>5.08</v>
       </c>
-      <c r="K11" s="18">
+      <c r="Q11" s="18">
         <v>0.61</v>
       </c>
-      <c r="L11" s="18">
+      <c r="R11" s="18">
         <v>4.47</v>
       </c>
-      <c r="M11" s="18">
+      <c r="S11" s="18">
         <v>0.117940149273104</v>
       </c>
-      <c r="N11" s="18">
+      <c r="T11" s="18">
         <v>51.97</v>
       </c>
-      <c r="O11" s="18">
+      <c r="U11" s="18">
         <v>0.2</v>
       </c>
-      <c r="P11" s="18">
+      <c r="V11" s="18">
         <v>0.77</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="W11" s="18">
         <v>-0.57</v>
       </c>
-      <c r="R11" s="18">
+      <c r="X11" s="18">
         <v>-0.8253473560835251</v>
       </c>
-      <c r="S11" s="18">
+      <c r="Y11" s="18">
         <v>36.24</v>
       </c>
-      <c r="T11" s="18">
+      <c r="Z11" s="18">
         <v>93.73999999999999</v>
       </c>
-      <c r="U11" s="18">
+      <c r="AA11" s="18">
         <v>98.48999999999999</v>
       </c>
-      <c r="V11" s="18">
+      <c r="AB11" s="18">
         <v>-4.75</v>
       </c>
-      <c r="W11" s="18">
+      <c r="AC11" s="18">
         <v>0.193694777612694</v>
       </c>
-      <c r="X11" s="18">
+      <c r="AD11" s="18">
         <v>53.23</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="AE11" s="18">
         <v>1.26</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AF11" s="18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AG11" s="18">
         <v>0.7</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AH11" s="18">
         <v>-0.692876308199454</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AI11" s="18">
         <v>38.45</v>
-      </c>
-      <c r="AD11" s="18">
-        <v>46.31</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -2803,91 +2980,106 @@
         <v>13</v>
       </c>
       <c r="B12" t="s" s="15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="16">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17">
         <v>2022</v>
       </c>
       <c r="E12" s="18">
+        <v>55.71</v>
+      </c>
+      <c r="F12" s="18">
+        <v>66.75</v>
+      </c>
+      <c r="G12" s="18">
+        <v>63.55</v>
+      </c>
+      <c r="H12" s="18">
+        <v>62.66</v>
+      </c>
+      <c r="I12" s="18">
+        <v>44.82</v>
+      </c>
+      <c r="J12" s="18">
+        <v>40.77</v>
+      </c>
+      <c r="K12" s="18">
         <v>0.92</v>
       </c>
-      <c r="F12" s="18">
+      <c r="L12" s="18">
         <v>0.01</v>
       </c>
-      <c r="G12" s="18">
+      <c r="M12" s="18">
         <v>0.91</v>
       </c>
-      <c r="H12" s="18">
+      <c r="N12" s="18">
         <v>0.813178672873794</v>
       </c>
-      <c r="I12" s="18">
+      <c r="O12" s="18">
         <v>63.55</v>
       </c>
-      <c r="J12" s="18">
+      <c r="P12" s="18">
         <v>4.34</v>
       </c>
-      <c r="K12" s="18">
+      <c r="Q12" s="18">
         <v>0.82</v>
       </c>
-      <c r="L12" s="18">
+      <c r="R12" s="18">
         <v>3.52</v>
       </c>
-      <c r="M12" s="18">
+      <c r="S12" s="18">
         <v>0.759596908534267</v>
       </c>
-      <c r="N12" s="18">
+      <c r="T12" s="18">
         <v>62.66</v>
       </c>
-      <c r="O12" s="18">
+      <c r="U12" s="18">
         <v>0.14</v>
       </c>
-      <c r="P12" s="18">
+      <c r="V12" s="18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="W12" s="18">
         <v>-0.8</v>
       </c>
-      <c r="R12" s="18">
+      <c r="X12" s="18">
         <v>-0.310688629349481</v>
       </c>
-      <c r="S12" s="18">
+      <c r="Y12" s="18">
         <v>44.82</v>
       </c>
-      <c r="T12" s="18">
+      <c r="Z12" s="18">
         <v>94.73999999999999</v>
       </c>
-      <c r="U12" s="18">
+      <c r="AA12" s="18">
         <v>98.12</v>
       </c>
-      <c r="V12" s="18">
+      <c r="AB12" s="18">
         <v>-3.38000000000001</v>
       </c>
-      <c r="W12" s="18">
+      <c r="AC12" s="18">
         <v>1.0049126469324</v>
       </c>
-      <c r="X12" s="18">
+      <c r="AD12" s="18">
         <v>66.75</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="AE12" s="18">
         <v>1.41</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AF12" s="18">
         <v>0.75</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AG12" s="18">
         <v>0.66</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AH12" s="18">
         <v>-0.553766006939332</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AI12" s="18">
         <v>40.77</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>55.71</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2895,91 +3087,106 @@
         <v>15</v>
       </c>
       <c r="B13" t="s" s="15">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="16">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17">
         <v>2022</v>
       </c>
       <c r="E13" s="18">
+        <v>58.99</v>
+      </c>
+      <c r="F13" s="18">
+        <v>53.43</v>
+      </c>
+      <c r="G13" s="18">
+        <v>56.08</v>
+      </c>
+      <c r="H13" s="18">
+        <v>61.31</v>
+      </c>
+      <c r="I13" s="18">
+        <v>63.1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>61.06</v>
+      </c>
+      <c r="K13" s="18">
         <v>1.09</v>
       </c>
-      <c r="F13" s="18">
+      <c r="L13" s="18">
         <v>0.01</v>
       </c>
-      <c r="G13" s="18">
+      <c r="M13" s="18">
         <v>1.08</v>
       </c>
-      <c r="H13" s="18">
+      <c r="N13" s="18">
         <v>0.364738281844204</v>
       </c>
-      <c r="I13" s="18">
+      <c r="O13" s="18">
         <v>56.08</v>
       </c>
-      <c r="J13" s="18">
+      <c r="P13" s="18">
         <v>3.9</v>
       </c>
-      <c r="K13" s="18">
+      <c r="Q13" s="18">
         <v>0.26</v>
       </c>
-      <c r="L13" s="18">
+      <c r="R13" s="18">
         <v>3.64</v>
       </c>
-      <c r="M13" s="18">
+      <c r="S13" s="18">
         <v>0.6785455284170679</v>
       </c>
-      <c r="N13" s="18">
+      <c r="T13" s="18">
         <v>61.31</v>
       </c>
-      <c r="O13" s="18">
+      <c r="U13" s="18">
         <v>0.39</v>
       </c>
-      <c r="P13" s="18">
+      <c r="V13" s="18">
         <v>1.68</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="W13" s="18">
         <v>-1.29</v>
       </c>
-      <c r="R13" s="18">
+      <c r="X13" s="18">
         <v>0.78575822325783</v>
       </c>
-      <c r="S13" s="18">
+      <c r="Y13" s="18">
         <v>63.1</v>
       </c>
-      <c r="T13" s="18">
+      <c r="Z13" s="18">
         <v>93.11</v>
       </c>
-      <c r="U13" s="18">
+      <c r="AA13" s="18">
         <v>97.84</v>
       </c>
-      <c r="V13" s="18">
+      <c r="AB13" s="18">
         <v>-4.73</v>
       </c>
-      <c r="W13" s="18">
+      <c r="AC13" s="18">
         <v>0.205537374245096</v>
       </c>
-      <c r="X13" s="18">
+      <c r="AD13" s="18">
         <v>53.43</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="AE13" s="18">
         <v>0.54</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AF13" s="18">
         <v>0.23</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AG13" s="18">
         <v>0.31</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AH13" s="18">
         <v>0.663449129086735</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AI13" s="18">
         <v>61.06</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>58.99</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2987,91 +3194,106 @@
         <v>16</v>
       </c>
       <c r="B14" t="s" s="15">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="17">
         <v>2022</v>
       </c>
       <c r="E14" s="18">
+        <v>53.55</v>
+      </c>
+      <c r="F14" s="18">
+        <v>61.81</v>
+      </c>
+      <c r="G14" s="18">
+        <v>57.84</v>
+      </c>
+      <c r="H14" s="18">
+        <v>53.09</v>
+      </c>
+      <c r="I14" s="18">
+        <v>57.13</v>
+      </c>
+      <c r="J14" s="18">
+        <v>37.87</v>
+      </c>
+      <c r="K14" s="18">
         <v>1.04</v>
       </c>
-      <c r="F14" s="18">
+      <c r="L14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="M14" s="18">
         <v>1.04</v>
       </c>
-      <c r="H14" s="18">
+      <c r="N14" s="18">
         <v>0.470253667968813</v>
       </c>
-      <c r="I14" s="18">
+      <c r="O14" s="18">
         <v>57.84</v>
       </c>
-      <c r="J14" s="18">
+      <c r="P14" s="18">
         <v>4.92</v>
       </c>
-      <c r="K14" s="18">
+      <c r="Q14" s="18">
         <v>0.55</v>
       </c>
-      <c r="L14" s="18">
+      <c r="R14" s="18">
         <v>4.37</v>
       </c>
-      <c r="M14" s="18">
+      <c r="S14" s="18">
         <v>0.185482966037437</v>
       </c>
-      <c r="N14" s="18">
+      <c r="T14" s="18">
         <v>53.09</v>
       </c>
-      <c r="O14" s="18">
+      <c r="U14" s="18">
         <v>0.18</v>
       </c>
-      <c r="P14" s="18">
+      <c r="V14" s="18">
         <v>1.31</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="W14" s="18">
         <v>-1.13</v>
       </c>
-      <c r="R14" s="18">
+      <c r="X14" s="18">
         <v>0.427734761181974</v>
       </c>
-      <c r="S14" s="18">
+      <c r="Y14" s="18">
         <v>57.13</v>
       </c>
-      <c r="T14" s="18">
+      <c r="Z14" s="18">
         <v>94.06</v>
       </c>
-      <c r="U14" s="18">
+      <c r="AA14" s="18">
         <v>97.94</v>
       </c>
-      <c r="V14" s="18">
+      <c r="AB14" s="18">
         <v>-3.88</v>
       </c>
-      <c r="W14" s="18">
+      <c r="AC14" s="18">
         <v>0.708847731122296</v>
       </c>
-      <c r="X14" s="18">
+      <c r="AD14" s="18">
         <v>61.81</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="AE14" s="18">
         <v>1.2</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AF14" s="18">
         <v>0.49</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AG14" s="18">
         <v>0.71</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AH14" s="18">
         <v>-0.727653883514484</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AI14" s="18">
         <v>37.87</v>
-      </c>
-      <c r="AD14" s="18">
-        <v>53.55</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -3079,91 +3301,106 @@
         <v>17</v>
       </c>
       <c r="B15" t="s" s="15">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s" s="16">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17">
         <v>2022</v>
       </c>
       <c r="E15" s="18">
+        <v>34.89</v>
+      </c>
+      <c r="F15" s="18">
+        <v>39.31</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>36.54</v>
+      </c>
+      <c r="I15" s="18">
+        <v>38.11</v>
+      </c>
+      <c r="J15" s="18">
+        <v>60.48</v>
+      </c>
+      <c r="K15" s="18">
         <v>2.5</v>
       </c>
-      <c r="F15" s="18">
+      <c r="L15" s="18">
         <v>0.03</v>
       </c>
-      <c r="G15" s="18">
+      <c r="M15" s="18">
         <v>2.47</v>
       </c>
-      <c r="H15" s="18">
+      <c r="N15" s="18">
         <v>-3</v>
       </c>
-      <c r="I15" s="18">
+      <c r="O15" s="18">
         <v>0</v>
       </c>
-      <c r="J15" s="18">
+      <c r="P15" s="18">
         <v>6.33</v>
       </c>
-      <c r="K15" s="18">
+      <c r="Q15" s="18">
         <v>0.49</v>
       </c>
-      <c r="L15" s="18">
+      <c r="R15" s="18">
         <v>5.84</v>
       </c>
-      <c r="M15" s="18">
+      <c r="S15" s="18">
         <v>-0.807396440398257</v>
       </c>
-      <c r="N15" s="18">
+      <c r="T15" s="18">
         <v>36.54</v>
       </c>
-      <c r="O15" s="18">
+      <c r="U15" s="18">
         <v>0.2</v>
       </c>
-      <c r="P15" s="18">
+      <c r="V15" s="18">
         <v>0.82</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="W15" s="18">
         <v>-0.62</v>
       </c>
-      <c r="R15" s="18">
+      <c r="X15" s="18">
         <v>-0.7134650241848201</v>
       </c>
-      <c r="S15" s="18">
+      <c r="Y15" s="18">
         <v>38.11</v>
       </c>
-      <c r="T15" s="18">
+      <c r="Z15" s="18">
         <v>92.42</v>
       </c>
-      <c r="U15" s="18">
+      <c r="AA15" s="18">
         <v>98.58</v>
       </c>
-      <c r="V15" s="18">
+      <c r="AB15" s="18">
         <v>-6.16</v>
       </c>
-      <c r="W15" s="18">
+      <c r="AC15" s="18">
         <v>-0.641208284971827</v>
       </c>
-      <c r="X15" s="18">
+      <c r="AD15" s="18">
         <v>39.31</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="AE15" s="18">
         <v>0.75</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AF15" s="18">
         <v>0.43</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AG15" s="18">
         <v>0.32</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AH15" s="18">
         <v>0.628671553771704</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AI15" s="18">
         <v>60.48</v>
-      </c>
-      <c r="AD15" s="18">
-        <v>34.89</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -3171,91 +3408,106 @@
         <v>18</v>
       </c>
       <c r="B16" t="s" s="15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s" s="16">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D16" s="17">
         <v>2022</v>
       </c>
       <c r="E16" s="18">
+        <v>47.36</v>
+      </c>
+      <c r="F16" s="18">
+        <v>48.69</v>
+      </c>
+      <c r="G16" s="18">
+        <v>41.57</v>
+      </c>
+      <c r="H16" s="18">
+        <v>40.03</v>
+      </c>
+      <c r="I16" s="18">
+        <v>48.92</v>
+      </c>
+      <c r="J16" s="18">
+        <v>57.58</v>
+      </c>
+      <c r="K16" s="18">
         <v>1.42</v>
       </c>
-      <c r="F16" s="18">
+      <c r="L16" s="18">
         <v>0.01</v>
       </c>
-      <c r="G16" s="18">
+      <c r="M16" s="18">
         <v>1.41</v>
       </c>
-      <c r="H16" s="18">
+      <c r="N16" s="18">
         <v>-0.505763653683825</v>
       </c>
-      <c r="I16" s="18">
+      <c r="O16" s="18">
         <v>41.57</v>
       </c>
-      <c r="J16" s="18">
+      <c r="P16" s="18">
         <v>6.14</v>
       </c>
-      <c r="K16" s="18">
+      <c r="Q16" s="18">
         <v>0.61</v>
       </c>
-      <c r="L16" s="18">
+      <c r="R16" s="18">
         <v>5.53</v>
       </c>
-      <c r="M16" s="18">
+      <c r="S16" s="18">
         <v>-0.598013708428825</v>
       </c>
-      <c r="N16" s="18">
+      <c r="T16" s="18">
         <v>40.03</v>
       </c>
-      <c r="O16" s="18">
+      <c r="U16" s="18">
         <v>0.19</v>
       </c>
-      <c r="P16" s="18">
+      <c r="V16" s="18">
         <v>1.1</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="W16" s="18">
         <v>-0.91</v>
       </c>
-      <c r="R16" s="18">
+      <c r="X16" s="18">
         <v>-0.0645474991723292</v>
       </c>
-      <c r="S16" s="18">
+      <c r="Y16" s="18">
         <v>48.92</v>
       </c>
-      <c r="T16" s="18">
+      <c r="Z16" s="18">
         <v>92.90000000000001</v>
       </c>
-      <c r="U16" s="18">
+      <c r="AA16" s="18">
         <v>98.11</v>
       </c>
-      <c r="V16" s="18">
+      <c r="AB16" s="18">
         <v>-5.20999999999999</v>
       </c>
-      <c r="W16" s="18">
+      <c r="AC16" s="18">
         <v>-0.0786849449326079</v>
       </c>
-      <c r="X16" s="18">
+      <c r="AD16" s="18">
         <v>48.69</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="AE16" s="18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="AF16" s="18">
         <v>0.57</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AG16" s="18">
         <v>0.37</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AH16" s="18">
         <v>0.454783677196552</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AI16" s="18">
         <v>57.58</v>
-      </c>
-      <c r="AD16" s="18">
-        <v>47.36</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -3263,91 +3515,106 @@
         <v>19</v>
       </c>
       <c r="B17" t="s" s="15">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s" s="16">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D17" s="17">
         <v>2022</v>
       </c>
       <c r="E17" s="18">
+        <v>39.47</v>
+      </c>
+      <c r="F17" s="18">
+        <v>26.58</v>
+      </c>
+      <c r="G17" s="18">
+        <v>31.9</v>
+      </c>
+      <c r="H17" s="18">
+        <v>15.38</v>
+      </c>
+      <c r="I17" s="18">
+        <v>60.11</v>
+      </c>
+      <c r="J17" s="18">
+        <v>63.38</v>
+      </c>
+      <c r="K17" s="18">
         <v>1.64</v>
       </c>
-      <c r="F17" s="18">
+      <c r="L17" s="18">
         <v>0.01</v>
       </c>
-      <c r="G17" s="18">
+      <c r="M17" s="18">
         <v>1.63</v>
       </c>
-      <c r="H17" s="18">
+      <c r="N17" s="18">
         <v>-1.08609827736918</v>
       </c>
-      <c r="I17" s="18">
+      <c r="O17" s="18">
         <v>31.9</v>
       </c>
-      <c r="J17" s="18">
+      <c r="P17" s="18">
         <v>8.15</v>
       </c>
-      <c r="K17" s="18">
+      <c r="Q17" s="18">
         <v>0.43</v>
       </c>
-      <c r="L17" s="18">
+      <c r="R17" s="18">
         <v>7.72</v>
       </c>
-      <c r="M17" s="18">
+      <c r="S17" s="18">
         <v>-2.07720139556772</v>
       </c>
-      <c r="N17" s="18">
+      <c r="T17" s="18">
         <v>15.38</v>
       </c>
-      <c r="O17" s="18">
+      <c r="U17" s="18">
         <v>0.26</v>
       </c>
-      <c r="P17" s="18">
+      <c r="V17" s="18">
         <v>1.47</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="W17" s="18">
         <v>-1.21</v>
       </c>
-      <c r="R17" s="18">
+      <c r="X17" s="18">
         <v>0.606746492219901</v>
       </c>
-      <c r="S17" s="18">
+      <c r="Y17" s="18">
         <v>60.11</v>
       </c>
-      <c r="T17" s="18">
+      <c r="Z17" s="18">
         <v>90.43000000000001</v>
       </c>
-      <c r="U17" s="18">
+      <c r="AA17" s="18">
         <v>97.88</v>
       </c>
-      <c r="V17" s="18">
+      <c r="AB17" s="18">
         <v>-7.44999999999999</v>
       </c>
-      <c r="W17" s="18">
+      <c r="AC17" s="18">
         <v>-1.40505576776192</v>
       </c>
-      <c r="X17" s="18">
+      <c r="AD17" s="18">
         <v>26.58</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="AE17" s="18">
         <v>0.65</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="AF17" s="18">
         <v>0.38</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AG17" s="18">
         <v>0.27</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AH17" s="18">
         <v>0.802559430346857</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AI17" s="18">
         <v>63.38</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>39.47</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -3355,91 +3622,106 @@
         <v>20</v>
       </c>
       <c r="B18" t="s" s="15">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s" s="16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D18" s="17">
         <v>2022</v>
       </c>
       <c r="E18" s="18">
+        <v>38.37</v>
+      </c>
+      <c r="F18" s="18">
+        <v>34.58</v>
+      </c>
+      <c r="G18" s="18">
+        <v>46.85</v>
+      </c>
+      <c r="H18" s="18">
+        <v>30.24</v>
+      </c>
+      <c r="I18" s="18">
+        <v>50.42</v>
+      </c>
+      <c r="J18" s="18">
+        <v>29.76</v>
+      </c>
+      <c r="K18" s="18">
         <v>1.3</v>
       </c>
-      <c r="F18" s="18">
+      <c r="L18" s="18">
         <v>0.01</v>
       </c>
-      <c r="G18" s="18">
+      <c r="M18" s="18">
         <v>1.29</v>
       </c>
-      <c r="H18" s="18">
+      <c r="N18" s="18">
         <v>-0.189217495309997</v>
       </c>
-      <c r="I18" s="18">
+      <c r="O18" s="18">
         <v>46.85</v>
       </c>
-      <c r="J18" s="18">
+      <c r="P18" s="18">
         <v>6.96</v>
       </c>
-      <c r="K18" s="18">
+      <c r="Q18" s="18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L18" s="18">
+      <c r="R18" s="18">
         <v>6.4</v>
       </c>
-      <c r="M18" s="18">
+      <c r="S18" s="18">
         <v>-1.18563621427852</v>
       </c>
-      <c r="N18" s="18">
+      <c r="T18" s="18">
         <v>30.24</v>
       </c>
-      <c r="O18" s="18">
+      <c r="U18" s="18">
         <v>0.3</v>
       </c>
-      <c r="P18" s="18">
+      <c r="V18" s="18">
         <v>1.25</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="W18" s="18">
         <v>-0.95</v>
       </c>
-      <c r="R18" s="18">
+      <c r="X18" s="18">
         <v>0.0249583663466345</v>
       </c>
-      <c r="S18" s="18">
+      <c r="Y18" s="18">
         <v>50.42</v>
       </c>
-      <c r="T18" s="18">
+      <c r="Z18" s="18">
         <v>91.34999999999999</v>
       </c>
-      <c r="U18" s="18">
+      <c r="AA18" s="18">
         <v>97.98999999999999</v>
       </c>
-      <c r="V18" s="18">
+      <c r="AB18" s="18">
         <v>-6.64</v>
       </c>
-      <c r="W18" s="18">
+      <c r="AC18" s="18">
         <v>-0.92543060414954</v>
       </c>
-      <c r="X18" s="18">
+      <c r="AD18" s="18">
         <v>34.58</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AE18" s="18">
         <v>1.35</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AF18" s="18">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AG18" s="18">
         <v>0.85</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AH18" s="18">
         <v>-1.21453993792491</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AI18" s="18">
         <v>29.76</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>38.37</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -3447,91 +3729,106 @@
         <v>21</v>
       </c>
       <c r="B19" t="s" s="15">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" s="16">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="17">
         <v>2022</v>
       </c>
       <c r="E19" s="18">
+        <v>52.91</v>
+      </c>
+      <c r="F19" s="18">
+        <v>63.2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>54.76</v>
+      </c>
+      <c r="H19" s="18">
+        <v>57.14</v>
+      </c>
+      <c r="I19" s="18">
+        <v>45.19</v>
+      </c>
+      <c r="J19" s="18">
+        <v>44.25</v>
+      </c>
+      <c r="K19" s="18">
         <v>1.12</v>
       </c>
-      <c r="F19" s="18">
+      <c r="L19" s="18">
         <v>0.01</v>
       </c>
-      <c r="G19" s="18">
+      <c r="M19" s="18">
         <v>1.11</v>
       </c>
-      <c r="H19" s="18">
+      <c r="N19" s="18">
         <v>0.285601742250746</v>
       </c>
-      <c r="I19" s="18">
+      <c r="O19" s="18">
         <v>54.76</v>
       </c>
-      <c r="J19" s="18">
+      <c r="P19" s="18">
         <v>4.81</v>
       </c>
-      <c r="K19" s="18">
+      <c r="Q19" s="18">
         <v>0.8</v>
       </c>
-      <c r="L19" s="18">
+      <c r="R19" s="18">
         <v>4.01</v>
       </c>
-      <c r="M19" s="18">
+      <c r="S19" s="18">
         <v>0.428637106389036</v>
       </c>
-      <c r="N19" s="18">
+      <c r="T19" s="18">
         <v>57.14</v>
       </c>
-      <c r="O19" s="18">
+      <c r="U19" s="18">
         <v>0.22</v>
       </c>
-      <c r="P19" s="18">
+      <c r="V19" s="18">
         <v>1.03</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="W19" s="18">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="R19" s="18">
+      <c r="X19" s="18">
         <v>-0.28831216296974</v>
       </c>
-      <c r="S19" s="18">
+      <c r="Y19" s="18">
         <v>45.19</v>
       </c>
-      <c r="T19" s="18">
+      <c r="Z19" s="18">
         <v>94.20999999999999</v>
       </c>
-      <c r="U19" s="18">
+      <c r="AA19" s="18">
         <v>97.95</v>
       </c>
-      <c r="V19" s="18">
+      <c r="AB19" s="18">
         <v>-3.74000000000001</v>
       </c>
-      <c r="W19" s="18">
+      <c r="AC19" s="18">
         <v>0.79174590754912</v>
       </c>
-      <c r="X19" s="18">
+      <c r="AD19" s="18">
         <v>63.2</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="AE19" s="18">
         <v>1.35</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="AF19" s="18">
         <v>0.75</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AG19" s="18">
         <v>0.6</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AH19" s="18">
         <v>-0.345100555049149</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AI19" s="18">
         <v>44.25</v>
-      </c>
-      <c r="AD19" s="18">
-        <v>52.91</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -3539,91 +3836,106 @@
         <v>22</v>
       </c>
       <c r="B20" t="s" s="15">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="16">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D20" s="17">
         <v>2022</v>
       </c>
       <c r="E20" s="18">
+        <v>55.98</v>
+      </c>
+      <c r="F20" s="18">
+        <v>64.38</v>
+      </c>
+      <c r="G20" s="18">
+        <v>48.6</v>
+      </c>
+      <c r="H20" s="18">
+        <v>61.76</v>
+      </c>
+      <c r="I20" s="18">
+        <v>37.74</v>
+      </c>
+      <c r="J20" s="18">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="K20" s="18">
         <v>1.26</v>
       </c>
-      <c r="F20" s="18">
+      <c r="L20" s="18">
         <v>0.01</v>
       </c>
-      <c r="G20" s="18">
+      <c r="M20" s="18">
         <v>1.25</v>
       </c>
-      <c r="H20" s="18">
+      <c r="N20" s="18">
         <v>-0.08370210918538711</v>
       </c>
-      <c r="I20" s="18">
+      <c r="O20" s="18">
         <v>48.6</v>
       </c>
-      <c r="J20" s="18">
+      <c r="P20" s="18">
         <v>4.75</v>
       </c>
-      <c r="K20" s="18">
+      <c r="Q20" s="18">
         <v>1.15</v>
       </c>
-      <c r="L20" s="18">
+      <c r="R20" s="18">
         <v>3.6</v>
       </c>
-      <c r="M20" s="18">
+      <c r="S20" s="18">
         <v>0.705562655122801</v>
       </c>
-      <c r="N20" s="18">
+      <c r="T20" s="18">
         <v>61.76</v>
       </c>
-      <c r="O20" s="18">
+      <c r="U20" s="18">
         <v>0.19</v>
       </c>
-      <c r="P20" s="18">
+      <c r="V20" s="18">
         <v>0.8</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="W20" s="18">
         <v>-0.61</v>
       </c>
-      <c r="R20" s="18">
+      <c r="X20" s="18">
         <v>-0.7358414905645601</v>
       </c>
-      <c r="S20" s="18">
+      <c r="Y20" s="18">
         <v>37.74</v>
       </c>
-      <c r="T20" s="18">
+      <c r="Z20" s="18">
         <v>94.29000000000001</v>
       </c>
-      <c r="U20" s="18">
+      <c r="AA20" s="18">
         <v>97.91</v>
       </c>
-      <c r="V20" s="18">
+      <c r="AB20" s="18">
         <v>-3.61999999999999</v>
       </c>
-      <c r="W20" s="18">
+      <c r="AC20" s="18">
         <v>0.862801487343559</v>
       </c>
-      <c r="X20" s="18">
+      <c r="AD20" s="18">
         <v>64.38</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="AE20" s="18">
         <v>1.28</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="AF20" s="18">
         <v>1.08</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AG20" s="18">
         <v>0.2</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AH20" s="18">
         <v>1.04600245755207</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AI20" s="18">
         <v>67.43000000000001</v>
-      </c>
-      <c r="AD20" s="18">
-        <v>55.98</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -3631,91 +3943,106 @@
         <v>23</v>
       </c>
       <c r="B21" t="s" s="15">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s" s="16">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D21" s="17">
         <v>2022</v>
       </c>
       <c r="E21" s="18">
+        <v>49.33</v>
+      </c>
+      <c r="F21" s="18">
+        <v>43.36</v>
+      </c>
+      <c r="G21" s="18">
+        <v>56.96</v>
+      </c>
+      <c r="H21" s="18">
+        <v>40.03</v>
+      </c>
+      <c r="I21" s="18">
+        <v>49.3</v>
+      </c>
+      <c r="J21" s="18">
+        <v>57</v>
+      </c>
+      <c r="K21" s="18">
         <v>1.07</v>
       </c>
-      <c r="F21" s="18">
+      <c r="L21" s="18">
         <v>0.01</v>
       </c>
-      <c r="G21" s="18">
+      <c r="M21" s="18">
         <v>1.06</v>
       </c>
-      <c r="H21" s="18">
+      <c r="N21" s="18">
         <v>0.417495974906508</v>
       </c>
-      <c r="I21" s="18">
+      <c r="O21" s="18">
         <v>56.96</v>
       </c>
-      <c r="J21" s="18">
+      <c r="P21" s="18">
         <v>5.78</v>
       </c>
-      <c r="K21" s="18">
+      <c r="Q21" s="18">
         <v>0.25</v>
       </c>
-      <c r="L21" s="18">
+      <c r="R21" s="18">
         <v>5.53</v>
       </c>
-      <c r="M21" s="18">
+      <c r="S21" s="18">
         <v>-0.598013708428825</v>
       </c>
-      <c r="N21" s="18">
+      <c r="T21" s="18">
         <v>40.03</v>
       </c>
-      <c r="O21" s="18">
+      <c r="U21" s="18">
         <v>0.34</v>
       </c>
-      <c r="P21" s="18">
+      <c r="V21" s="18">
         <v>1.26</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="W21" s="18">
         <v>-0.92</v>
       </c>
-      <c r="R21" s="18">
+      <c r="X21" s="18">
         <v>-0.0421710327925886</v>
       </c>
-      <c r="S21" s="18">
+      <c r="Y21" s="18">
         <v>49.3</v>
       </c>
-      <c r="T21" s="18">
+      <c r="Z21" s="18">
         <v>92.5</v>
       </c>
-      <c r="U21" s="18">
+      <c r="AA21" s="18">
         <v>98.25</v>
       </c>
-      <c r="V21" s="18">
+      <c r="AB21" s="18">
         <v>-5.75</v>
       </c>
-      <c r="W21" s="18">
+      <c r="AC21" s="18">
         <v>-0.398435054007535</v>
       </c>
-      <c r="X21" s="18">
+      <c r="AD21" s="18">
         <v>43.36</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="AE21" s="18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="AF21" s="18">
         <v>0.18</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AG21" s="18">
         <v>0.38</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AH21" s="18">
         <v>0.420006101881521</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AI21" s="18">
         <v>57</v>
-      </c>
-      <c r="AD21" s="18">
-        <v>49.33</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -3723,91 +4050,106 @@
         <v>24</v>
       </c>
       <c r="B22" t="s" s="15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s" s="16">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" s="17">
         <v>2022</v>
       </c>
       <c r="E22" s="18">
+        <v>43.79</v>
+      </c>
+      <c r="F22" s="18">
+        <v>45.83</v>
+      </c>
+      <c r="G22" s="18">
+        <v>33.22</v>
+      </c>
+      <c r="H22" s="18">
+        <v>49.83</v>
+      </c>
+      <c r="I22" s="18">
+        <v>37.74</v>
+      </c>
+      <c r="J22" s="18">
+        <v>52.36</v>
+      </c>
+      <c r="K22" s="18">
         <v>1.61</v>
       </c>
-      <c r="F22" s="18">
+      <c r="L22" s="18">
         <v>0.01</v>
       </c>
-      <c r="G22" s="18">
+      <c r="M22" s="18">
         <v>1.6</v>
       </c>
-      <c r="H22" s="18">
+      <c r="N22" s="18">
         <v>-1.00696173777572</v>
       </c>
-      <c r="I22" s="18">
+      <c r="O22" s="18">
         <v>33.22</v>
       </c>
-      <c r="J22" s="18">
+      <c r="P22" s="18">
         <v>5.1</v>
       </c>
-      <c r="K22" s="18">
+      <c r="Q22" s="18">
         <v>0.44</v>
       </c>
-      <c r="L22" s="18">
+      <c r="R22" s="18">
         <v>4.66</v>
       </c>
-      <c r="M22" s="18">
+      <c r="S22" s="18">
         <v>-0.0103912025791281</v>
       </c>
-      <c r="N22" s="18">
+      <c r="T22" s="18">
         <v>49.83</v>
       </c>
-      <c r="O22" s="18">
+      <c r="U22" s="18">
         <v>0.24</v>
       </c>
-      <c r="P22" s="18">
+      <c r="V22" s="18">
         <v>0.85</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="W22" s="18">
         <v>-0.61</v>
       </c>
-      <c r="R22" s="18">
+      <c r="X22" s="18">
         <v>-0.7358414905645611</v>
       </c>
-      <c r="S22" s="18">
+      <c r="Y22" s="18">
         <v>37.74</v>
       </c>
-      <c r="T22" s="18">
+      <c r="Z22" s="18">
         <v>93.09999999999999</v>
       </c>
-      <c r="U22" s="18">
+      <c r="AA22" s="18">
         <v>98.59999999999999</v>
       </c>
-      <c r="V22" s="18">
+      <c r="AB22" s="18">
         <v>-5.5</v>
       </c>
-      <c r="W22" s="18">
+      <c r="AC22" s="18">
         <v>-0.250402596102478</v>
       </c>
-      <c r="X22" s="18">
+      <c r="AD22" s="18">
         <v>45.83</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="AE22" s="18">
         <v>0.85</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="AF22" s="18">
         <v>0.39</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AG22" s="18">
         <v>0.46</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AH22" s="18">
         <v>0.141785499361278</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AI22" s="18">
         <v>52.36</v>
-      </c>
-      <c r="AD22" s="18">
-        <v>43.79</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -3815,91 +4157,106 @@
         <v>25</v>
       </c>
       <c r="B23" t="s" s="15">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s" s="16">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D23" s="17">
         <v>2022</v>
       </c>
       <c r="E23" s="18">
+        <v>53.4</v>
+      </c>
+      <c r="F23" s="18">
+        <v>41.58</v>
+      </c>
+      <c r="G23" s="18">
+        <v>45.09</v>
+      </c>
+      <c r="H23" s="18">
+        <v>41.38</v>
+      </c>
+      <c r="I23" s="18">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="J23" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="K23" s="18">
         <v>1.34</v>
       </c>
-      <c r="F23" s="18">
+      <c r="L23" s="18">
         <v>0.01</v>
       </c>
-      <c r="G23" s="18">
+      <c r="M23" s="18">
         <v>1.33</v>
       </c>
-      <c r="H23" s="18">
+      <c r="N23" s="18">
         <v>-0.294732881434607</v>
       </c>
-      <c r="I23" s="18">
+      <c r="O23" s="18">
         <v>45.09</v>
       </c>
-      <c r="J23" s="18">
+      <c r="P23" s="18">
         <v>5.64</v>
       </c>
-      <c r="K23" s="18">
+      <c r="Q23" s="18">
         <v>0.23</v>
       </c>
-      <c r="L23" s="18">
+      <c r="R23" s="18">
         <v>5.41</v>
       </c>
-      <c r="M23" s="18">
+      <c r="S23" s="18">
         <v>-0.516962328311625</v>
       </c>
-      <c r="N23" s="18">
+      <c r="T23" s="18">
         <v>41.38</v>
       </c>
-      <c r="O23" s="18">
+      <c r="U23" s="18">
         <v>0.39</v>
       </c>
-      <c r="P23" s="18">
+      <c r="V23" s="18">
         <v>2.03</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="W23" s="18">
         <v>-1.64</v>
       </c>
-      <c r="R23" s="18">
+      <c r="X23" s="18">
         <v>1.56893454654877</v>
       </c>
-      <c r="S23" s="18">
+      <c r="Y23" s="18">
         <v>76.15000000000001</v>
       </c>
-      <c r="T23" s="18">
+      <c r="Z23" s="18">
         <v>91.53</v>
       </c>
-      <c r="U23" s="18">
+      <c r="AA23" s="18">
         <v>97.45999999999999</v>
       </c>
-      <c r="V23" s="18">
+      <c r="AB23" s="18">
         <v>-5.92999999999999</v>
       </c>
-      <c r="W23" s="18">
+      <c r="AC23" s="18">
         <v>-0.505018423699172</v>
       </c>
-      <c r="X23" s="18">
+      <c r="AD23" s="18">
         <v>41.58</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="AE23" s="18">
         <v>0.46</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="AF23" s="18">
         <v>0.18</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AG23" s="18">
         <v>0.28</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AH23" s="18">
         <v>0.7677818550318261</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AI23" s="18">
         <v>62.8</v>
-      </c>
-      <c r="AD23" s="18">
-        <v>53.4</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -3907,91 +4264,106 @@
         <v>26</v>
       </c>
       <c r="B24" t="s" s="15">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s" s="16">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D24" s="17">
         <v>2022</v>
       </c>
       <c r="E24" s="18">
+        <v>50.4</v>
+      </c>
+      <c r="F24" s="18">
+        <v>55</v>
+      </c>
+      <c r="G24" s="18">
+        <v>62.67</v>
+      </c>
+      <c r="H24" s="18">
+        <v>57.93</v>
+      </c>
+      <c r="I24" s="18">
+        <v>37.36</v>
+      </c>
+      <c r="J24" s="18">
+        <v>39.03</v>
+      </c>
+      <c r="K24" s="18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F24" s="18">
+      <c r="L24" s="18">
         <v>0.01</v>
       </c>
-      <c r="G24" s="18">
+      <c r="M24" s="18">
         <v>0.93</v>
       </c>
-      <c r="H24" s="18">
+      <c r="N24" s="18">
         <v>0.76042097981149</v>
       </c>
-      <c r="I24" s="18">
+      <c r="O24" s="18">
         <v>62.67</v>
       </c>
-      <c r="J24" s="18">
+      <c r="P24" s="18">
         <v>4.42</v>
       </c>
-      <c r="K24" s="18">
+      <c r="Q24" s="18">
         <v>0.48</v>
       </c>
-      <c r="L24" s="18">
+      <c r="R24" s="18">
         <v>3.94</v>
       </c>
-      <c r="M24" s="18">
+      <c r="S24" s="18">
         <v>0.475917078124069</v>
       </c>
-      <c r="N24" s="18">
+      <c r="T24" s="18">
         <v>57.93</v>
       </c>
-      <c r="O24" s="18">
+      <c r="U24" s="18">
         <v>0.27</v>
       </c>
-      <c r="P24" s="18">
+      <c r="V24" s="18">
         <v>0.87</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="W24" s="18">
         <v>-0.6</v>
       </c>
-      <c r="R24" s="18">
+      <c r="X24" s="18">
         <v>-0.7582179569443021</v>
       </c>
-      <c r="S24" s="18">
+      <c r="Y24" s="18">
         <v>37.36</v>
       </c>
-      <c r="T24" s="18">
+      <c r="Z24" s="18">
         <v>93.94</v>
       </c>
-      <c r="U24" s="18">
+      <c r="AA24" s="18">
         <v>98.51000000000001</v>
       </c>
-      <c r="V24" s="18">
+      <c r="AB24" s="18">
         <v>-4.57000000000001</v>
       </c>
-      <c r="W24" s="18">
+      <c r="AC24" s="18">
         <v>0.300278147304331</v>
       </c>
-      <c r="X24" s="18">
+      <c r="AD24" s="18">
         <v>55</v>
       </c>
-      <c r="Y24" s="18">
+      <c r="AE24" s="18">
         <v>1.14</v>
       </c>
-      <c r="Z24" s="18">
+      <c r="AF24" s="18">
         <v>0.45</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AG24" s="18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AH24" s="18">
         <v>-0.658098732884423</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AI24" s="18">
         <v>39.03</v>
-      </c>
-      <c r="AD24" s="18">
-        <v>50.4</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3999,91 +4371,106 @@
         <v>27</v>
       </c>
       <c r="B25" t="s" s="15">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s" s="16">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D25" s="17">
         <v>2022</v>
       </c>
       <c r="E25" s="18">
+        <v>38.02</v>
+      </c>
+      <c r="F25" s="18">
+        <v>13.85</v>
+      </c>
+      <c r="G25" s="18">
+        <v>46.41</v>
+      </c>
+      <c r="H25" s="18">
+        <v>32.6</v>
+      </c>
+      <c r="I25" s="18">
+        <v>32.14</v>
+      </c>
+      <c r="J25" s="18">
+        <v>65.11</v>
+      </c>
+      <c r="K25" s="18">
         <v>1.31</v>
       </c>
-      <c r="F25" s="18">
+      <c r="L25" s="18">
         <v>0.01</v>
       </c>
-      <c r="G25" s="18">
+      <c r="M25" s="18">
         <v>1.3</v>
       </c>
-      <c r="H25" s="18">
+      <c r="N25" s="18">
         <v>-0.215596341841149</v>
       </c>
-      <c r="I25" s="18">
+      <c r="O25" s="18">
         <v>46.41</v>
       </c>
-      <c r="J25" s="18">
+      <c r="P25" s="18">
         <v>6.5</v>
       </c>
-      <c r="K25" s="18">
+      <c r="Q25" s="18">
         <v>0.31</v>
       </c>
-      <c r="L25" s="18">
+      <c r="R25" s="18">
         <v>6.19</v>
       </c>
-      <c r="M25" s="18">
+      <c r="S25" s="18">
         <v>-1.04379629907342</v>
       </c>
-      <c r="N25" s="18">
+      <c r="T25" s="18">
         <v>32.6</v>
       </c>
-      <c r="O25" s="18">
+      <c r="U25" s="18">
         <v>0.47</v>
       </c>
-      <c r="P25" s="18">
+      <c r="V25" s="18">
         <v>0.93</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="W25" s="18">
         <v>-0.46</v>
       </c>
-      <c r="R25" s="18">
+      <c r="X25" s="18">
         <v>-1.07148848626068</v>
       </c>
-      <c r="S25" s="18">
+      <c r="Y25" s="18">
         <v>32.14</v>
       </c>
-      <c r="T25" s="18">
+      <c r="Z25" s="18">
         <v>89.90000000000001</v>
       </c>
-      <c r="U25" s="18">
+      <c r="AA25" s="18">
         <v>98.64</v>
       </c>
-      <c r="V25" s="18">
+      <c r="AB25" s="18">
         <v>-8.74</v>
       </c>
-      <c r="W25" s="18">
+      <c r="AC25" s="18">
         <v>-2.16890325055202</v>
       </c>
-      <c r="X25" s="18">
+      <c r="AD25" s="18">
         <v>13.85</v>
       </c>
-      <c r="Y25" s="18">
+      <c r="AE25" s="18">
         <v>0.5</v>
       </c>
-      <c r="Z25" s="18">
+      <c r="AF25" s="18">
         <v>0.26</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AG25" s="18">
         <v>0.24</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AH25" s="18">
         <v>0.906892156291948</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AI25" s="18">
         <v>65.11</v>
-      </c>
-      <c r="AD25" s="18">
-        <v>38.02</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -4091,91 +4478,106 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="15">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s" s="16">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" s="17">
         <v>2022</v>
       </c>
       <c r="E26" s="18">
+        <v>55.63</v>
+      </c>
+      <c r="F26" s="18">
+        <v>64.38</v>
+      </c>
+      <c r="G26" s="18">
+        <v>28.82</v>
+      </c>
+      <c r="H26" s="18">
+        <v>55.34</v>
+      </c>
+      <c r="I26" s="18">
+        <v>51.16</v>
+      </c>
+      <c r="J26" s="18">
+        <v>78.45</v>
+      </c>
+      <c r="K26" s="18">
         <v>1.71</v>
       </c>
-      <c r="F26" s="18">
+      <c r="L26" s="18">
         <v>0.01</v>
       </c>
-      <c r="G26" s="18">
+      <c r="M26" s="18">
         <v>1.7</v>
       </c>
-      <c r="H26" s="18">
+      <c r="N26" s="18">
         <v>-1.27075020308724</v>
       </c>
-      <c r="I26" s="18">
+      <c r="O26" s="18">
         <v>28.82</v>
       </c>
-      <c r="J26" s="18">
+      <c r="P26" s="18">
         <v>5.32</v>
       </c>
-      <c r="K26" s="18">
+      <c r="Q26" s="18">
         <v>1.15</v>
       </c>
-      <c r="L26" s="18">
+      <c r="R26" s="18">
         <v>4.17</v>
       </c>
-      <c r="M26" s="18">
+      <c r="S26" s="18">
         <v>0.320568599566103</v>
       </c>
-      <c r="N26" s="18">
+      <c r="T26" s="18">
         <v>55.34</v>
       </c>
-      <c r="O26" s="18">
+      <c r="U26" s="18">
         <v>0.2</v>
       </c>
-      <c r="P26" s="18">
+      <c r="V26" s="18">
         <v>1.17</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="W26" s="18">
         <v>-0.97</v>
       </c>
-      <c r="R26" s="18">
+      <c r="X26" s="18">
         <v>0.0697112991061167</v>
       </c>
-      <c r="S26" s="18">
+      <c r="Y26" s="18">
         <v>51.16</v>
       </c>
-      <c r="T26" s="18">
+      <c r="Z26" s="18">
         <v>93.83</v>
       </c>
-      <c r="U26" s="18">
+      <c r="AA26" s="18">
         <v>97.45</v>
       </c>
-      <c r="V26" s="18">
+      <c r="AB26" s="18">
         <v>-3.62</v>
       </c>
-      <c r="W26" s="18">
+      <c r="AC26" s="18">
         <v>0.86280148734355</v>
       </c>
-      <c r="X26" s="18">
+      <c r="AD26" s="18">
         <v>64.38</v>
       </c>
-      <c r="Y26" s="18">
+      <c r="AE26" s="18">
         <v>1.08</v>
       </c>
-      <c r="Z26" s="18">
+      <c r="AF26" s="18">
         <v>1.07</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AG26" s="18">
         <v>0.01</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AH26" s="18">
         <v>1.70677638853765</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AI26" s="18">
         <v>78.45</v>
-      </c>
-      <c r="AD26" s="18">
-        <v>55.63</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -4183,91 +4585,106 @@
         <v>29</v>
       </c>
       <c r="B27" t="s" s="15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s" s="16">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D27" s="17">
         <v>2022</v>
       </c>
       <c r="E27" s="18">
+        <v>41.72</v>
+      </c>
+      <c r="F27" s="18">
+        <v>46.81</v>
+      </c>
+      <c r="G27" s="18">
+        <v>19.59</v>
+      </c>
+      <c r="H27" s="18">
+        <v>38.57</v>
+      </c>
+      <c r="I27" s="18">
+        <v>48.92</v>
+      </c>
+      <c r="J27" s="18">
+        <v>54.68</v>
+      </c>
+      <c r="K27" s="18">
         <v>1.93</v>
       </c>
-      <c r="F27" s="18">
+      <c r="L27" s="18">
         <v>0.02</v>
       </c>
-      <c r="G27" s="18">
+      <c r="M27" s="18">
         <v>1.91</v>
       </c>
-      <c r="H27" s="18">
+      <c r="N27" s="18">
         <v>-1.82470598024145</v>
       </c>
-      <c r="I27" s="18">
+      <c r="O27" s="18">
         <v>19.59</v>
       </c>
-      <c r="J27" s="18">
+      <c r="P27" s="18">
         <v>6.23</v>
       </c>
-      <c r="K27" s="18">
+      <c r="Q27" s="18">
         <v>0.57</v>
       </c>
-      <c r="L27" s="18">
+      <c r="R27" s="18">
         <v>5.66</v>
       </c>
-      <c r="M27" s="18">
+      <c r="S27" s="18">
         <v>-0.685819370222458</v>
       </c>
-      <c r="N27" s="18">
+      <c r="T27" s="18">
         <v>38.57</v>
       </c>
-      <c r="O27" s="18">
+      <c r="U27" s="18">
         <v>0.22</v>
       </c>
-      <c r="P27" s="18">
+      <c r="V27" s="18">
         <v>1.13</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="W27" s="18">
         <v>-0.91</v>
       </c>
-      <c r="R27" s="18">
+      <c r="X27" s="18">
         <v>-0.0645474991723297</v>
       </c>
-      <c r="S27" s="18">
+      <c r="Y27" s="18">
         <v>48.92</v>
       </c>
-      <c r="T27" s="18">
+      <c r="Z27" s="18">
         <v>92.7</v>
       </c>
-      <c r="U27" s="18">
+      <c r="AA27" s="18">
         <v>98.09999999999999</v>
       </c>
-      <c r="V27" s="18">
+      <c r="AB27" s="18">
         <v>-5.39999999999999</v>
       </c>
-      <c r="W27" s="18">
+      <c r="AC27" s="18">
         <v>-0.19118961294045</v>
       </c>
-      <c r="X27" s="18">
+      <c r="AD27" s="18">
         <v>46.81</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="AE27" s="18">
         <v>0.93</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="AF27" s="18">
         <v>0.51</v>
       </c>
-      <c r="AA27" s="18">
+      <c r="AG27" s="18">
         <v>0.42</v>
       </c>
-      <c r="AB27" s="18">
+      <c r="AH27" s="18">
         <v>0.280895800621399</v>
       </c>
-      <c r="AC27" s="18">
+      <c r="AI27" s="18">
         <v>54.68</v>
-      </c>
-      <c r="AD27" s="18">
-        <v>41.72</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -4275,91 +4692,106 @@
         <v>30</v>
       </c>
       <c r="B28" t="s" s="15">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s" s="16">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="17">
         <v>2022</v>
       </c>
       <c r="E28" s="18">
+        <v>48.87</v>
+      </c>
+      <c r="F28" s="18">
+        <v>46.52</v>
+      </c>
+      <c r="G28" s="18">
+        <v>50.36</v>
+      </c>
+      <c r="H28" s="18">
+        <v>49.71</v>
+      </c>
+      <c r="I28" s="18">
+        <v>44.82</v>
+      </c>
+      <c r="J28" s="18">
+        <v>52.94</v>
+      </c>
+      <c r="K28" s="18">
         <v>1.21</v>
       </c>
-      <c r="F28" s="18">
+      <c r="L28" s="18">
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="M28" s="18">
         <v>1.21</v>
       </c>
-      <c r="H28" s="18">
+      <c r="N28" s="18">
         <v>0.0218132769392226</v>
       </c>
-      <c r="I28" s="18">
+      <c r="O28" s="18">
         <v>50.36</v>
       </c>
-      <c r="J28" s="18">
+      <c r="P28" s="18">
         <v>5.22</v>
       </c>
-      <c r="K28" s="18">
+      <c r="Q28" s="18">
         <v>0.55</v>
       </c>
-      <c r="L28" s="18">
+      <c r="R28" s="18">
         <v>4.67</v>
       </c>
-      <c r="M28" s="18">
+      <c r="S28" s="18">
         <v>-0.0171454842555619</v>
       </c>
-      <c r="N28" s="18">
+      <c r="T28" s="18">
         <v>49.71</v>
       </c>
-      <c r="O28" s="18">
+      <c r="U28" s="18">
         <v>0.35</v>
       </c>
-      <c r="P28" s="18">
+      <c r="V28" s="18">
         <v>1.15</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="W28" s="18">
         <v>-0.8</v>
       </c>
-      <c r="R28" s="18">
+      <c r="X28" s="18">
         <v>-0.310688629349481</v>
       </c>
-      <c r="S28" s="18">
+      <c r="Y28" s="18">
         <v>44.82</v>
       </c>
-      <c r="T28" s="18">
+      <c r="Z28" s="18">
         <v>92.68000000000001</v>
       </c>
-      <c r="U28" s="18">
+      <c r="AA28" s="18">
         <v>98.11</v>
       </c>
-      <c r="V28" s="18">
+      <c r="AB28" s="18">
         <v>-5.42999999999999</v>
       </c>
-      <c r="W28" s="18">
+      <c r="AC28" s="18">
         <v>-0.208953507889058</v>
       </c>
-      <c r="X28" s="18">
+      <c r="AD28" s="18">
         <v>46.52</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="AE28" s="18">
         <v>0.91</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="AF28" s="18">
         <v>0.46</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AG28" s="18">
         <v>0.45</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AH28" s="18">
         <v>0.176563074676308</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AI28" s="18">
         <v>52.94</v>
-      </c>
-      <c r="AD28" s="18">
-        <v>48.87</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -4367,91 +4799,106 @@
         <v>31</v>
       </c>
       <c r="B29" t="s" s="15">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s" s="16">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D29" s="17">
         <v>2022</v>
       </c>
       <c r="E29" s="18">
+        <v>45.95</v>
+      </c>
+      <c r="F29" s="18">
+        <v>44.84</v>
+      </c>
+      <c r="G29" s="18">
+        <v>32.34</v>
+      </c>
+      <c r="H29" s="18">
+        <v>38.57</v>
+      </c>
+      <c r="I29" s="18">
+        <v>50.04</v>
+      </c>
+      <c r="J29" s="18">
+        <v>63.96</v>
+      </c>
+      <c r="K29" s="18">
         <v>1.63</v>
       </c>
-      <c r="F29" s="18">
+      <c r="L29" s="18">
         <v>0.01</v>
       </c>
-      <c r="G29" s="18">
+      <c r="M29" s="18">
         <v>1.62</v>
       </c>
-      <c r="H29" s="18">
+      <c r="N29" s="18">
         <v>-1.05971943083803</v>
       </c>
-      <c r="I29" s="18">
+      <c r="O29" s="18">
         <v>32.34</v>
       </c>
-      <c r="J29" s="18">
+      <c r="P29" s="18">
         <v>6.14</v>
       </c>
-      <c r="K29" s="18">
+      <c r="Q29" s="18">
         <v>0.48</v>
       </c>
-      <c r="L29" s="18">
+      <c r="R29" s="18">
         <v>5.66</v>
       </c>
-      <c r="M29" s="18">
+      <c r="S29" s="18">
         <v>-0.685819370222458</v>
       </c>
-      <c r="N29" s="18">
+      <c r="T29" s="18">
         <v>38.57</v>
       </c>
-      <c r="O29" s="18">
+      <c r="U29" s="18">
         <v>0.2</v>
       </c>
-      <c r="P29" s="18">
+      <c r="V29" s="18">
         <v>1.14</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="W29" s="18">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="R29" s="18">
+      <c r="X29" s="18">
         <v>0.0025818999668934</v>
       </c>
-      <c r="S29" s="18">
+      <c r="Y29" s="18">
         <v>50.04</v>
       </c>
-      <c r="T29" s="18">
+      <c r="Z29" s="18">
         <v>92.62</v>
       </c>
-      <c r="U29" s="18">
+      <c r="AA29" s="18">
         <v>98.22</v>
       </c>
-      <c r="V29" s="18">
+      <c r="AB29" s="18">
         <v>-5.59999999999999</v>
       </c>
-      <c r="W29" s="18">
+      <c r="AC29" s="18">
         <v>-0.309615579264498</v>
       </c>
-      <c r="X29" s="18">
+      <c r="AD29" s="18">
         <v>44.84</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="AE29" s="18">
         <v>0.67</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="AF29" s="18">
         <v>0.41</v>
       </c>
-      <c r="AA29" s="18">
+      <c r="AG29" s="18">
         <v>0.26</v>
       </c>
-      <c r="AB29" s="18">
+      <c r="AH29" s="18">
         <v>0.837337005661887</v>
       </c>
-      <c r="AC29" s="18">
+      <c r="AI29" s="18">
         <v>63.96</v>
-      </c>
-      <c r="AD29" s="18">
-        <v>45.95</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -4459,91 +4906,106 @@
         <v>32</v>
       </c>
       <c r="B30" t="s" s="15">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s" s="16">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D30" s="17">
         <v>2022</v>
       </c>
       <c r="E30" s="18">
+        <v>52.69</v>
+      </c>
+      <c r="F30" s="18">
+        <v>73.36</v>
+      </c>
+      <c r="G30" s="18">
+        <v>69.70999999999999</v>
+      </c>
+      <c r="H30" s="18">
+        <v>75.83</v>
+      </c>
+      <c r="I30" s="18">
+        <v>20.58</v>
+      </c>
+      <c r="J30" s="18">
+        <v>23.96</v>
+      </c>
+      <c r="K30" s="18">
         <v>0.77</v>
       </c>
-      <c r="F30" s="18">
+      <c r="L30" s="18">
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="M30" s="18">
         <v>0.77</v>
       </c>
-      <c r="H30" s="18">
+      <c r="N30" s="18">
         <v>1.18248252430993</v>
       </c>
-      <c r="I30" s="18">
+      <c r="O30" s="18">
         <v>69.70999999999999</v>
       </c>
-      <c r="J30" s="18">
+      <c r="P30" s="18">
         <v>2.88</v>
       </c>
-      <c r="K30" s="18">
+      <c r="Q30" s="18">
         <v>0.53</v>
       </c>
-      <c r="L30" s="18">
+      <c r="R30" s="18">
         <v>2.35</v>
       </c>
-      <c r="M30" s="18">
+      <c r="S30" s="18">
         <v>1.54984786467696</v>
       </c>
-      <c r="N30" s="18">
+      <c r="T30" s="18">
         <v>75.83</v>
       </c>
-      <c r="O30" s="18">
+      <c r="U30" s="18">
         <v>0.1</v>
       </c>
-      <c r="P30" s="18">
+      <c r="V30" s="18">
         <v>0.25</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="W30" s="18">
         <v>-0.15</v>
       </c>
-      <c r="R30" s="18">
+      <c r="X30" s="18">
         <v>-1.76515894403265</v>
       </c>
-      <c r="S30" s="18">
+      <c r="Y30" s="18">
         <v>20.58</v>
       </c>
-      <c r="T30" s="18">
+      <c r="Z30" s="18">
         <v>96.47</v>
       </c>
-      <c r="U30" s="18">
+      <c r="AA30" s="18">
         <v>99.18000000000001</v>
       </c>
-      <c r="V30" s="18">
+      <c r="AB30" s="18">
         <v>-2.71000000000001</v>
       </c>
-      <c r="W30" s="18">
+      <c r="AC30" s="18">
         <v>1.40163963411796</v>
       </c>
-      <c r="X30" s="18">
+      <c r="AD30" s="18">
         <v>73.36</v>
       </c>
-      <c r="Y30" s="18">
+      <c r="AE30" s="18">
         <v>1.44</v>
       </c>
-      <c r="Z30" s="18">
+      <c r="AF30" s="18">
         <v>0.49</v>
       </c>
-      <c r="AA30" s="18">
+      <c r="AG30" s="18">
         <v>0.95</v>
       </c>
-      <c r="AB30" s="18">
+      <c r="AH30" s="18">
         <v>-1.56231569107522</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AI30" s="18">
         <v>23.96</v>
-      </c>
-      <c r="AD30" s="18">
-        <v>52.69</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -4551,91 +5013,106 @@
         <v>33</v>
       </c>
       <c r="B31" t="s" s="15">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s" s="16">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D31" s="17">
         <v>2022</v>
       </c>
       <c r="E31" s="18">
+        <v>51.78</v>
+      </c>
+      <c r="F31" s="18">
+        <v>40.99</v>
+      </c>
+      <c r="G31" s="18">
+        <v>60.92</v>
+      </c>
+      <c r="H31" s="18">
+        <v>38.91</v>
+      </c>
+      <c r="I31" s="18">
+        <v>60.49</v>
+      </c>
+      <c r="J31" s="18">
+        <v>57.58</v>
+      </c>
+      <c r="K31" s="18">
         <v>0.98</v>
       </c>
-      <c r="F31" s="18">
+      <c r="L31" s="18">
         <v>0.01</v>
       </c>
-      <c r="G31" s="18">
+      <c r="M31" s="18">
         <v>0.97</v>
       </c>
-      <c r="H31" s="18">
+      <c r="N31" s="18">
         <v>0.6549055936868799</v>
       </c>
-      <c r="I31" s="18">
+      <c r="O31" s="18">
         <v>60.92</v>
       </c>
-      <c r="J31" s="18">
+      <c r="P31" s="18">
         <v>5.96</v>
       </c>
-      <c r="K31" s="18">
+      <c r="Q31" s="18">
         <v>0.33</v>
       </c>
-      <c r="L31" s="18">
+      <c r="R31" s="18">
         <v>5.63</v>
       </c>
-      <c r="M31" s="18">
+      <c r="S31" s="18">
         <v>-0.665556525193158</v>
       </c>
-      <c r="N31" s="18">
+      <c r="T31" s="18">
         <v>38.91</v>
       </c>
-      <c r="O31" s="18">
+      <c r="U31" s="18">
         <v>0.34</v>
       </c>
-      <c r="P31" s="18">
+      <c r="V31" s="18">
         <v>1.56</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="W31" s="18">
         <v>-1.22</v>
       </c>
-      <c r="R31" s="18">
+      <c r="X31" s="18">
         <v>0.629122958599643</v>
       </c>
-      <c r="S31" s="18">
+      <c r="Y31" s="18">
         <v>60.49</v>
       </c>
-      <c r="T31" s="18">
+      <c r="Z31" s="18">
         <v>91.88</v>
       </c>
-      <c r="U31" s="18">
+      <c r="AA31" s="18">
         <v>97.87</v>
       </c>
-      <c r="V31" s="18">
+      <c r="AB31" s="18">
         <v>-5.99000000000001</v>
       </c>
-      <c r="W31" s="18">
+      <c r="AC31" s="18">
         <v>-0.540546213596396</v>
       </c>
-      <c r="X31" s="18">
+      <c r="AD31" s="18">
         <v>40.99</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="AE31" s="18">
         <v>0.65</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="AF31" s="18">
         <v>0.28</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AG31" s="18">
         <v>0.37</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AH31" s="18">
         <v>0.454783677196552</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AI31" s="18">
         <v>57.58</v>
-      </c>
-      <c r="AD31" s="18">
-        <v>51.78</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -4643,91 +5120,106 @@
         <v>34</v>
       </c>
       <c r="B32" t="s" s="15">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s" s="16">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D32" s="17">
         <v>2022</v>
       </c>
       <c r="E32" s="18">
+        <v>51.12</v>
+      </c>
+      <c r="F32" s="18">
+        <v>48.89</v>
+      </c>
+      <c r="G32" s="18">
+        <v>35.42</v>
+      </c>
+      <c r="H32" s="18">
+        <v>51.63</v>
+      </c>
+      <c r="I32" s="18">
+        <v>37.74</v>
+      </c>
+      <c r="J32" s="18">
+        <v>81.92</v>
+      </c>
+      <c r="K32" s="18">
         <v>1.57</v>
       </c>
-      <c r="F32" s="18">
+      <c r="L32" s="18">
         <v>0.02</v>
       </c>
-      <c r="G32" s="18">
+      <c r="M32" s="18">
         <v>1.55</v>
       </c>
-      <c r="H32" s="18">
+      <c r="N32" s="18">
         <v>-0.875067505119959</v>
       </c>
-      <c r="I32" s="18">
+      <c r="O32" s="18">
         <v>35.42</v>
       </c>
-      <c r="J32" s="18">
+      <c r="P32" s="18">
         <v>4.94</v>
       </c>
-      <c r="K32" s="18">
+      <c r="Q32" s="18">
         <v>0.44</v>
       </c>
-      <c r="L32" s="18">
+      <c r="R32" s="18">
         <v>4.5</v>
       </c>
-      <c r="M32" s="18">
+      <c r="S32" s="18">
         <v>0.09767730424380409</v>
       </c>
-      <c r="N32" s="18">
+      <c r="T32" s="18">
         <v>51.63</v>
       </c>
-      <c r="O32" s="18">
+      <c r="U32" s="18">
         <v>0.2</v>
       </c>
-      <c r="P32" s="18">
+      <c r="V32" s="18">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="W32" s="18">
         <v>-0.61</v>
       </c>
-      <c r="R32" s="18">
+      <c r="X32" s="18">
         <v>-0.7358414905645601</v>
       </c>
-      <c r="S32" s="18">
+      <c r="Y32" s="18">
         <v>37.74</v>
       </c>
-      <c r="T32" s="18">
+      <c r="Z32" s="18">
         <v>93.47</v>
       </c>
-      <c r="U32" s="18">
+      <c r="AA32" s="18">
         <v>98.66</v>
       </c>
-      <c r="V32" s="18">
+      <c r="AB32" s="18">
         <v>-5.19</v>
       </c>
-      <c r="W32" s="18">
+      <c r="AC32" s="18">
         <v>-0.0668423483002057</v>
       </c>
-      <c r="X32" s="18">
+      <c r="AD32" s="18">
         <v>48.89</v>
       </c>
-      <c r="Y32" s="18">
+      <c r="AE32" s="18">
         <v>0.34</v>
       </c>
-      <c r="Z32" s="18">
+      <c r="AF32" s="18">
         <v>0.39</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AG32" s="18">
         <v>-0.05</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AH32" s="18">
         <v>1.91544184042783</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AI32" s="18">
         <v>81.92</v>
-      </c>
-      <c r="AD32" s="18">
-        <v>51.12</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -4735,91 +5227,106 @@
         <v>35</v>
       </c>
       <c r="B33" t="s" s="15">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s" s="16">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D33" s="17">
         <v>2022</v>
       </c>
       <c r="E33" s="18">
+        <v>53.11</v>
+      </c>
+      <c r="F33" s="18">
+        <v>67.64</v>
+      </c>
+      <c r="G33" s="18">
+        <v>69.27</v>
+      </c>
+      <c r="H33" s="18">
+        <v>71.22</v>
+      </c>
+      <c r="I33" s="18">
+        <v>32.89</v>
+      </c>
+      <c r="J33" s="18">
+        <v>24.54</v>
+      </c>
+      <c r="K33" s="18">
         <v>0.79</v>
       </c>
-      <c r="F33" s="18">
+      <c r="L33" s="18">
         <v>0.01</v>
       </c>
-      <c r="G33" s="18">
+      <c r="M33" s="18">
         <v>0.78</v>
       </c>
-      <c r="H33" s="18">
+      <c r="N33" s="18">
         <v>1.15610367777878</v>
       </c>
-      <c r="I33" s="18">
+      <c r="O33" s="18">
         <v>69.27</v>
       </c>
-      <c r="J33" s="18">
+      <c r="P33" s="18">
         <v>3.38</v>
       </c>
-      <c r="K33" s="18">
+      <c r="Q33" s="18">
         <v>0.62</v>
       </c>
-      <c r="L33" s="18">
+      <c r="R33" s="18">
         <v>2.76</v>
       </c>
-      <c r="M33" s="18">
+      <c r="S33" s="18">
         <v>1.2729223159432</v>
       </c>
-      <c r="N33" s="18">
+      <c r="T33" s="18">
         <v>71.22</v>
       </c>
-      <c r="O33" s="18">
+      <c r="U33" s="18">
         <v>0.25</v>
       </c>
-      <c r="P33" s="18">
+      <c r="V33" s="18">
         <v>0.73</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="W33" s="18">
         <v>-0.48</v>
       </c>
-      <c r="R33" s="18">
+      <c r="X33" s="18">
         <v>-1.02673555350119</v>
       </c>
-      <c r="S33" s="18">
+      <c r="Y33" s="18">
         <v>32.89</v>
       </c>
-      <c r="T33" s="18">
+      <c r="Z33" s="18">
         <v>95.23</v>
       </c>
-      <c r="U33" s="18">
+      <c r="AA33" s="18">
         <v>98.52</v>
       </c>
-      <c r="V33" s="18">
+      <c r="AB33" s="18">
         <v>-3.28999999999999</v>
       </c>
-      <c r="W33" s="18">
+      <c r="AC33" s="18">
         <v>1.05820433177823</v>
       </c>
-      <c r="X33" s="18">
+      <c r="AD33" s="18">
         <v>67.64</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="AE33" s="18">
         <v>1.49</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="AF33" s="18">
         <v>0.55</v>
       </c>
-      <c r="AA33" s="18">
+      <c r="AG33" s="18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AH33" s="18">
         <v>-1.52753811576019</v>
       </c>
-      <c r="AC33" s="18">
+      <c r="AI33" s="18">
         <v>24.54</v>
-      </c>
-      <c r="AD33" s="18">
-        <v>53.11</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -4827,91 +5334,106 @@
         <v>36</v>
       </c>
       <c r="B34" t="s" s="15">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s" s="16">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D34" s="17">
         <v>2022</v>
       </c>
       <c r="E34" s="18">
+        <v>52.82</v>
+      </c>
+      <c r="F34" s="18">
+        <v>38.13</v>
+      </c>
+      <c r="G34" s="18">
+        <v>42.89</v>
+      </c>
+      <c r="H34" s="18">
+        <v>49.49</v>
+      </c>
+      <c r="I34" s="18">
+        <v>58.62</v>
+      </c>
+      <c r="J34" s="18">
+        <v>74.97</v>
+      </c>
+      <c r="K34" s="18">
         <v>1.39</v>
       </c>
-      <c r="F34" s="18">
+      <c r="L34" s="18">
         <v>0.01</v>
       </c>
-      <c r="G34" s="18">
+      <c r="M34" s="18">
         <v>1.38</v>
       </c>
-      <c r="H34" s="18">
+      <c r="N34" s="18">
         <v>-0.426627114090368</v>
       </c>
-      <c r="I34" s="18">
+      <c r="O34" s="18">
         <v>42.89</v>
       </c>
-      <c r="J34" s="18">
+      <c r="P34" s="18">
         <v>5.03</v>
       </c>
-      <c r="K34" s="18">
+      <c r="Q34" s="18">
         <v>0.34</v>
       </c>
-      <c r="L34" s="18">
+      <c r="R34" s="18">
         <v>4.69</v>
       </c>
-      <c r="M34" s="18">
+      <c r="S34" s="18">
         <v>-0.0306540476084288</v>
       </c>
-      <c r="N34" s="18">
+      <c r="T34" s="18">
         <v>49.49</v>
       </c>
-      <c r="O34" s="18">
+      <c r="U34" s="18">
         <v>0.46</v>
       </c>
-      <c r="P34" s="18">
+      <c r="V34" s="18">
         <v>1.63</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="W34" s="18">
         <v>-1.17</v>
       </c>
-      <c r="R34" s="18">
+      <c r="X34" s="18">
         <v>0.517240626700937</v>
       </c>
-      <c r="S34" s="18">
+      <c r="Y34" s="18">
         <v>58.62</v>
       </c>
-      <c r="T34" s="18">
+      <c r="Z34" s="18">
         <v>91.53</v>
       </c>
-      <c r="U34" s="18">
+      <c r="AA34" s="18">
         <v>97.81</v>
       </c>
-      <c r="V34" s="18">
+      <c r="AB34" s="18">
         <v>-6.28</v>
       </c>
-      <c r="W34" s="18">
+      <c r="AC34" s="18">
         <v>-0.712263864766258</v>
       </c>
-      <c r="X34" s="18">
+      <c r="AD34" s="18">
         <v>38.13</v>
       </c>
-      <c r="Y34" s="18">
+      <c r="AE34" s="18">
         <v>0.37</v>
       </c>
-      <c r="Z34" s="18">
+      <c r="AF34" s="18">
         <v>0.3</v>
       </c>
-      <c r="AA34" s="18">
+      <c r="AG34" s="18">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AB34" s="18">
+      <c r="AH34" s="18">
         <v>1.49811093664747</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AI34" s="18">
         <v>74.97</v>
-      </c>
-      <c r="AD34" s="18">
-        <v>52.82</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -4919,91 +5441,106 @@
         <v>37</v>
       </c>
       <c r="B35" t="s" s="15">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s" s="16">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D35" s="17">
         <v>2022</v>
       </c>
       <c r="E35" s="18">
+        <v>55.03</v>
+      </c>
+      <c r="F35" s="18">
+        <v>60.33</v>
+      </c>
+      <c r="G35" s="18">
+        <v>55.2</v>
+      </c>
+      <c r="H35" s="18">
+        <v>56.47</v>
+      </c>
+      <c r="I35" s="18">
+        <v>56.01</v>
+      </c>
+      <c r="J35" s="18">
+        <v>47.15</v>
+      </c>
+      <c r="K35" s="18">
         <v>1.1</v>
       </c>
-      <c r="F35" s="18">
+      <c r="L35" s="18">
         <v>0</v>
       </c>
-      <c r="G35" s="18">
+      <c r="M35" s="18">
         <v>1.1</v>
       </c>
-      <c r="H35" s="18">
+      <c r="N35" s="18">
         <v>0.311980588781899</v>
       </c>
-      <c r="I35" s="18">
+      <c r="O35" s="18">
         <v>55.2</v>
       </c>
-      <c r="J35" s="18">
+      <c r="P35" s="18">
         <v>4.61</v>
       </c>
-      <c r="K35" s="18">
+      <c r="Q35" s="18">
         <v>0.54</v>
       </c>
-      <c r="L35" s="18">
+      <c r="R35" s="18">
         <v>4.07</v>
       </c>
-      <c r="M35" s="18">
+      <c r="S35" s="18">
         <v>0.388111416330436</v>
       </c>
-      <c r="N35" s="18">
+      <c r="T35" s="18">
         <v>56.47</v>
       </c>
-      <c r="O35" s="18">
+      <c r="U35" s="18">
         <v>0.24</v>
       </c>
-      <c r="P35" s="18">
+      <c r="V35" s="18">
         <v>1.34</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="W35" s="18">
         <v>-1.1</v>
       </c>
-      <c r="R35" s="18">
+      <c r="X35" s="18">
         <v>0.36060536204275</v>
       </c>
-      <c r="S35" s="18">
+      <c r="Y35" s="18">
         <v>56.01</v>
       </c>
-      <c r="T35" s="18">
+      <c r="Z35" s="18">
         <v>93.88</v>
       </c>
-      <c r="U35" s="18">
+      <c r="AA35" s="18">
         <v>97.91</v>
       </c>
-      <c r="V35" s="18">
+      <c r="AB35" s="18">
         <v>-4.03</v>
       </c>
-      <c r="W35" s="18">
+      <c r="AC35" s="18">
         <v>0.620028256379258</v>
       </c>
-      <c r="X35" s="18">
+      <c r="AD35" s="18">
         <v>60.33</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="AE35" s="18">
         <v>1.04</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="AF35" s="18">
         <v>0.49</v>
       </c>
-      <c r="AA35" s="18">
+      <c r="AG35" s="18">
         <v>0.55</v>
       </c>
-      <c r="AB35" s="18">
+      <c r="AH35" s="18">
         <v>-0.171212678473997</v>
       </c>
-      <c r="AC35" s="18">
+      <c r="AI35" s="18">
         <v>47.15</v>
-      </c>
-      <c r="AD35" s="18">
-        <v>55.03</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -5011,91 +5548,106 @@
         <v>38</v>
       </c>
       <c r="B36" t="s" s="15">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s" s="16">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D36" s="17">
         <v>2022</v>
       </c>
       <c r="E36" s="18">
+        <v>26.68</v>
+      </c>
+      <c r="F36" s="18">
+        <v>6.84</v>
+      </c>
+      <c r="G36" s="18">
+        <v>20.47</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>70.55</v>
+      </c>
+      <c r="J36" s="18">
+        <v>35.55</v>
+      </c>
+      <c r="K36" s="18">
         <v>1.9</v>
       </c>
-      <c r="F36" s="18">
+      <c r="L36" s="18">
         <v>0.01</v>
       </c>
-      <c r="G36" s="18">
+      <c r="M36" s="18">
         <v>1.89</v>
       </c>
-      <c r="H36" s="18">
+      <c r="N36" s="18">
         <v>-1.77194828717914</v>
       </c>
-      <c r="I36" s="18">
+      <c r="O36" s="18">
         <v>20.47</v>
       </c>
-      <c r="J36" s="18">
+      <c r="P36" s="18">
         <v>10.08</v>
       </c>
-      <c r="K36" s="18">
+      <c r="Q36" s="18">
         <v>0.27</v>
       </c>
-      <c r="L36" s="18">
+      <c r="R36" s="18">
         <v>9.81</v>
       </c>
-      <c r="M36" s="18">
+      <c r="S36" s="18">
         <v>-3</v>
       </c>
-      <c r="N36" s="18">
+      <c r="T36" s="18">
         <v>0</v>
       </c>
-      <c r="O36" s="18">
+      <c r="U36" s="18">
         <v>0.33</v>
       </c>
-      <c r="P36" s="18">
+      <c r="V36" s="18">
         <v>1.82</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="W36" s="18">
         <v>-1.49</v>
       </c>
-      <c r="R36" s="18">
+      <c r="X36" s="18">
         <v>1.23328755085265</v>
       </c>
-      <c r="S36" s="18">
+      <c r="Y36" s="18">
         <v>70.55</v>
       </c>
-      <c r="T36" s="18">
+      <c r="Z36" s="18">
         <v>88.2</v>
       </c>
-      <c r="U36" s="18">
+      <c r="AA36" s="18">
         <v>97.65000000000001</v>
       </c>
-      <c r="V36" s="18">
+      <c r="AB36" s="18">
         <v>-9.449999999999999</v>
       </c>
-      <c r="W36" s="18">
+      <c r="AC36" s="18">
         <v>-2.58931543100239</v>
       </c>
-      <c r="X36" s="18">
+      <c r="AD36" s="18">
         <v>6.84</v>
       </c>
-      <c r="Y36" s="18">
+      <c r="AE36" s="18">
         <v>1</v>
       </c>
-      <c r="Z36" s="18">
+      <c r="AF36" s="18">
         <v>0.25</v>
       </c>
-      <c r="AA36" s="18">
+      <c r="AG36" s="18">
         <v>0.75</v>
       </c>
-      <c r="AB36" s="18">
+      <c r="AH36" s="18">
         <v>-0.866764184774606</v>
       </c>
-      <c r="AC36" s="18">
+      <c r="AI36" s="18">
         <v>35.55</v>
-      </c>
-      <c r="AD36" s="18">
-        <v>26.68</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -5103,91 +5655,106 @@
         <v>39</v>
       </c>
       <c r="B37" t="s" s="15">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s" s="16">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D37" s="17">
         <v>2022</v>
       </c>
       <c r="E37" s="18">
+        <v>40.23</v>
+      </c>
+      <c r="F37" s="18">
+        <v>43.46</v>
+      </c>
+      <c r="G37" s="18">
+        <v>26.18</v>
+      </c>
+      <c r="H37" s="18">
+        <v>39.58</v>
+      </c>
+      <c r="I37" s="18">
+        <v>40.72</v>
+      </c>
+      <c r="J37" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="K37" s="18">
         <v>1.78</v>
       </c>
-      <c r="F37" s="18">
+      <c r="L37" s="18">
         <v>0.02</v>
       </c>
-      <c r="G37" s="18">
+      <c r="M37" s="18">
         <v>1.76</v>
       </c>
-      <c r="H37" s="18">
+      <c r="N37" s="18">
         <v>-1.42902328227416</v>
       </c>
-      <c r="I37" s="18">
+      <c r="O37" s="18">
         <v>26.18</v>
       </c>
-      <c r="J37" s="18">
+      <c r="P37" s="18">
         <v>6.13</v>
       </c>
-      <c r="K37" s="18">
+      <c r="Q37" s="18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L37" s="18">
+      <c r="R37" s="18">
         <v>5.57</v>
       </c>
-      <c r="M37" s="18">
+      <c r="S37" s="18">
         <v>-0.625030835134559</v>
       </c>
-      <c r="N37" s="18">
+      <c r="T37" s="18">
         <v>39.58</v>
       </c>
-      <c r="O37" s="18">
+      <c r="U37" s="18">
         <v>0.24</v>
       </c>
-      <c r="P37" s="18">
+      <c r="V37" s="18">
         <v>0.93</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="W37" s="18">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="R37" s="18">
+      <c r="X37" s="18">
         <v>-0.5568297595266321</v>
       </c>
-      <c r="S37" s="18">
+      <c r="Y37" s="18">
         <v>40.72</v>
       </c>
-      <c r="T37" s="18">
+      <c r="Z37" s="18">
         <v>92.61</v>
       </c>
-      <c r="U37" s="18">
+      <c r="AA37" s="18">
         <v>98.34999999999999</v>
       </c>
-      <c r="V37" s="18">
+      <c r="AB37" s="18">
         <v>-5.74</v>
       </c>
-      <c r="W37" s="18">
+      <c r="AC37" s="18">
         <v>-0.39251375569133</v>
       </c>
-      <c r="X37" s="18">
+      <c r="AD37" s="18">
         <v>43.46</v>
       </c>
-      <c r="Y37" s="18">
+      <c r="AE37" s="18">
         <v>0.98</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="AF37" s="18">
         <v>0.5</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AG37" s="18">
         <v>0.48</v>
       </c>
-      <c r="AB37" s="18">
+      <c r="AH37" s="18">
         <v>0.0722303487312167</v>
       </c>
-      <c r="AC37" s="18">
+      <c r="AI37" s="18">
         <v>51.2</v>
-      </c>
-      <c r="AD37" s="18">
-        <v>40.23</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -5195,91 +5762,106 @@
         <v>40</v>
       </c>
       <c r="B38" t="s" s="15">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s" s="16">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D38" s="17">
         <v>2022</v>
       </c>
       <c r="E38" s="18">
+        <v>48.12</v>
+      </c>
+      <c r="F38" s="18">
+        <v>59.84</v>
+      </c>
+      <c r="G38" s="18">
+        <v>43.77</v>
+      </c>
+      <c r="H38" s="18">
+        <v>52.3</v>
+      </c>
+      <c r="I38" s="18">
+        <v>48.55</v>
+      </c>
+      <c r="J38" s="18">
+        <v>36.13</v>
+      </c>
+      <c r="K38" s="18">
         <v>1.37</v>
       </c>
-      <c r="F38" s="18">
+      <c r="L38" s="18">
         <v>0.01</v>
       </c>
-      <c r="G38" s="18">
+      <c r="M38" s="18">
         <v>1.36</v>
       </c>
-      <c r="H38" s="18">
+      <c r="N38" s="18">
         <v>-0.373869421028064</v>
       </c>
-      <c r="I38" s="18">
+      <c r="O38" s="18">
         <v>43.77</v>
       </c>
-      <c r="J38" s="18">
+      <c r="P38" s="18">
         <v>5.36</v>
       </c>
-      <c r="K38" s="18">
+      <c r="Q38" s="18">
         <v>0.92</v>
       </c>
-      <c r="L38" s="18">
+      <c r="R38" s="18">
         <v>4.44</v>
       </c>
-      <c r="M38" s="18">
+      <c r="S38" s="18">
         <v>0.138202994302404</v>
       </c>
-      <c r="N38" s="18">
+      <c r="T38" s="18">
         <v>52.3</v>
       </c>
-      <c r="O38" s="18">
+      <c r="U38" s="18">
         <v>0.21</v>
       </c>
-      <c r="P38" s="18">
+      <c r="V38" s="18">
         <v>1.11</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="W38" s="18">
         <v>-0.9</v>
       </c>
-      <c r="R38" s="18">
+      <c r="X38" s="18">
         <v>-0.0869239655520702</v>
       </c>
-      <c r="S38" s="18">
+      <c r="Y38" s="18">
         <v>48.55</v>
       </c>
-      <c r="T38" s="18">
+      <c r="Z38" s="18">
         <v>93.67</v>
       </c>
-      <c r="U38" s="18">
+      <c r="AA38" s="18">
         <v>97.75</v>
       </c>
-      <c r="V38" s="18">
+      <c r="AB38" s="18">
         <v>-4.08</v>
       </c>
-      <c r="W38" s="18">
+      <c r="AC38" s="18">
         <v>0.590421764798249</v>
       </c>
-      <c r="X38" s="18">
+      <c r="AD38" s="18">
         <v>59.84</v>
       </c>
-      <c r="Y38" s="18">
+      <c r="AE38" s="18">
         <v>1.58</v>
       </c>
-      <c r="Z38" s="18">
+      <c r="AF38" s="18">
         <v>0.84</v>
       </c>
-      <c r="AA38" s="18">
+      <c r="AG38" s="18">
         <v>0.74</v>
       </c>
-      <c r="AB38" s="18">
+      <c r="AH38" s="18">
         <v>-0.831986609459576</v>
       </c>
-      <c r="AC38" s="18">
+      <c r="AI38" s="18">
         <v>36.13</v>
-      </c>
-      <c r="AD38" s="18">
-        <v>48.12</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -5287,91 +5869,106 @@
         <v>41</v>
       </c>
       <c r="B39" t="s" s="15">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s" s="16">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D39" s="17">
         <v>2022</v>
       </c>
       <c r="E39" s="18">
+        <v>49.07</v>
+      </c>
+      <c r="F39" s="18">
+        <v>44.15</v>
+      </c>
+      <c r="G39" s="18">
+        <v>68.83</v>
+      </c>
+      <c r="H39" s="18">
+        <v>68.06</v>
+      </c>
+      <c r="I39" s="18">
+        <v>24.68</v>
+      </c>
+      <c r="J39" s="18">
+        <v>39.61</v>
+      </c>
+      <c r="K39" s="18">
         <v>0.79</v>
       </c>
-      <c r="F39" s="18">
+      <c r="L39" s="18">
         <v>0</v>
       </c>
-      <c r="G39" s="18">
+      <c r="M39" s="18">
         <v>0.79</v>
       </c>
-      <c r="H39" s="18">
+      <c r="N39" s="18">
         <v>1.12972483124762</v>
       </c>
-      <c r="I39" s="18">
+      <c r="O39" s="18">
         <v>68.83</v>
       </c>
-      <c r="J39" s="18">
+      <c r="P39" s="18">
         <v>3.48</v>
       </c>
-      <c r="K39" s="18">
+      <c r="Q39" s="18">
         <v>0.44</v>
       </c>
-      <c r="L39" s="18">
+      <c r="R39" s="18">
         <v>3.04</v>
       </c>
-      <c r="M39" s="18">
+      <c r="S39" s="18">
         <v>1.08380242900307</v>
       </c>
-      <c r="N39" s="18">
+      <c r="T39" s="18">
         <v>68.06</v>
       </c>
-      <c r="O39" s="18">
+      <c r="U39" s="18">
         <v>0.57</v>
       </c>
-      <c r="P39" s="18">
+      <c r="V39" s="18">
         <v>0.83</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="W39" s="18">
         <v>-0.26</v>
       </c>
-      <c r="R39" s="18">
+      <c r="X39" s="18">
         <v>-1.5190178138555</v>
       </c>
-      <c r="S39" s="18">
+      <c r="Y39" s="18">
         <v>24.68</v>
       </c>
-      <c r="T39" s="18">
+      <c r="Z39" s="18">
         <v>92.91</v>
       </c>
-      <c r="U39" s="18">
+      <c r="AA39" s="18">
         <v>98.58</v>
       </c>
-      <c r="V39" s="18">
+      <c r="AB39" s="18">
         <v>-5.67</v>
       </c>
-      <c r="W39" s="18">
+      <c r="AC39" s="18">
         <v>-0.351064667477918</v>
       </c>
-      <c r="X39" s="18">
+      <c r="AD39" s="18">
         <v>44.15</v>
       </c>
-      <c r="Y39" s="18">
+      <c r="AE39" s="18">
         <v>1.06</v>
       </c>
-      <c r="Z39" s="18">
+      <c r="AF39" s="18">
         <v>0.38</v>
       </c>
-      <c r="AA39" s="18">
+      <c r="AG39" s="18">
         <v>0.68</v>
       </c>
-      <c r="AB39" s="18">
+      <c r="AH39" s="18">
         <v>-0.623321157569393</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AI39" s="18">
         <v>39.61</v>
-      </c>
-      <c r="AD39" s="18">
-        <v>49.07</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -5379,91 +5976,106 @@
         <v>42</v>
       </c>
       <c r="B40" t="s" s="15">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s" s="16">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D40" s="17">
         <v>2022</v>
       </c>
       <c r="E40" s="18">
+        <v>45.63</v>
+      </c>
+      <c r="F40" s="18">
+        <v>44.15</v>
+      </c>
+      <c r="G40" s="18">
+        <v>45.97</v>
+      </c>
+      <c r="H40" s="18">
+        <v>36.99</v>
+      </c>
+      <c r="I40" s="18">
+        <v>60.86</v>
+      </c>
+      <c r="J40" s="18">
+        <v>40.19</v>
+      </c>
+      <c r="K40" s="18">
         <v>1.32</v>
       </c>
-      <c r="F40" s="18">
+      <c r="L40" s="18">
         <v>0.01</v>
       </c>
-      <c r="G40" s="18">
+      <c r="M40" s="18">
         <v>1.31</v>
       </c>
-      <c r="H40" s="18">
+      <c r="N40" s="18">
         <v>-0.241975188372302</v>
       </c>
-      <c r="I40" s="18">
+      <c r="O40" s="18">
         <v>45.97</v>
       </c>
-      <c r="J40" s="18">
+      <c r="P40" s="18">
         <v>6.38</v>
       </c>
-      <c r="K40" s="18">
+      <c r="Q40" s="18">
         <v>0.58</v>
       </c>
-      <c r="L40" s="18">
+      <c r="R40" s="18">
         <v>5.8</v>
       </c>
-      <c r="M40" s="18">
+      <c r="S40" s="18">
         <v>-0.780379313692524</v>
       </c>
-      <c r="N40" s="18">
+      <c r="T40" s="18">
         <v>36.99</v>
       </c>
-      <c r="O40" s="18">
+      <c r="U40" s="18">
         <v>0.3</v>
       </c>
-      <c r="P40" s="18">
+      <c r="V40" s="18">
         <v>1.53</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="W40" s="18">
         <v>-1.23</v>
       </c>
-      <c r="R40" s="18">
+      <c r="X40" s="18">
         <v>0.651499424979384</v>
       </c>
-      <c r="S40" s="18">
+      <c r="Y40" s="18">
         <v>60.86</v>
       </c>
-      <c r="T40" s="18">
+      <c r="Z40" s="18">
         <v>91.95</v>
       </c>
-      <c r="U40" s="18">
+      <c r="AA40" s="18">
         <v>97.62</v>
       </c>
-      <c r="V40" s="18">
+      <c r="AB40" s="18">
         <v>-5.67</v>
       </c>
-      <c r="W40" s="18">
+      <c r="AC40" s="18">
         <v>-0.351064667477918</v>
       </c>
-      <c r="X40" s="18">
+      <c r="AD40" s="18">
         <v>44.15</v>
       </c>
-      <c r="Y40" s="18">
+      <c r="AE40" s="18">
         <v>1.19</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="AF40" s="18">
         <v>0.52</v>
       </c>
-      <c r="AA40" s="18">
+      <c r="AG40" s="18">
         <v>0.67</v>
       </c>
-      <c r="AB40" s="18">
+      <c r="AH40" s="18">
         <v>-0.588543582254362</v>
       </c>
-      <c r="AC40" s="18">
+      <c r="AI40" s="18">
         <v>40.19</v>
-      </c>
-      <c r="AD40" s="18">
-        <v>45.63</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -5471,91 +6083,106 @@
         <v>44</v>
       </c>
       <c r="B41" t="s" s="15">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s" s="16">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D41" s="17">
         <v>2022</v>
       </c>
       <c r="E41" s="18">
+        <v>44.99</v>
+      </c>
+      <c r="F41" s="18">
+        <v>34.28</v>
+      </c>
+      <c r="G41" s="18">
+        <v>25.74</v>
+      </c>
+      <c r="H41" s="18">
+        <v>27.65</v>
+      </c>
+      <c r="I41" s="18">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="J41" s="18">
+        <v>47.73</v>
+      </c>
+      <c r="K41" s="18">
         <v>1.78</v>
       </c>
-      <c r="F41" s="18">
+      <c r="L41" s="18">
         <v>0.01</v>
       </c>
-      <c r="G41" s="18">
+      <c r="M41" s="18">
         <v>1.77</v>
       </c>
-      <c r="H41" s="18">
+      <c r="N41" s="18">
         <v>-1.45540212880531</v>
       </c>
-      <c r="I41" s="18">
+      <c r="O41" s="18">
         <v>25.74</v>
       </c>
-      <c r="J41" s="18">
+      <c r="P41" s="18">
         <v>6.9</v>
       </c>
-      <c r="K41" s="18">
+      <c r="Q41" s="18">
         <v>0.27</v>
       </c>
-      <c r="L41" s="18">
+      <c r="R41" s="18">
         <v>6.63</v>
       </c>
-      <c r="M41" s="18">
+      <c r="S41" s="18">
         <v>-1.34098469283649</v>
       </c>
-      <c r="N41" s="18">
+      <c r="T41" s="18">
         <v>27.65</v>
       </c>
-      <c r="O41" s="18">
+      <c r="U41" s="18">
         <v>0.48</v>
       </c>
-      <c r="P41" s="18">
+      <c r="V41" s="18">
         <v>2.48</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="W41" s="18">
         <v>-2</v>
       </c>
-      <c r="R41" s="18">
+      <c r="X41" s="18">
         <v>2.37448733621944</v>
       </c>
-      <c r="S41" s="18">
+      <c r="Y41" s="18">
         <v>89.56999999999999</v>
       </c>
-      <c r="T41" s="18">
+      <c r="Z41" s="18">
         <v>90.16</v>
       </c>
-      <c r="U41" s="18">
+      <c r="AA41" s="18">
         <v>96.83</v>
       </c>
-      <c r="V41" s="18">
+      <c r="AB41" s="18">
         <v>-6.67</v>
       </c>
-      <c r="W41" s="18">
+      <c r="AC41" s="18">
         <v>-0.943194499098147</v>
       </c>
-      <c r="X41" s="18">
+      <c r="AD41" s="18">
         <v>34.28</v>
       </c>
-      <c r="Y41" s="18">
+      <c r="AE41" s="18">
         <v>0.74</v>
       </c>
-      <c r="Z41" s="18">
+      <c r="AF41" s="18">
         <v>0.2</v>
       </c>
-      <c r="AA41" s="18">
+      <c r="AG41" s="18">
         <v>0.54</v>
       </c>
-      <c r="AB41" s="18">
+      <c r="AH41" s="18">
         <v>-0.136435103158966</v>
       </c>
-      <c r="AC41" s="18">
+      <c r="AI41" s="18">
         <v>47.73</v>
-      </c>
-      <c r="AD41" s="18">
-        <v>44.99</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -5563,91 +6190,106 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="15">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s" s="16">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D42" s="17">
         <v>2022</v>
       </c>
       <c r="E42" s="18">
+        <v>64.25</v>
+      </c>
+      <c r="F42" s="18">
+        <v>69.61</v>
+      </c>
+      <c r="G42" s="18">
+        <v>63.55</v>
+      </c>
+      <c r="H42" s="18">
+        <v>64.12</v>
+      </c>
+      <c r="I42" s="18">
+        <v>58.25</v>
+      </c>
+      <c r="J42" s="18">
+        <v>65.69</v>
+      </c>
+      <c r="K42" s="18">
         <v>0.91</v>
       </c>
-      <c r="F42" s="18">
+      <c r="L42" s="18">
         <v>0</v>
       </c>
-      <c r="G42" s="18">
+      <c r="M42" s="18">
         <v>0.91</v>
       </c>
-      <c r="H42" s="18">
+      <c r="N42" s="18">
         <v>0.813178672873794</v>
       </c>
-      <c r="I42" s="18">
+      <c r="O42" s="18">
         <v>63.55</v>
       </c>
-      <c r="J42" s="18">
+      <c r="P42" s="18">
         <v>4.02</v>
       </c>
-      <c r="K42" s="18">
+      <c r="Q42" s="18">
         <v>0.63</v>
       </c>
-      <c r="L42" s="18">
+      <c r="R42" s="18">
         <v>3.39</v>
       </c>
-      <c r="M42" s="18">
+      <c r="S42" s="18">
         <v>0.8474025703279</v>
       </c>
-      <c r="N42" s="18">
+      <c r="T42" s="18">
         <v>64.12</v>
       </c>
-      <c r="O42" s="18">
+      <c r="U42" s="18">
         <v>0.22</v>
       </c>
-      <c r="P42" s="18">
+      <c r="V42" s="18">
         <v>1.38</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="W42" s="18">
         <v>-1.16</v>
       </c>
-      <c r="R42" s="18">
+      <c r="X42" s="18">
         <v>0.494864160321196</v>
       </c>
-      <c r="S42" s="18">
+      <c r="Y42" s="18">
         <v>58.25</v>
       </c>
-      <c r="T42" s="18">
+      <c r="Z42" s="18">
         <v>94.67</v>
       </c>
-      <c r="U42" s="18">
+      <c r="AA42" s="18">
         <v>97.76000000000001</v>
       </c>
-      <c r="V42" s="18">
+      <c r="AB42" s="18">
         <v>-3.09</v>
       </c>
-      <c r="W42" s="18">
+      <c r="AC42" s="18">
         <v>1.17663029810227</v>
       </c>
-      <c r="X42" s="18">
+      <c r="AD42" s="18">
         <v>69.61</v>
       </c>
-      <c r="Y42" s="18">
+      <c r="AE42" s="18">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Z42" s="18">
+      <c r="AF42" s="18">
         <v>0.58</v>
       </c>
-      <c r="AA42" s="18">
+      <c r="AG42" s="18">
         <v>0.23</v>
       </c>
-      <c r="AB42" s="18">
+      <c r="AH42" s="18">
         <v>0.941669731606978</v>
       </c>
-      <c r="AC42" s="18">
+      <c r="AI42" s="18">
         <v>65.69</v>
-      </c>
-      <c r="AD42" s="18">
-        <v>64.25</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -5655,91 +6297,106 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="15">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s" s="16">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D43" s="17">
         <v>2022</v>
       </c>
       <c r="E43" s="18">
-        <v>1.45</v>
+        <v>23.13</v>
       </c>
       <c r="F43" s="18">
         <v>0</v>
       </c>
       <c r="G43" s="18">
+        <v>39.81</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>47.81</v>
+      </c>
+      <c r="J43" s="18">
+        <v>28.02</v>
+      </c>
+      <c r="K43" s="18">
         <v>1.45</v>
       </c>
-      <c r="H43" s="18">
+      <c r="L43" s="18">
+        <v>0</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1.45</v>
+      </c>
+      <c r="N43" s="18">
         <v>-0.611279039808435</v>
       </c>
-      <c r="I43" s="18">
+      <c r="O43" s="18">
         <v>39.81</v>
       </c>
-      <c r="J43" s="18">
+      <c r="P43" s="18">
         <v>9.84</v>
       </c>
-      <c r="K43" s="18">
+      <c r="Q43" s="18">
         <v>0.7</v>
       </c>
-      <c r="L43" s="18">
+      <c r="R43" s="18">
         <v>9.140000000000001</v>
       </c>
-      <c r="M43" s="18">
+      <c r="S43" s="18">
         <v>-3</v>
       </c>
-      <c r="N43" s="18">
+      <c r="T43" s="18">
         <v>0</v>
       </c>
-      <c r="O43" s="18">
+      <c r="U43" s="18">
         <v>0.49</v>
       </c>
-      <c r="P43" s="18">
+      <c r="V43" s="18">
         <v>1.37</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="W43" s="18">
         <v>-0.88</v>
       </c>
-      <c r="R43" s="18">
+      <c r="X43" s="18">
         <v>-0.131676898311552</v>
       </c>
-      <c r="S43" s="18">
+      <c r="Y43" s="18">
         <v>47.81</v>
       </c>
-      <c r="T43" s="18">
+      <c r="Z43" s="18">
         <v>87.26000000000001</v>
       </c>
-      <c r="U43" s="18">
+      <c r="AA43" s="18">
         <v>97.73</v>
       </c>
-      <c r="V43" s="18">
+      <c r="AB43" s="18">
         <v>-10.47</v>
       </c>
-      <c r="W43" s="18">
+      <c r="AC43" s="18">
         <v>-3</v>
       </c>
-      <c r="X43" s="18">
+      <c r="AD43" s="18">
         <v>0</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="AE43" s="18">
         <v>1.51</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="AF43" s="18">
         <v>0.63</v>
       </c>
-      <c r="AA43" s="18">
+      <c r="AG43" s="18">
         <v>0.88</v>
       </c>
-      <c r="AB43" s="18">
+      <c r="AH43" s="18">
         <v>-1.318872663870</v>
       </c>
-      <c r="AC43" s="18">
+      <c r="AI43" s="18">
         <v>28.02</v>
-      </c>
-      <c r="AD43" s="18">
-        <v>23.13</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -5747,91 +6404,106 @@
         <v>47</v>
       </c>
       <c r="B44" t="s" s="15">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s" s="16">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D44" s="17">
         <v>2022</v>
       </c>
       <c r="E44" s="18">
+        <v>52.97</v>
+      </c>
+      <c r="F44" s="18">
+        <v>61.72</v>
+      </c>
+      <c r="G44" s="18">
+        <v>57.84</v>
+      </c>
+      <c r="H44" s="18">
+        <v>60.41</v>
+      </c>
+      <c r="I44" s="18">
+        <v>37.74</v>
+      </c>
+      <c r="J44" s="18">
+        <v>47.15</v>
+      </c>
+      <c r="K44" s="18">
         <v>1.05</v>
       </c>
-      <c r="F44" s="18">
+      <c r="L44" s="18">
         <v>0.01</v>
       </c>
-      <c r="G44" s="18">
+      <c r="M44" s="18">
         <v>1.04</v>
       </c>
-      <c r="H44" s="18">
+      <c r="N44" s="18">
         <v>0.470253667968813</v>
       </c>
-      <c r="I44" s="18">
+      <c r="O44" s="18">
         <v>57.84</v>
       </c>
-      <c r="J44" s="18">
+      <c r="P44" s="18">
         <v>4.35</v>
       </c>
-      <c r="K44" s="18">
+      <c r="Q44" s="18">
         <v>0.63</v>
       </c>
-      <c r="L44" s="18">
+      <c r="R44" s="18">
         <v>3.72</v>
       </c>
-      <c r="M44" s="18">
+      <c r="S44" s="18">
         <v>0.624511275005601</v>
       </c>
-      <c r="N44" s="18">
+      <c r="T44" s="18">
         <v>60.41</v>
       </c>
-      <c r="O44" s="18">
+      <c r="U44" s="18">
         <v>0.21</v>
       </c>
-      <c r="P44" s="18">
+      <c r="V44" s="18">
         <v>0.82</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="W44" s="18">
         <v>-0.61</v>
       </c>
-      <c r="R44" s="18">
+      <c r="X44" s="18">
         <v>-0.7358414905645611</v>
       </c>
-      <c r="S44" s="18">
+      <c r="Y44" s="18">
         <v>37.74</v>
       </c>
-      <c r="T44" s="18">
+      <c r="Z44" s="18">
         <v>94.52</v>
       </c>
-      <c r="U44" s="18">
+      <c r="AA44" s="18">
         <v>98.41</v>
       </c>
-      <c r="V44" s="18">
+      <c r="AB44" s="18">
         <v>-3.89</v>
       </c>
-      <c r="W44" s="18">
+      <c r="AC44" s="18">
         <v>0.702926432806091</v>
       </c>
-      <c r="X44" s="18">
+      <c r="AD44" s="18">
         <v>61.72</v>
       </c>
-      <c r="Y44" s="18">
+      <c r="AE44" s="18">
         <v>1.12</v>
       </c>
-      <c r="Z44" s="18">
+      <c r="AF44" s="18">
         <v>0.57</v>
       </c>
-      <c r="AA44" s="18">
+      <c r="AG44" s="18">
         <v>0.55</v>
       </c>
-      <c r="AB44" s="18">
+      <c r="AH44" s="18">
         <v>-0.171212678473997</v>
       </c>
-      <c r="AC44" s="18">
+      <c r="AI44" s="18">
         <v>47.15</v>
-      </c>
-      <c r="AD44" s="18">
-        <v>52.97</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -5839,91 +6511,106 @@
         <v>48</v>
       </c>
       <c r="B45" t="s" s="15">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s" s="16">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D45" s="17">
         <v>2022</v>
       </c>
       <c r="E45" s="18">
+        <v>40.75</v>
+      </c>
+      <c r="F45" s="18">
+        <v>55.2</v>
+      </c>
+      <c r="G45" s="18">
+        <v>57.84</v>
+      </c>
+      <c r="H45" s="18">
+        <v>52.3</v>
+      </c>
+      <c r="I45" s="18">
+        <v>35.87</v>
+      </c>
+      <c r="J45" s="18">
+        <v>2.52</v>
+      </c>
+      <c r="K45" s="18">
         <v>1.05</v>
       </c>
-      <c r="F45" s="18">
+      <c r="L45" s="18">
         <v>0.01</v>
       </c>
-      <c r="G45" s="18">
+      <c r="M45" s="18">
         <v>1.04</v>
       </c>
-      <c r="H45" s="18">
+      <c r="N45" s="18">
         <v>0.470253667968813</v>
       </c>
-      <c r="I45" s="18">
+      <c r="O45" s="18">
         <v>57.84</v>
       </c>
-      <c r="J45" s="18">
+      <c r="P45" s="18">
         <v>5.19</v>
       </c>
-      <c r="K45" s="18">
+      <c r="Q45" s="18">
         <v>0.75</v>
       </c>
-      <c r="L45" s="18">
+      <c r="R45" s="18">
         <v>4.44</v>
       </c>
-      <c r="M45" s="18">
+      <c r="S45" s="18">
         <v>0.138202994302404</v>
       </c>
-      <c r="N45" s="18">
+      <c r="T45" s="18">
         <v>52.3</v>
       </c>
-      <c r="O45" s="18">
+      <c r="U45" s="18">
         <v>0.14</v>
       </c>
-      <c r="P45" s="18">
+      <c r="V45" s="18">
         <v>0.7</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="W45" s="18">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="R45" s="18">
+      <c r="X45" s="18">
         <v>-0.8477238224632661</v>
       </c>
-      <c r="S45" s="18">
+      <c r="Y45" s="18">
         <v>35.87</v>
       </c>
-      <c r="T45" s="18">
+      <c r="Z45" s="18">
         <v>93.92</v>
       </c>
-      <c r="U45" s="18">
+      <c r="AA45" s="18">
         <v>98.47</v>
       </c>
-      <c r="V45" s="18">
+      <c r="AB45" s="18">
         <v>-4.55</v>
       </c>
-      <c r="W45" s="18">
+      <c r="AC45" s="18">
         <v>0.312120743936741</v>
       </c>
-      <c r="X45" s="18">
+      <c r="AD45" s="18">
         <v>55.2</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="AE45" s="18">
         <v>2.01</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="AF45" s="18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AA45" s="18">
+      <c r="AG45" s="18">
         <v>1.32</v>
       </c>
-      <c r="AB45" s="18">
+      <c r="AH45" s="18">
         <v>-2.84908597773134</v>
       </c>
-      <c r="AC45" s="18">
+      <c r="AI45" s="18">
         <v>2.52</v>
-      </c>
-      <c r="AD45" s="18">
-        <v>40.75</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -5931,91 +6618,106 @@
         <v>49</v>
       </c>
       <c r="B46" t="s" s="15">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s" s="16">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D46" s="17">
         <v>2022</v>
       </c>
       <c r="E46" s="18">
+        <v>48.91</v>
+      </c>
+      <c r="F46" s="18">
+        <v>60.24</v>
+      </c>
+      <c r="G46" s="18">
+        <v>44.21</v>
+      </c>
+      <c r="H46" s="18">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="I46" s="18">
+        <v>38.85</v>
+      </c>
+      <c r="J46" s="18">
+        <v>34.97</v>
+      </c>
+      <c r="K46" s="18">
         <v>1.35</v>
       </c>
-      <c r="F46" s="18">
+      <c r="L46" s="18">
         <v>0</v>
       </c>
-      <c r="G46" s="18">
+      <c r="M46" s="18">
         <v>1.35</v>
       </c>
-      <c r="H46" s="18">
+      <c r="N46" s="18">
         <v>-0.347490574496911</v>
       </c>
-      <c r="I46" s="18">
+      <c r="O46" s="18">
         <v>44.21</v>
       </c>
-      <c r="J46" s="18">
+      <c r="P46" s="18">
         <v>3.49</v>
       </c>
-      <c r="K46" s="18">
+      <c r="Q46" s="18">
         <v>0.29</v>
       </c>
-      <c r="L46" s="18">
+      <c r="R46" s="18">
         <v>3.2</v>
       </c>
-      <c r="M46" s="18">
+      <c r="S46" s="18">
         <v>0.975733922180132</v>
       </c>
-      <c r="N46" s="18">
+      <c r="T46" s="18">
         <v>66.26000000000001</v>
       </c>
-      <c r="O46" s="18">
+      <c r="U46" s="18">
         <v>0.19</v>
       </c>
-      <c r="P46" s="18">
+      <c r="V46" s="18">
         <v>0.83</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="W46" s="18">
         <v>-0.64</v>
       </c>
-      <c r="R46" s="18">
+      <c r="X46" s="18">
         <v>-0.6687120914253381</v>
       </c>
-      <c r="S46" s="18">
+      <c r="Y46" s="18">
         <v>38.85</v>
       </c>
-      <c r="T46" s="18">
+      <c r="Z46" s="18">
         <v>94.75</v>
       </c>
-      <c r="U46" s="18">
+      <c r="AA46" s="18">
         <v>98.79000000000001</v>
       </c>
-      <c r="V46" s="18">
+      <c r="AB46" s="18">
         <v>-4.04000000000001</v>
       </c>
-      <c r="W46" s="18">
+      <c r="AC46" s="18">
         <v>0.614106958063053</v>
       </c>
-      <c r="X46" s="18">
+      <c r="AD46" s="18">
         <v>60.24</v>
       </c>
-      <c r="Y46" s="18">
+      <c r="AE46" s="18">
         <v>0.98</v>
       </c>
-      <c r="Z46" s="18">
+      <c r="AF46" s="18">
         <v>0.22</v>
       </c>
-      <c r="AA46" s="18">
+      <c r="AG46" s="18">
         <v>0.76</v>
       </c>
-      <c r="AB46" s="18">
+      <c r="AH46" s="18">
         <v>-0.901541760089637</v>
       </c>
-      <c r="AC46" s="18">
+      <c r="AI46" s="18">
         <v>34.97</v>
-      </c>
-      <c r="AD46" s="18">
-        <v>48.91</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -6023,91 +6725,106 @@
         <v>50</v>
       </c>
       <c r="B47" t="s" s="15">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s" s="16">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D47" s="17">
         <v>2022</v>
       </c>
       <c r="E47" s="18">
+        <v>65.72</v>
+      </c>
+      <c r="F47" s="18">
+        <v>49.58</v>
+      </c>
+      <c r="G47" s="18">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="H47" s="18">
+        <v>55.57</v>
+      </c>
+      <c r="I47" s="18">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="J47" s="18">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="K47" s="18">
         <v>0.66</v>
       </c>
-      <c r="F47" s="18">
+      <c r="L47" s="18">
         <v>0</v>
       </c>
-      <c r="G47" s="18">
+      <c r="M47" s="18">
         <v>0.66</v>
       </c>
-      <c r="H47" s="18">
+      <c r="N47" s="18">
         <v>1.4726498361526</v>
       </c>
-      <c r="I47" s="18">
+      <c r="O47" s="18">
         <v>74.54000000000001</v>
       </c>
-      <c r="J47" s="18">
+      <c r="P47" s="18">
         <v>4.35</v>
       </c>
-      <c r="K47" s="18">
+      <c r="Q47" s="18">
         <v>0.2</v>
       </c>
-      <c r="L47" s="18">
+      <c r="R47" s="18">
         <v>4.15</v>
       </c>
-      <c r="M47" s="18">
+      <c r="S47" s="18">
         <v>0.33407716291897</v>
       </c>
-      <c r="N47" s="18">
+      <c r="T47" s="18">
         <v>55.57</v>
       </c>
-      <c r="O47" s="18">
+      <c r="U47" s="18">
         <v>0.61</v>
       </c>
-      <c r="P47" s="18">
+      <c r="V47" s="18">
         <v>2.47</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="W47" s="18">
         <v>-1.86</v>
       </c>
-      <c r="R47" s="18">
+      <c r="X47" s="18">
         <v>2.06121680690307</v>
       </c>
-      <c r="S47" s="18">
+      <c r="Y47" s="18">
         <v>84.34999999999999</v>
       </c>
-      <c r="T47" s="18">
+      <c r="Z47" s="18">
         <v>91.77</v>
       </c>
-      <c r="U47" s="18">
+      <c r="AA47" s="18">
         <v>96.89</v>
       </c>
-      <c r="V47" s="18">
+      <c r="AB47" s="18">
         <v>-5.12</v>
       </c>
-      <c r="W47" s="18">
+      <c r="AC47" s="18">
         <v>-0.0253932600867936</v>
       </c>
-      <c r="X47" s="18">
+      <c r="AD47" s="18">
         <v>49.58</v>
       </c>
-      <c r="Y47" s="18">
+      <c r="AE47" s="18">
         <v>0.4</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="AF47" s="18">
         <v>0.15</v>
       </c>
-      <c r="AA47" s="18">
+      <c r="AG47" s="18">
         <v>0.25</v>
       </c>
-      <c r="AB47" s="18">
+      <c r="AH47" s="18">
         <v>0.872114580976918</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AI47" s="18">
         <v>64.54000000000001</v>
-      </c>
-      <c r="AD47" s="18">
-        <v>65.72</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -6115,91 +6832,106 @@
         <v>51</v>
       </c>
       <c r="B48" t="s" s="15">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s" s="16">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D48" s="17">
         <v>2022</v>
       </c>
       <c r="E48" s="18">
+        <v>54.84</v>
+      </c>
+      <c r="F48" s="18">
+        <v>60.43</v>
+      </c>
+      <c r="G48" s="18">
+        <v>54.32</v>
+      </c>
+      <c r="H48" s="18">
+        <v>55.46</v>
+      </c>
+      <c r="I48" s="18">
+        <v>59.74</v>
+      </c>
+      <c r="J48" s="18">
+        <v>44.25</v>
+      </c>
+      <c r="K48" s="18">
         <v>1.13</v>
       </c>
-      <c r="F48" s="18">
+      <c r="L48" s="18">
         <v>0.01</v>
       </c>
-      <c r="G48" s="18">
+      <c r="M48" s="18">
         <v>1.12</v>
       </c>
-      <c r="H48" s="18">
+      <c r="N48" s="18">
         <v>0.259222895719594</v>
       </c>
-      <c r="I48" s="18">
+      <c r="O48" s="18">
         <v>54.32</v>
       </c>
-      <c r="J48" s="18">
+      <c r="P48" s="18">
         <v>4.81</v>
       </c>
-      <c r="K48" s="18">
+      <c r="Q48" s="18">
         <v>0.65</v>
       </c>
-      <c r="L48" s="18">
+      <c r="R48" s="18">
         <v>4.16</v>
       </c>
-      <c r="M48" s="18">
+      <c r="S48" s="18">
         <v>0.327322881242537</v>
       </c>
-      <c r="N48" s="18">
+      <c r="T48" s="18">
         <v>55.46</v>
       </c>
-      <c r="O48" s="18">
+      <c r="U48" s="18">
         <v>0.21</v>
       </c>
-      <c r="P48" s="18">
+      <c r="V48" s="18">
         <v>1.41</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="W48" s="18">
         <v>-1.2</v>
       </c>
-      <c r="R48" s="18">
+      <c r="X48" s="18">
         <v>0.58437002584016</v>
       </c>
-      <c r="S48" s="18">
+      <c r="Y48" s="18">
         <v>59.74</v>
       </c>
-      <c r="T48" s="18">
+      <c r="Z48" s="18">
         <v>93.73</v>
       </c>
-      <c r="U48" s="18">
+      <c r="AA48" s="18">
         <v>97.75</v>
       </c>
-      <c r="V48" s="18">
+      <c r="AB48" s="18">
         <v>-4.02</v>
       </c>
-      <c r="W48" s="18">
+      <c r="AC48" s="18">
         <v>0.625949554695464</v>
       </c>
-      <c r="X48" s="18">
+      <c r="AD48" s="18">
         <v>60.43</v>
       </c>
-      <c r="Y48" s="18">
+      <c r="AE48" s="18">
         <v>1.19</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="AF48" s="18">
         <v>0.59</v>
       </c>
-      <c r="AA48" s="18">
+      <c r="AG48" s="18">
         <v>0.6</v>
       </c>
-      <c r="AB48" s="18">
+      <c r="AH48" s="18">
         <v>-0.345100555049149</v>
       </c>
-      <c r="AC48" s="18">
+      <c r="AI48" s="18">
         <v>44.25</v>
-      </c>
-      <c r="AD48" s="18">
-        <v>54.84</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -6207,91 +6939,106 @@
         <v>53</v>
       </c>
       <c r="B49" t="s" s="15">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s" s="16">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D49" s="17">
         <v>2022</v>
       </c>
       <c r="E49" s="18">
+        <v>57.84</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52.04</v>
+      </c>
+      <c r="G49" s="18">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="H49" s="18">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="I49" s="18">
+        <v>33.26</v>
+      </c>
+      <c r="J49" s="18">
+        <v>60.48</v>
+      </c>
+      <c r="K49" s="18">
         <v>0.66</v>
       </c>
-      <c r="F49" s="18">
+      <c r="L49" s="18">
         <v>0</v>
       </c>
-      <c r="G49" s="18">
+      <c r="M49" s="18">
         <v>0.66</v>
       </c>
-      <c r="H49" s="18">
+      <c r="N49" s="18">
         <v>1.4726498361526</v>
       </c>
-      <c r="I49" s="18">
+      <c r="O49" s="18">
         <v>74.54000000000001</v>
       </c>
-      <c r="J49" s="18">
+      <c r="P49" s="18">
         <v>3.3</v>
       </c>
-      <c r="K49" s="18">
+      <c r="Q49" s="18">
         <v>0.33</v>
       </c>
-      <c r="L49" s="18">
+      <c r="R49" s="18">
         <v>2.97</v>
       </c>
-      <c r="M49" s="18">
+      <c r="S49" s="18">
         <v>1.1310824007381</v>
       </c>
-      <c r="N49" s="18">
+      <c r="T49" s="18">
         <v>68.84999999999999</v>
       </c>
-      <c r="O49" s="18">
+      <c r="U49" s="18">
         <v>0.4</v>
       </c>
-      <c r="P49" s="18">
+      <c r="V49" s="18">
         <v>0.89</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="W49" s="18">
         <v>-0.49</v>
       </c>
-      <c r="R49" s="18">
+      <c r="X49" s="18">
         <v>-1.00435908712145</v>
       </c>
-      <c r="S49" s="18">
+      <c r="Y49" s="18">
         <v>33.26</v>
       </c>
-      <c r="T49" s="18">
+      <c r="Z49" s="18">
         <v>93.78</v>
       </c>
-      <c r="U49" s="18">
+      <c r="AA49" s="18">
         <v>98.65000000000001</v>
       </c>
-      <c r="V49" s="18">
+      <c r="AB49" s="18">
         <v>-4.87</v>
       </c>
-      <c r="W49" s="18">
+      <c r="AC49" s="18">
         <v>0.122639197818264</v>
       </c>
-      <c r="X49" s="18">
+      <c r="AD49" s="18">
         <v>52.04</v>
       </c>
-      <c r="Y49" s="18">
+      <c r="AE49" s="18">
         <v>0.61</v>
       </c>
-      <c r="Z49" s="18">
+      <c r="AF49" s="18">
         <v>0.29</v>
       </c>
-      <c r="AA49" s="18">
+      <c r="AG49" s="18">
         <v>0.32</v>
       </c>
-      <c r="AB49" s="18">
+      <c r="AH49" s="18">
         <v>0.628671553771704</v>
       </c>
-      <c r="AC49" s="18">
+      <c r="AI49" s="18">
         <v>60.48</v>
-      </c>
-      <c r="AD49" s="18">
-        <v>57.84</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -6299,91 +7046,106 @@
         <v>54</v>
       </c>
       <c r="B50" t="s" s="15">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s" s="16">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D50" s="17">
         <v>2022</v>
       </c>
       <c r="E50" s="18">
+        <v>56.03</v>
+      </c>
+      <c r="F50" s="18">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="G50" s="18">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="H50" s="18">
+        <v>58.83</v>
+      </c>
+      <c r="I50" s="18">
+        <v>44.45</v>
+      </c>
+      <c r="J50" s="18">
+        <v>42.51</v>
+      </c>
+      <c r="K50" s="18">
         <v>0.83</v>
       </c>
-      <c r="F50" s="18">
+      <c r="L50" s="18">
         <v>0.01</v>
       </c>
-      <c r="G50" s="18">
+      <c r="M50" s="18">
         <v>0.82</v>
       </c>
-      <c r="H50" s="18">
+      <c r="N50" s="18">
         <v>1.05058829165417</v>
       </c>
-      <c r="I50" s="18">
+      <c r="O50" s="18">
         <v>67.51000000000001</v>
       </c>
-      <c r="J50" s="18">
+      <c r="P50" s="18">
         <v>4.89</v>
       </c>
-      <c r="K50" s="18">
+      <c r="Q50" s="18">
         <v>1.03</v>
       </c>
-      <c r="L50" s="18">
+      <c r="R50" s="18">
         <v>3.86</v>
       </c>
-      <c r="M50" s="18">
+      <c r="S50" s="18">
         <v>0.529951331535535</v>
       </c>
-      <c r="N50" s="18">
+      <c r="T50" s="18">
         <v>58.83</v>
       </c>
-      <c r="O50" s="18">
+      <c r="U50" s="18">
         <v>0.18</v>
       </c>
-      <c r="P50" s="18">
+      <c r="V50" s="18">
         <v>0.97</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="W50" s="18">
         <v>-0.79</v>
       </c>
-      <c r="R50" s="18">
+      <c r="X50" s="18">
         <v>-0.333065095729222</v>
       </c>
-      <c r="S50" s="18">
+      <c r="Y50" s="18">
         <v>44.45</v>
       </c>
-      <c r="T50" s="18">
+      <c r="Z50" s="18">
         <v>94.41</v>
       </c>
-      <c r="U50" s="18">
+      <c r="AA50" s="18">
         <v>97.78</v>
       </c>
-      <c r="V50" s="18">
+      <c r="AB50" s="18">
         <v>-3.37</v>
       </c>
-      <c r="W50" s="18">
+      <c r="AC50" s="18">
         <v>1.01083394524861</v>
       </c>
-      <c r="X50" s="18">
+      <c r="AD50" s="18">
         <v>66.84999999999999</v>
       </c>
-      <c r="Y50" s="18">
+      <c r="AE50" s="18">
         <v>1.59</v>
       </c>
-      <c r="Z50" s="18">
+      <c r="AF50" s="18">
         <v>0.96</v>
       </c>
-      <c r="AA50" s="18">
+      <c r="AG50" s="18">
         <v>0.63</v>
       </c>
-      <c r="AB50" s="18">
+      <c r="AH50" s="18">
         <v>-0.449433280994241</v>
       </c>
-      <c r="AC50" s="18">
+      <c r="AI50" s="18">
         <v>42.51</v>
-      </c>
-      <c r="AD50" s="18">
-        <v>56.03</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -6391,91 +7153,106 @@
         <v>55</v>
       </c>
       <c r="B51" t="s" s="15">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s" s="16">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D51" s="17">
         <v>2022</v>
       </c>
       <c r="E51" s="18">
+        <v>51.99</v>
+      </c>
+      <c r="F51" s="18">
+        <v>43.56</v>
+      </c>
+      <c r="G51" s="18">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="H51" s="18">
+        <v>49.71</v>
+      </c>
+      <c r="I51" s="18">
+        <v>43.33</v>
+      </c>
+      <c r="J51" s="18">
+        <v>55.84</v>
+      </c>
+      <c r="K51" s="18">
         <v>0.83</v>
       </c>
-      <c r="F51" s="18">
+      <c r="L51" s="18">
         <v>0.01</v>
       </c>
-      <c r="G51" s="18">
+      <c r="M51" s="18">
         <v>0.82</v>
       </c>
-      <c r="H51" s="18">
+      <c r="N51" s="18">
         <v>1.05058829165417</v>
       </c>
-      <c r="I51" s="18">
+      <c r="O51" s="18">
         <v>67.51000000000001</v>
       </c>
-      <c r="J51" s="18">
+      <c r="P51" s="18">
         <v>5.2</v>
       </c>
-      <c r="K51" s="18">
+      <c r="Q51" s="18">
         <v>0.53</v>
       </c>
-      <c r="L51" s="18">
+      <c r="R51" s="18">
         <v>4.67</v>
       </c>
-      <c r="M51" s="18">
+      <c r="S51" s="18">
         <v>-0.0171454842555619</v>
       </c>
-      <c r="N51" s="18">
+      <c r="T51" s="18">
         <v>49.71</v>
       </c>
-      <c r="O51" s="18">
+      <c r="U51" s="18">
         <v>0.31</v>
       </c>
-      <c r="P51" s="18">
+      <c r="V51" s="18">
         <v>1.07</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="W51" s="18">
         <v>-0.76</v>
       </c>
-      <c r="R51" s="18">
+      <c r="X51" s="18">
         <v>-0.400194494868445</v>
       </c>
-      <c r="S51" s="18">
+      <c r="Y51" s="18">
         <v>43.33</v>
       </c>
-      <c r="T51" s="18">
+      <c r="Z51" s="18">
         <v>92.53</v>
       </c>
-      <c r="U51" s="18">
+      <c r="AA51" s="18">
         <v>98.26000000000001</v>
       </c>
-      <c r="V51" s="18">
+      <c r="AB51" s="18">
         <v>-5.73</v>
       </c>
-      <c r="W51" s="18">
+      <c r="AC51" s="18">
         <v>-0.386592457375133</v>
       </c>
-      <c r="X51" s="18">
+      <c r="AD51" s="18">
         <v>43.56</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="AE51" s="18">
         <v>0.88</v>
       </c>
-      <c r="Z51" s="18">
+      <c r="AF51" s="18">
         <v>0.48</v>
       </c>
-      <c r="AA51" s="18">
+      <c r="AG51" s="18">
         <v>0.4</v>
       </c>
-      <c r="AB51" s="18">
+      <c r="AH51" s="18">
         <v>0.35045095125146</v>
       </c>
-      <c r="AC51" s="18">
+      <c r="AI51" s="18">
         <v>55.84</v>
-      </c>
-      <c r="AD51" s="18">
-        <v>51.99</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -6483,91 +7260,106 @@
         <v>56</v>
       </c>
       <c r="B52" t="s" s="15">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s" s="16">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D52" s="17">
         <v>2022</v>
       </c>
       <c r="E52" s="18">
+        <v>59.23</v>
+      </c>
+      <c r="F52" s="18">
+        <v>63.69</v>
+      </c>
+      <c r="G52" s="18">
+        <v>75.86</v>
+      </c>
+      <c r="H52" s="18">
+        <v>55.68</v>
+      </c>
+      <c r="I52" s="18">
+        <v>48.55</v>
+      </c>
+      <c r="J52" s="18">
+        <v>52.36</v>
+      </c>
+      <c r="K52" s="18">
         <v>0.63</v>
       </c>
-      <c r="F52" s="18">
+      <c r="L52" s="18">
         <v>0</v>
       </c>
-      <c r="G52" s="18">
+      <c r="M52" s="18">
         <v>0.63</v>
       </c>
-      <c r="H52" s="18">
+      <c r="N52" s="18">
         <v>1.55178637574606</v>
       </c>
-      <c r="I52" s="18">
+      <c r="O52" s="18">
         <v>75.86</v>
       </c>
-      <c r="J52" s="18">
+      <c r="P52" s="18">
         <v>4.74</v>
       </c>
-      <c r="K52" s="18">
+      <c r="Q52" s="18">
         <v>0.6</v>
       </c>
-      <c r="L52" s="18">
+      <c r="R52" s="18">
         <v>4.14</v>
       </c>
-      <c r="M52" s="18">
+      <c r="S52" s="18">
         <v>0.340831444595402</v>
       </c>
-      <c r="N52" s="18">
+      <c r="T52" s="18">
         <v>55.68</v>
       </c>
-      <c r="O52" s="18">
+      <c r="U52" s="18">
         <v>0.14</v>
       </c>
-      <c r="P52" s="18">
+      <c r="V52" s="18">
         <v>1.04</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="W52" s="18">
         <v>-0.9</v>
       </c>
-      <c r="R52" s="18">
+      <c r="X52" s="18">
         <v>-0.08692396555207051</v>
       </c>
-      <c r="S52" s="18">
+      <c r="Y52" s="18">
         <v>48.55</v>
       </c>
-      <c r="T52" s="18">
+      <c r="Z52" s="18">
         <v>94.51000000000001</v>
       </c>
-      <c r="U52" s="18">
+      <c r="AA52" s="18">
         <v>98.2</v>
       </c>
-      <c r="V52" s="18">
+      <c r="AB52" s="18">
         <v>-3.69</v>
       </c>
-      <c r="W52" s="18">
+      <c r="AC52" s="18">
         <v>0.821352399130138</v>
       </c>
-      <c r="X52" s="18">
+      <c r="AD52" s="18">
         <v>63.69</v>
       </c>
-      <c r="Y52" s="18">
+      <c r="AE52" s="18">
         <v>0.98</v>
       </c>
-      <c r="Z52" s="18">
+      <c r="AF52" s="18">
         <v>0.52</v>
       </c>
-      <c r="AA52" s="18">
+      <c r="AG52" s="18">
         <v>0.46</v>
       </c>
-      <c r="AB52" s="18">
+      <c r="AH52" s="18">
         <v>0.141785499361278</v>
       </c>
-      <c r="AC52" s="18">
+      <c r="AI52" s="18">
         <v>52.36</v>
-      </c>
-      <c r="AD52" s="18">
-        <v>59.23</v>
       </c>
     </row>
   </sheetData>
